--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD291A8-70EB-4F0A-B082-1D96A64571BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374871B-D93B-494D-958F-48260EA97365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="명사" sheetId="4" r:id="rId1"/>
+    <sheet name="동사" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="164">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,16 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Service
-method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAO
-method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JPA 쿼리메서드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,14 +322,6 @@
   </si>
   <si>
     <t>findTop3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memId, memPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -367,15 +350,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PATCH?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name 한 개만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTO에 getName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,6 +449,244 @@
   </si>
   <si>
     <t>각자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cproject/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나문오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookMarkController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 참여자 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinlist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindException</t>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundingController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>join.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bookmark/{no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장 대량 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장 한개 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{no}/members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/funding/{no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크한프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/members</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creator/projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/marked-projects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/logincheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoginController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인/목록/상세/마이</t>
+  </si>
+  <si>
+    <t>메인/목록/상세/마이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sabarada.tistory.com/28</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ko-kr/azure/architecture/best-practices/api-design</t>
+  </si>
+  <si>
+    <t>https://velog.io/@pm1100tm/%EA%B9%94%EB%81%94%ED%95%9C-URL-%ED%8C%A8%ED%84%B4%EC%9D%84-%EC%9C%84%ED%95%9C-REST-Resource-Naming-Guide</t>
+  </si>
+  <si>
+    <t>https://developer.cafe24.com/docs/en/api/admin/#api-status-code</t>
+  </si>
+  <si>
+    <t>ProjectListController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberProjectController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{no}/histrory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterController
+(ImageUpload 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.html /apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage.html / apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmypage.html / register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 참여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,7 +694,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +736,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -557,18 +778,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -982,13 +1203,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,52 +1422,247 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,11 +1671,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,95 +1683,14 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,12 +2005,1044 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EE43C-1B49-4AB9-8D61-D662968BE7CC}">
-  <dimension ref="B1:Y32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
+  <dimension ref="B1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="25.875" customWidth="1"/>
+    <col min="9" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.375" customWidth="1"/>
+    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="93" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="93" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="84"/>
+      <c r="G2" s="93" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="93"/>
+      <c r="P2" s="93"/>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" s="91"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="98"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="96"/>
+      <c r="N3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="90"/>
+      <c r="S3" s="92"/>
+    </row>
+    <row r="4" spans="2:19" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="76"/>
+      <c r="C5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="77" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="76"/>
+      <c r="C6" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="74"/>
+      <c r="F6" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="64" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="76"/>
+      <c r="C8" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G8" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="11"/>
+    </row>
+    <row r="9" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="76"/>
+      <c r="C9" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="74"/>
+      <c r="F9" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="76"/>
+      <c r="C10" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="74"/>
+      <c r="F10" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="76"/>
+      <c r="C11" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="78"/>
+      <c r="F11" s="63" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="2:19" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
+    </row>
+    <row r="13" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="80"/>
+      <c r="C13" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" s="87"/>
+      <c r="F13" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="75" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="76"/>
+      <c r="C15" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="86"/>
+      <c r="F15" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="59" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="3"/>
+    </row>
+    <row r="16" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="63" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="9"/>
+    </row>
+    <row r="17" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="82"/>
+      <c r="C17" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="11"/>
+    </row>
+    <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="82"/>
+      <c r="C18" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="86"/>
+      <c r="F18" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="82"/>
+      <c r="C19" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="87"/>
+      <c r="F19" s="63" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="2:19" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="82"/>
+      <c r="C20" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="72" t="s">
+        <v>158</v>
+      </c>
+      <c r="F20" s="71" t="s">
+        <v>130</v>
+      </c>
+      <c r="G20" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="N20" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="55"/>
+    </row>
+    <row r="21" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="80"/>
+      <c r="C21" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="74" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="G21" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="7"/>
+    </row>
+    <row r="22" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="78"/>
+      <c r="F22" s="63" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="76"/>
+      <c r="C23" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="76"/>
+      <c r="C24" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" s="74"/>
+      <c r="F24" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="3"/>
+    </row>
+    <row r="25" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="76"/>
+      <c r="C25" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="75"/>
+      <c r="F25" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="58" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="81"/>
+      <c r="C27" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="83"/>
+      <c r="F27" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="C29" s="13"/>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>154</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EE43C-1B49-4AB9-8D61-D662968BE7CC}">
+  <dimension ref="B1:AB30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomLeft" activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1559,137 +3051,158 @@
     <col min="2" max="2" width="14.75" customWidth="1"/>
     <col min="3" max="3" width="7.875" customWidth="1"/>
     <col min="4" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="14" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="18.25" customWidth="1"/>
-    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="18.25" customWidth="1"/>
+    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="24" max="24" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I1" t="s">
+    <row r="1" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
+    <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="114" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="114" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="113"/>
+      <c r="L2" s="112" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="113"/>
+      <c r="N2" s="110" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="27"/>
+      <c r="P2" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="39"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="24" t="s">
+      <c r="U2" s="91"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="118"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="111"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="R3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="30"/>
-    </row>
-    <row r="4" spans="2:25" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T3" s="90"/>
+      <c r="U3" s="92"/>
+    </row>
+    <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>72</v>
+      </c>
       <c r="J4" s="21"/>
       <c r="K4" s="21"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
-      <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="2:25" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+      <c r="R4" s="22"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="23"/>
+    </row>
+    <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="100" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -1699,32 +3212,39 @@
         <v>23</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="103" t="s">
         <v>52</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>88</v>
+      </c>
       <c r="J5" s="10"/>
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="Q5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B6" s="82"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1732,28 +3252,35 @@
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="116"/>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B7" s="82"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -1761,36 +3288,41 @@
         <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="116"/>
+      <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="17"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="R7" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="82"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -1798,30 +3330,35 @@
         <v>2</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="116"/>
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="82"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -1829,30 +3366,35 @@
         <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="116"/>
+      <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="82"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -1860,31 +3402,38 @@
         <v>9</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="116"/>
+      <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="I10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="3"/>
-      <c r="Y10" t="s">
+      <c r="R10" s="17"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="3"/>
+      <c r="AB10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
+    <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="82"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -1892,568 +3441,640 @@
         <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="34"/>
+        <v>90</v>
+      </c>
+      <c r="F11" s="116"/>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>90</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:25" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="65"/>
-      <c r="C12" s="70" t="s">
+      <c r="R11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="107" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="101"/>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="71" t="s">
+      <c r="E13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="109"/>
+      <c r="G13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="38"/>
+      <c r="P13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="74"/>
-    </row>
-    <row r="13" spans="2:25" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="Q13" s="8"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10" t="s">
+      <c r="D14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="107" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="2:25" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="Q14" s="10"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="W14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="82"/>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="108"/>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="T15" t="s">
-        <v>107</v>
-      </c>
-      <c r="U15" s="78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="82"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="108"/>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="82"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="62"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="108"/>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="1" t="s">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="2:21" s="52" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="82"/>
+      <c r="C18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
+      <c r="D18" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="109"/>
+      <c r="G18" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="2:18" s="58" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="55" t="s">
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="51"/>
+    </row>
+    <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="82"/>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="108" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="82"/>
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="57"/>
-    </row>
-    <row r="20" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>5</v>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="62"/>
+        <v>97</v>
+      </c>
+      <c r="F20" s="108"/>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="101"/>
+      <c r="C21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="109"/>
+      <c r="G21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="65"/>
-      <c r="C22" s="8" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="101"/>
+      <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="8" t="s">
+      <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="104"/>
+      <c r="G23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="100" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="2:18" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="2:18" s="58" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="61"/>
-    </row>
-    <row r="25" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="65"/>
-      <c r="C25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="2:18" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="102"/>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="66"/>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
-      <c r="D29" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C27" s="13"/>
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I30" t="s">
+      <c r="P28" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="G5:G12"/>
+  <mergeCells count="25">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9374871B-D93B-494D-958F-48260EA97365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5129116-F04F-422D-A045-59A2B809C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
     <sheet name="명사" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="170">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -546,10 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>join.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mylist.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -558,18 +554,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/projects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/project/{no}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/fundings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/bookmark/{no}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,10 +570,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/project/{no}/members</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/funding/{no}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -594,34 +578,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/members</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/creator/projects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/creator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/member/projects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/member/{id}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/member/marked-projects</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logincheck</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DTO기준</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,10 +594,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LoginController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>메인/목록/상세/마이</t>
   </si>
   <si>
@@ -651,14 +611,6 @@
   </si>
   <si>
     <t>https://developer.cafe24.com/docs/en/api/admin/#api-status-code</t>
-  </si>
-  <si>
-    <t>ProjectListController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemberProjectController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/project/{no}/histrory</t>
@@ -674,7 +626,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>info.html /apply.html</t>
+    <t>cmypage.html / register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리에이터 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리에이터 정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/logincheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/sigup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/funding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -682,11 +670,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cmypage.html / register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>펀딩 참여</t>
+    <t>MyPageController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.html / apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/bookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creator/project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{no}/member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{category}/{state}/{order}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundingDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +813,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="40">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -1328,13 +1352,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1515,9 +1548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1527,12 +1557,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1554,6 +1578,99 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1563,106 +1680,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1677,19 +1734,22 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2006,11 +2066,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
-  <dimension ref="B1:S32"/>
+  <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2020,83 +2080,88 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="25.875" customWidth="1"/>
-    <col min="9" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.375" customWidth="1"/>
-    <col min="16" max="16" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="18.25" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>48</v>
       </c>
       <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="97" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" s="93" t="s">
+    <row r="2" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="84"/>
-      <c r="G2" s="93" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="93" t="s">
+      <c r="O2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="93"/>
-      <c r="P2" s="93"/>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="89" t="s">
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="91"/>
-    </row>
-    <row r="3" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="98"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="T2" s="95"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="82"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="46"/>
       <c r="J3" s="44" t="s">
         <v>103</v>
@@ -2105,24 +2170,25 @@
       <c r="L3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="96"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="R3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="90"/>
-      <c r="S3" s="92"/>
-    </row>
-    <row r="4" spans="2:19" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="62" t="s">
+      <c r="S3" s="93"/>
+      <c r="T3" s="96"/>
+    </row>
+    <row r="4" spans="2:20" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="61" t="s">
         <v>117</v>
       </c>
       <c r="C4" s="39" t="s">
@@ -2143,33 +2209,36 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="76"/>
-      <c r="C5" s="43" t="s">
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="83"/>
+      <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="77" t="s">
-        <v>148</v>
-      </c>
-      <c r="F5" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" s="43" t="s">
+      <c r="E5" s="110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="74" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2179,31 +2248,32 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="M5" s="83"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="2:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="76"/>
-      <c r="C6" s="43" t="s">
+      <c r="S5" s="1"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="83"/>
+      <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="74"/>
-      <c r="F6" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="G6" s="43" t="s">
+      <c r="E6" s="108"/>
+      <c r="F6" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="74" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2211,181 +2281,196 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="M6" s="83"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="76" t="s">
+      <c r="S6" s="1"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="78"/>
-      <c r="F7" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="41" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="74" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="O7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="P7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="64" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="S7" s="65" t="s">
+      <c r="T7" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="76"/>
-      <c r="C8" s="39" t="s">
+    <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="83"/>
+      <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="73" t="s">
-        <v>118</v>
-      </c>
-      <c r="F8" s="57" t="s">
-        <v>139</v>
-      </c>
-      <c r="G8" s="39" t="s">
+      <c r="E8" s="108"/>
+      <c r="F8" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L8" s="6"/>
+      <c r="M8" s="83"/>
+      <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="O8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="11"/>
-    </row>
-    <row r="9" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="76"/>
-      <c r="C9" s="43" t="s">
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="83"/>
+      <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="G9" s="43" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="75" t="s">
         <v>116</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="P9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="76"/>
-      <c r="C10" s="43" t="s">
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="83"/>
+      <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="G10" s="43" t="s">
+      <c r="E10" s="108" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="H10" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L10" s="6"/>
+      <c r="M10" s="83"/>
+      <c r="N10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="O10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="3"/>
-    </row>
-    <row r="11" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="76"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="83"/>
       <c r="C11" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="78"/>
-      <c r="F11" s="63" t="s">
-        <v>129</v>
+      <c r="E11" s="108"/>
+      <c r="F11" s="62" t="s">
+        <v>128</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>113</v>
@@ -2395,73 +2480,79 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="83"/>
+      <c r="N11" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="79" t="s">
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="67" t="s">
+      <c r="C12" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="88" t="s">
-        <v>156</v>
-      </c>
+      <c r="E12" s="108"/>
       <c r="F12" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="67" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="64" t="s">
         <v>113</v>
       </c>
-      <c r="H12" s="68" t="s">
+      <c r="H12" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68" t="s">
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65" t="s">
+        <v>168</v>
+      </c>
+      <c r="L12" s="65"/>
+      <c r="M12" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="68" t="s">
+      <c r="O12" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
-    </row>
-    <row r="13" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="80"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
+    </row>
+    <row r="13" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="85"/>
       <c r="C13" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="87"/>
-      <c r="F13" s="63" t="s">
-        <v>144</v>
+        <v>134</v>
+      </c>
+      <c r="E13" s="109"/>
+      <c r="F13" s="62" t="s">
+        <v>161</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>113</v>
@@ -2471,564 +2562,657 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="85"/>
+      <c r="N13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76" t="s">
-        <v>147</v>
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="83" t="s">
+        <v>138</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="103" t="s">
         <v>119</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="G14" s="40" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
-        <v>107</v>
+      <c r="M14" s="83" t="s">
+        <v>138</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O14" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76"/>
-      <c r="C15" s="43" t="s">
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="83"/>
+      <c r="C15" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="103"/>
+      <c r="F15" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="M15" s="83"/>
+      <c r="N15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="83"/>
+      <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E15" s="86"/>
-      <c r="F15" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="G15" s="43" t="s">
+      <c r="D16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E16" s="104"/>
+      <c r="F16" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="59" t="s">
-        <v>162</v>
-      </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1" t="s">
+      <c r="H16" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="79" t="s">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C17" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="41" t="s">
+      <c r="E17" s="105"/>
+      <c r="F17" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8" t="s">
+      <c r="H17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" s="8"/>
+      <c r="M17" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="9"/>
-    </row>
-    <row r="17" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
-      <c r="C17" s="39" t="s">
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="86"/>
+      <c r="C18" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E18" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="86"/>
+      <c r="C19" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" s="1"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="86"/>
+      <c r="C20" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="8"/>
+      <c r="M20" s="86"/>
+      <c r="N20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="2:20" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="86"/>
+      <c r="C21" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="68" t="s">
         <v>155</v>
       </c>
-      <c r="F17" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="G17" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="H17" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="N17" s="10" t="s">
+      <c r="G21" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="L21" s="54"/>
+      <c r="M21" s="86"/>
+      <c r="N21" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="O21" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="55"/>
+    </row>
+    <row r="22" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="85"/>
+      <c r="C22" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="102" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="6"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="107"/>
+      <c r="F23" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="11"/>
-    </row>
-    <row r="18" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
-      <c r="C18" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="86"/>
-      <c r="F18" s="58" t="s">
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="83"/>
+      <c r="C24" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="L24" s="6"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="83"/>
+      <c r="C25" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G18" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="H18" s="59" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="82"/>
-      <c r="C19" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="87"/>
-      <c r="F19" s="63" t="s">
-        <v>157</v>
-      </c>
-      <c r="G19" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O19" s="8"/>
-      <c r="P19" s="8"/>
-      <c r="Q19" s="8"/>
-      <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="2:19" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="82"/>
-      <c r="C20" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="72" t="s">
-        <v>158</v>
-      </c>
-      <c r="F20" s="71" t="s">
-        <v>130</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="N20" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="55"/>
-    </row>
-    <row r="21" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="80"/>
-      <c r="C21" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="74" t="s">
-        <v>120</v>
-      </c>
-      <c r="F21" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="76" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="78"/>
-      <c r="F22" s="63" t="s">
-        <v>136</v>
-      </c>
-      <c r="G22" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="8" t="s">
+      <c r="E25" s="102"/>
+      <c r="F25" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O22" s="8"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="8"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="76"/>
-      <c r="C23" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E23" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="F23" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="76"/>
-      <c r="C24" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="74"/>
-      <c r="F24" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="G24" s="43"/>
-      <c r="H24" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="3"/>
-    </row>
-    <row r="25" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="76"/>
-      <c r="C25" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="75"/>
-      <c r="F25" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
-        <v>108</v>
-      </c>
+      <c r="M25" s="83"/>
       <c r="N25" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O25" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="76" t="s">
-        <v>62</v>
-      </c>
+      <c r="S25" s="1"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="83"/>
       <c r="C26" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="77" t="s">
-        <v>121</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E26" s="103"/>
       <c r="F26" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="G26" s="43"/>
+        <v>156</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>115</v>
+      </c>
       <c r="H26" s="1" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="83"/>
+      <c r="N26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="3"/>
-    </row>
-    <row r="27" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="81"/>
-      <c r="C27" s="42" t="s">
+      <c r="S26" s="1"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="87"/>
+      <c r="C28" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="83"/>
-      <c r="F27" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
+      <c r="E28" s="100"/>
+      <c r="F28" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="87"/>
+      <c r="N28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N27" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
-      <c r="D29" t="s">
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C30" s="13"/>
+      <c r="D30" t="s">
         <v>60</v>
       </c>
-      <c r="F29" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.3">
       <c r="F30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
-        <v>154</v>
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="35">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M27:M28"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E22:E23"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E23:E25"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B7:B11"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3042,7 +3226,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B22" sqref="B22:B23"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3082,62 +3266,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="117" t="s">
+      <c r="B2" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="114" t="s">
+      <c r="E2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="84" t="s">
+      <c r="F2" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H2" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="114" t="s">
+      <c r="I2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="112" t="s">
+      <c r="J2" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="113"/>
-      <c r="L2" s="112" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="113"/>
-      <c r="N2" s="110" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="118" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="93" t="s">
+      <c r="P2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="89" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="91"/>
+      <c r="U2" s="95"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="118"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="46"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -3146,7 +3330,7 @@
       <c r="M3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="111"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -3160,8 +3344,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="92"/>
+      <c r="T3" s="93"/>
+      <c r="U3" s="96"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -3202,7 +3386,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="111" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3214,7 +3398,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="112" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3244,7 +3428,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
+      <c r="B6" s="86"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3254,7 +3438,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="116"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3280,7 +3464,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3290,7 +3474,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="116"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3322,7 +3506,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82"/>
+      <c r="B8" s="86"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -3332,7 +3516,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="116"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3358,7 +3542,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="82"/>
+      <c r="B9" s="86"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3368,7 +3552,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="116"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3394,7 +3578,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
+      <c r="B10" s="86"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -3404,7 +3588,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="116"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3433,7 +3617,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="82"/>
+      <c r="B11" s="86"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3443,7 +3627,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="116"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3475,7 +3659,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="111" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3487,7 +3671,7 @@
       <c r="E12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="107" t="s">
+      <c r="F12" s="127" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -3517,7 +3701,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="101"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -3555,7 +3739,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="100" t="s">
+      <c r="B14" s="111" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3567,7 +3751,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="107" t="s">
+      <c r="F14" s="127" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3603,7 +3787,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="86"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3641,7 +3825,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="86"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3679,7 +3863,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="86"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -3717,7 +3901,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="52" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="82"/>
+      <c r="B18" s="86"/>
       <c r="C18" s="49" t="s">
         <v>53</v>
       </c>
@@ -3755,7 +3939,7 @@
       <c r="U18" s="51"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="86"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -3795,7 +3979,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="86"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3833,7 +4017,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="101"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4055,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3883,7 +4067,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="103" t="s">
+      <c r="F22" s="112" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -3913,7 +4097,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="101"/>
+      <c r="B23" s="122"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -3923,7 +4107,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="104"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -3951,7 +4135,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="111" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -3961,7 +4145,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="105" t="s">
+      <c r="F24" s="125" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -3987,7 +4171,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="102"/>
+      <c r="B25" s="123"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -3995,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="106"/>
+      <c r="F25" s="126"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -4050,13 +4234,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="P2:S2"/>
@@ -4066,15 +4252,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kosta_219\myspringboot\KKFD\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD291A8-70EB-4F0A-B082-1D96A64571BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="0" yWindow="1632" windowWidth="23040" windowHeight="7656"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="명사" sheetId="4" r:id="rId1"/>
+    <sheet name="동사" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="168">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,16 +300,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Service
-method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAO
-method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>JPA 쿼리메서드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -331,14 +321,6 @@
   </si>
   <si>
     <t>findTop3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>memId, memPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>form input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -367,15 +349,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PATCH?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>name 한 개만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTO에 getName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -474,14 +448,268 @@
   </si>
   <si>
     <t>각자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifyException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RemoveException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/cproject/*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나문오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성열</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김태호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookMarkController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 참여자 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>joinlist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindException</t>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundingController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mylist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/bookmark/{no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장 대량 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장 한개 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/funding/{no}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크한프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/{id}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO기준</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인/목록/상세/마이</t>
+  </si>
+  <si>
+    <t>메인/목록/상세/마이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sabarada.tistory.com/28</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ko-kr/azure/architecture/best-practices/api-design</t>
+  </si>
+  <si>
+    <t>https://velog.io/@pm1100tm/%EA%B9%94%EB%81%94%ED%95%9C-URL-%ED%8C%A8%ED%84%B4%EC%9D%84-%EC%9C%84%ED%95%9C-REST-Resource-Naming-Guide</t>
+  </si>
+  <si>
+    <t>https://developer.cafe24.com/docs/en/api/admin/#api-status-code</t>
+  </si>
+  <si>
+    <t>/project/{no}/histrory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RegisterController
+(ImageUpload 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmypage.html / register.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 참여</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리에이터 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리에이터 정보수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/logincheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/sigup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/funding</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypage.html / apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MyPageController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info.html / apply.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectController2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/bookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/member/project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/creator/project</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{no}/member</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{category}/{state}/{order}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registagree.html / regist.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +751,14 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -557,18 +793,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -982,13 +1218,147 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,37 +1446,178 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,13 +1626,88 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,107 +1716,29 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1545,915 +2053,2107 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EE43C-1B49-4AB9-8D61-D662968BE7CC}">
-  <dimension ref="B1:Y32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.125" customWidth="1"/>
-    <col min="2" max="2" width="14.75" customWidth="1"/>
-    <col min="3" max="3" width="7.875" customWidth="1"/>
-    <col min="4" max="5" width="18.125" customWidth="1"/>
-    <col min="6" max="6" width="16.875" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="14" width="10.375" customWidth="1"/>
-    <col min="15" max="15" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5" customWidth="1"/>
-    <col min="17" max="17" width="17" customWidth="1"/>
-    <col min="18" max="18" width="18.25" customWidth="1"/>
-    <col min="19" max="19" width="22" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
-    <col min="21" max="21" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.8984375" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="18.09765625" customWidth="1"/>
+    <col min="5" max="5" width="20.19921875" customWidth="1"/>
+    <col min="6" max="6" width="28.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.3984375" customWidth="1"/>
+    <col min="8" max="8" width="25.8984375" customWidth="1"/>
+    <col min="9" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="10.3984375" customWidth="1"/>
+    <col min="13" max="13" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.3984375" customWidth="1"/>
+    <col min="16" max="16" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
+    <col min="19" max="19" width="18.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:19" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:25" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="36" t="s">
+    <row r="2" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="85" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="87"/>
+      <c r="G2" s="85" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="94" t="s">
+        <v>104</v>
+      </c>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G2" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" s="27"/>
-      <c r="M2" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="R2" s="29"/>
-    </row>
-    <row r="3" spans="2:25" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="39"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="24" t="s">
+      <c r="S2" s="92"/>
+    </row>
+    <row r="3" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="84"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="44"/>
+      <c r="L3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="M3" s="95"/>
+      <c r="N3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="N3" s="24" t="s">
+      <c r="O3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="Q3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="30"/>
-    </row>
-    <row r="4" spans="2:25" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="R3" s="90"/>
+      <c r="S3" s="93"/>
+    </row>
+    <row r="4" spans="2:19" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21" t="s">
+      <c r="D4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="39"/>
+      <c r="H4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="23"/>
-    </row>
-    <row r="5" spans="2:25" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="10" t="s">
+      <c r="O4" s="10"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="11"/>
+    </row>
+    <row r="5" spans="2:19" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="96"/>
+      <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="64"/>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="80" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="G5" s="74" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="2:19" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="96"/>
+      <c r="C6" s="74" t="s">
+        <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="34"/>
+        <v>22</v>
+      </c>
+      <c r="E6" s="81"/>
+      <c r="F6" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="G6" s="74" t="s">
+        <v>116</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="17"/>
+        <v>43</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="64"/>
-      <c r="C7" s="1" t="s">
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="2:19" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="34"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="74" t="s">
+        <v>116</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="17"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="69" t="s">
+      <c r="Q7" s="1"/>
+      <c r="R7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="96"/>
+      <c r="C8" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="72" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="76" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="96"/>
+      <c r="C9" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="82"/>
+      <c r="F9" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="96"/>
+      <c r="C10" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="72" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="7"/>
+    </row>
+    <row r="11" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="96"/>
+      <c r="C11" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="81"/>
+      <c r="F11" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="P11" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="2:19" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="65" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="81"/>
+      <c r="F12" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G12" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="N12" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="66"/>
+    </row>
+    <row r="13" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="98"/>
+      <c r="C13" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="82"/>
+      <c r="F13" s="62" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="R7" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="64"/>
-      <c r="C8" s="1" t="s">
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="9"/>
+    </row>
+    <row r="14" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E14" s="103" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="96"/>
+      <c r="C15" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="64"/>
-      <c r="C9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="17"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="3"/>
-    </row>
-    <row r="10" spans="2:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="64"/>
-      <c r="C10" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1" t="s">
+      <c r="E15" s="103"/>
+      <c r="F15" s="70" t="s">
+        <v>135</v>
+      </c>
+      <c r="G15" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="N10" s="1"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="3"/>
-      <c r="Y10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="64"/>
-      <c r="C11" s="1" t="s">
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="96"/>
+      <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="2:25" s="75" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="65"/>
-      <c r="C12" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="71" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="70"/>
-      <c r="O12" s="72" t="s">
-        <v>84</v>
-      </c>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="74"/>
-    </row>
-    <row r="13" spans="2:25" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="77" t="s">
-        <v>106</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N13" s="10"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
-    </row>
-    <row r="14" spans="2:25" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="65"/>
-      <c r="C14" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>106</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="80"/>
-      <c r="M14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="8"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="9"/>
-    </row>
-    <row r="15" spans="2:25" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="52" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="11"/>
-      <c r="T15" t="s">
-        <v>107</v>
-      </c>
-      <c r="U15" s="78" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="16" spans="2:25" ht="33" x14ac:dyDescent="0.3">
-      <c r="B16" s="64"/>
-      <c r="C16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>104</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="1" t="s">
-        <v>27</v>
+        <v>151</v>
+      </c>
+      <c r="E16" s="104"/>
+      <c r="F16" s="58" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>148</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="105"/>
+      <c r="F17" s="62" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="N16" s="6"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="6"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="9"/>
+    </row>
+    <row r="18" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="109"/>
+      <c r="C18" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="106" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="G18" s="39" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="11"/>
+    </row>
+    <row r="19" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="109"/>
+      <c r="C19" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="109"/>
+      <c r="C20" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="105"/>
+      <c r="F20" s="62" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="H20" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="9"/>
+    </row>
+    <row r="21" spans="2:19" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="109"/>
+      <c r="C21" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="68" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="N21" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
+      <c r="S21" s="55"/>
+    </row>
+    <row r="22" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="98"/>
+      <c r="C22" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="102" t="s">
+        <v>161</v>
+      </c>
+      <c r="F22" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="107"/>
+      <c r="F23" s="62" t="s">
+        <v>165</v>
+      </c>
+      <c r="G23" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="9"/>
+    </row>
+    <row r="24" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="96"/>
+      <c r="C24" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" s="101" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="7"/>
+    </row>
+    <row r="25" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="96"/>
+      <c r="C25" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E25" s="102"/>
+      <c r="F25" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="3"/>
+    </row>
+    <row r="26" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="96"/>
+      <c r="C26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="103"/>
+      <c r="F26" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="3"/>
+    </row>
+    <row r="27" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="108"/>
+      <c r="C28" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E28" s="100"/>
+      <c r="F28" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5"/>
+    </row>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="C30" s="13"/>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="F31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="F32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+      <c r="F33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:B6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:AB30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.09765625" customWidth="1"/>
+    <col min="2" max="2" width="14.69921875" customWidth="1"/>
+    <col min="3" max="3" width="7.8984375" customWidth="1"/>
+    <col min="4" max="5" width="18.09765625" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
+    <col min="7" max="8" width="14.09765625" customWidth="1"/>
+    <col min="9" max="9" width="18.09765625" customWidth="1"/>
+    <col min="10" max="12" width="11.5" customWidth="1"/>
+    <col min="13" max="13" width="10.3984375" customWidth="1"/>
+    <col min="14" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.3984375" customWidth="1"/>
+    <col min="18" max="18" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="18.19921875" customWidth="1"/>
+    <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.09765625" customWidth="1"/>
+    <col min="24" max="24" width="21.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="113" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="115" t="s">
+        <v>111</v>
+      </c>
+      <c r="I2" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" s="119" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="120"/>
+      <c r="L2" s="119" t="s">
+        <v>106</v>
+      </c>
+      <c r="M2" s="120"/>
+      <c r="N2" s="117" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="27"/>
+      <c r="P2" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="U2" s="92"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B3" s="114"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="116"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="118"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="S3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="90"/>
+      <c r="U3" s="93"/>
+    </row>
+    <row r="4" spans="2:28" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="23"/>
+    </row>
+    <row r="5" spans="2:28" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="110" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="111" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11"/>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B6" s="109"/>
+      <c r="C6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="112"/>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.4">
+      <c r="B7" s="109"/>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="112"/>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R7" s="17"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="109"/>
+      <c r="C8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="112"/>
+      <c r="G8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="3"/>
+    </row>
+    <row r="9" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="109"/>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="112"/>
+      <c r="G9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="3"/>
+    </row>
+    <row r="10" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B10" s="109"/>
+      <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="112"/>
+      <c r="G10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="3"/>
+      <c r="AB10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="109"/>
+      <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="112"/>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="2:28" ht="35.4" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="110" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="126" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+    </row>
+    <row r="13" spans="2:28" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="121"/>
+      <c r="C13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="82"/>
+      <c r="G13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="38"/>
+      <c r="P13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:28" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="110" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I14" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="W14" t="s">
+        <v>101</v>
+      </c>
+      <c r="X14" s="37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="B15" s="109"/>
+      <c r="C15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="109"/>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="81"/>
+      <c r="G16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="Q16" s="6"/>
-      <c r="R16" s="7"/>
-    </row>
-    <row r="17" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="7"/>
+    </row>
+    <row r="17" spans="2:21" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="109"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="62"/>
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I17" s="1"/>
+        <v>113</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>93</v>
+      </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="1"/>
+      <c r="N17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="6"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="64"/>
-      <c r="C18" s="1" t="s">
+      <c r="Q17" s="1"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="3"/>
+    </row>
+    <row r="18" spans="2:21" s="52" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="109"/>
+      <c r="C18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
+      <c r="D18" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="82"/>
+      <c r="G18" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="49"/>
+      <c r="P18" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="3"/>
-    </row>
-    <row r="19" spans="2:18" s="58" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="64"/>
-      <c r="C19" s="55" t="s">
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="49"/>
+      <c r="T18" s="49"/>
+      <c r="U18" s="51"/>
+    </row>
+    <row r="19" spans="2:21" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B19" s="109"/>
+      <c r="C19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="7"/>
+    </row>
+    <row r="20" spans="2:21" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="109"/>
+      <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="55"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="57"/>
-    </row>
-    <row r="20" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="64"/>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="51" t="s">
-        <v>5</v>
+      <c r="D20" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="62"/>
+        <v>97</v>
+      </c>
+      <c r="F20" s="81"/>
+      <c r="G20" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="3"/>
+    </row>
+    <row r="21" spans="2:21" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="121"/>
+      <c r="C21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="82"/>
+      <c r="G21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="9"/>
+    </row>
+    <row r="22" spans="2:21" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="N20" s="1"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="3"/>
-    </row>
-    <row r="21" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="64"/>
-      <c r="C21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="1"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="3"/>
-    </row>
-    <row r="22" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="65"/>
-      <c r="C22" s="8" t="s">
+      <c r="Q22" s="10"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="11"/>
+    </row>
+    <row r="23" spans="2:21" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="121"/>
+      <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="8" t="s">
+      <c r="D23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="123"/>
+      <c r="G23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="110" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="124" t="s">
+        <v>59</v>
+      </c>
+      <c r="G24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" s="8"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="8"/>
-      <c r="R22" s="9"/>
-    </row>
-    <row r="23" spans="2:18" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="63" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="11"/>
-    </row>
-    <row r="24" spans="2:18" s="58" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="64"/>
-      <c r="C24" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="59"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="55" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="60"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="61"/>
-    </row>
-    <row r="25" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="65"/>
-      <c r="C25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="9"/>
-    </row>
-    <row r="26" spans="2:18" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="67" t="s">
-        <v>13</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" s="6" t="s">
+      <c r="Q24" s="6"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="2:21" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="122"/>
+      <c r="C25" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="4"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="7"/>
-    </row>
-    <row r="27" spans="2:18" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="66"/>
-      <c r="C27" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="N27" s="4"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="5"/>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="C29" s="13"/>
-      <c r="D29" t="s">
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="5"/>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="C27" s="13"/>
+      <c r="D27" t="s">
         <v>60</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I30" t="s">
+      <c r="P28" t="s">
         <v>69</v>
       </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+      <c r="J29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
       <c r="J30" t="s">
-        <v>70</v>
-      </c>
-      <c r="M30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="I32" t="s">
-        <v>73</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="B15:B22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="G23:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="G15:G22"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B5:B12"/>
-    <mergeCell ref="G5:G12"/>
+  <mergeCells count="25">
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\kosta_219\myspringboot\KKFD\공유폴더\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5129116-F04F-422D-A045-59A2B809C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1632" windowWidth="23040" windowHeight="7656"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
     <sheet name="명사" sheetId="4" r:id="rId1"/>
     <sheet name="동사" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="170">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -677,10 +678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProjectController2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/member/bookmark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -701,14 +698,26 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>registagree.html / regist.html</t>
+    <t>CreatorDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundingDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>memberDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1358,7 +1367,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1599,19 +1608,28 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1647,15 +1665,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1683,10 +1692,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2053,98 +2065,103 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
+  <dimension ref="B1:T33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.8984375" customWidth="1"/>
-    <col min="2" max="2" width="14.19921875" customWidth="1"/>
-    <col min="3" max="3" width="16.09765625" customWidth="1"/>
-    <col min="4" max="4" width="18.09765625" customWidth="1"/>
-    <col min="5" max="5" width="20.19921875" customWidth="1"/>
-    <col min="6" max="6" width="28.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="8" width="25.8984375" customWidth="1"/>
-    <col min="9" max="11" width="11.5" customWidth="1"/>
-    <col min="12" max="12" width="10.3984375" customWidth="1"/>
-    <col min="13" max="13" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="10.3984375" customWidth="1"/>
-    <col min="16" max="16" width="16.8984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" customWidth="1"/>
-    <col min="18" max="18" width="17" customWidth="1"/>
-    <col min="19" max="19" width="18.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="25.875" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" customWidth="1"/>
+    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.5" customWidth="1"/>
+    <col min="19" max="19" width="17" customWidth="1"/>
+    <col min="20" max="20" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>48</v>
       </c>
       <c r="L1" t="s">
         <v>47</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="83" t="s">
+    <row r="2" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="85" t="s">
+      <c r="F2" s="90"/>
+      <c r="G2" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="85" t="s">
+      <c r="H2" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="94" t="s">
+      <c r="I2" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94" t="s">
+      <c r="J2" s="97"/>
+      <c r="K2" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94" t="s">
+      <c r="L2" s="97"/>
+      <c r="M2" s="81" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="N2" s="85" t="s">
+      <c r="O2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="89" t="s">
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="92"/>
-    </row>
-    <row r="3" spans="2:19" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="84"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="T2" s="95"/>
+    </row>
+    <row r="3" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="82"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
       <c r="I3" s="46"/>
       <c r="J3" s="44" t="s">
         <v>103</v>
@@ -2153,23 +2170,24 @@
       <c r="L3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="95"/>
-      <c r="N3" s="24" t="s">
+      <c r="M3" s="82"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="P3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="Q3" s="45" t="s">
+      <c r="R3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="R3" s="90"/>
       <c r="S3" s="93"/>
-    </row>
-    <row r="4" spans="2:19" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="T3" s="96"/>
+    </row>
+    <row r="4" spans="2:20" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2191,27 +2209,30 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="M4" s="80" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="10"/>
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
-      <c r="S4" s="11"/>
-    </row>
-    <row r="5" spans="2:19" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="96"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="11"/>
+    </row>
+    <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="83"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="110" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="73" t="s">
@@ -2227,27 +2248,28 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="M5" s="83"/>
+      <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="2:19" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="96"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="3"/>
+    </row>
+    <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="83"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="108"/>
       <c r="F6" s="73" t="s">
         <v>153</v>
       </c>
@@ -2259,22 +2281,23 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="K6" s="6"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="M6" s="83"/>
+      <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="P6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:19" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="96" t="s">
+      <c r="S6" s="1"/>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="83" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -2283,7 +2306,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="81"/>
+      <c r="E7" s="108"/>
       <c r="F7" s="73" t="s">
         <v>157</v>
       </c>
@@ -2295,35 +2318,40 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="K7" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="83" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="34" t="s">
+      <c r="R7" s="1"/>
+      <c r="S7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="S7" s="14" t="s">
+      <c r="T7" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="96"/>
+    <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="83"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="81"/>
+      <c r="E8" s="108"/>
       <c r="F8" s="72" t="s">
         <v>154</v>
       </c>
@@ -2335,31 +2363,34 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
+      <c r="M8" s="83"/>
+      <c r="N8" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="O8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P8" s="6"/>
+      <c r="P8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="96"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="83"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="82"/>
+      <c r="E9" s="109"/>
       <c r="F9" s="79" t="s">
         <v>136</v>
       </c>
@@ -2371,31 +2402,34 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="83"/>
+      <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="O9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="P9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="96"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="9"/>
+    </row>
+    <row r="10" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="83"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="108" t="s">
         <v>159</v>
       </c>
       <c r="F10" s="72" t="s">
@@ -2409,29 +2443,32 @@
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="K10" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="83"/>
+      <c r="N10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="O10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="96"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="83"/>
       <c r="C11" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="81"/>
+      <c r="E11" s="108"/>
       <c r="F11" s="62" t="s">
         <v>128</v>
       </c>
@@ -2443,26 +2480,29 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
+      <c r="K11" s="8" t="s">
+        <v>169</v>
+      </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="8" t="s">
+      <c r="M11" s="83"/>
+      <c r="N11" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="O11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="P11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="97" t="s">
+      <c r="S11" s="8"/>
+      <c r="T11" s="9"/>
+    </row>
+    <row r="12" spans="2:20" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -2471,9 +2511,9 @@
       <c r="D12" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="81"/>
+      <c r="E12" s="108"/>
       <c r="F12" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>113</v>
@@ -2483,31 +2523,36 @@
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
+      <c r="K12" s="65" t="s">
+        <v>168</v>
+      </c>
       <c r="L12" s="65"/>
-      <c r="M12" s="65" t="s">
+      <c r="M12" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="N12" s="65" t="s">
+      <c r="O12" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="O12" s="65"/>
       <c r="P12" s="65"/>
       <c r="Q12" s="65"/>
       <c r="R12" s="65"/>
-      <c r="S12" s="66"/>
-    </row>
-    <row r="13" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="98"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
+    </row>
+    <row r="13" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="85"/>
       <c r="C13" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="82"/>
+      <c r="E13" s="109"/>
       <c r="F13" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>113</v>
@@ -2517,22 +2562,25 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
+      <c r="K13" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="L13" s="8"/>
-      <c r="M13" s="8" t="s">
+      <c r="M13" s="85"/>
+      <c r="N13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="O13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O13" s="8"/>
       <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
-      <c r="S13" s="9"/>
-    </row>
-    <row r="14" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="96" t="s">
+      <c r="S13" s="8"/>
+      <c r="T13" s="9"/>
+    </row>
+    <row r="14" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="83" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -2555,22 +2603,27 @@
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
+      <c r="K14" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="N14" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="96"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="83"/>
       <c r="C15" s="71" t="s">
         <v>53</v>
       </c>
@@ -2589,22 +2642,25 @@
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
+      <c r="K15" s="6" t="s">
+        <v>166</v>
+      </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="83"/>
+      <c r="N15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="N15" s="6" t="s">
+      <c r="O15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="96"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="7"/>
+    </row>
+    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="83"/>
       <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
@@ -2623,22 +2679,25 @@
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="83"/>
+      <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="O16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="97" t="s">
+      <c r="S16" s="1"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="84" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
@@ -2649,7 +2708,7 @@
       </c>
       <c r="E17" s="105"/>
       <c r="F17" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>114</v>
@@ -2659,22 +2718,27 @@
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
+      <c r="K17" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="84" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="O17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O17" s="8"/>
       <c r="P17" s="8"/>
       <c r="Q17" s="8"/>
       <c r="R17" s="8"/>
-      <c r="S17" s="9"/>
-    </row>
-    <row r="18" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="109"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="9"/>
+    </row>
+    <row r="18" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="86"/>
       <c r="C18" s="39" t="s">
         <v>53</v>
       </c>
@@ -2685,7 +2749,7 @@
         <v>120</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>115</v>
@@ -2695,22 +2759,25 @@
       </c>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="K18" s="10" t="s">
+        <v>168</v>
+      </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="10" t="s">
+      <c r="M18" s="86"/>
+      <c r="N18" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="O18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="O18" s="10"/>
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
-      <c r="S18" s="11"/>
-    </row>
-    <row r="19" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="109"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="86"/>
       <c r="C19" s="43" t="s">
         <v>53</v>
       </c>
@@ -2729,22 +2796,25 @@
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="86"/>
+      <c r="N19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="O19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="109"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="86"/>
       <c r="C20" s="41" t="s">
         <v>53</v>
       </c>
@@ -2763,22 +2833,25 @@
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
+      <c r="K20" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="86"/>
+      <c r="N20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="O20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O20" s="8"/>
       <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
-      <c r="S20" s="9"/>
-    </row>
-    <row r="21" spans="2:19" ht="36" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="109"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="9"/>
+    </row>
+    <row r="21" spans="2:20" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="86"/>
       <c r="C21" s="53" t="s">
         <v>54</v>
       </c>
@@ -2795,26 +2868,29 @@
         <v>116</v>
       </c>
       <c r="H21" s="54" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
+      <c r="K21" s="54" t="s">
+        <v>168</v>
+      </c>
       <c r="L21" s="54"/>
-      <c r="M21" s="54" t="s">
+      <c r="M21" s="86"/>
+      <c r="N21" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="54" t="s">
+      <c r="O21" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="O21" s="54"/>
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
-      <c r="S21" s="55"/>
-    </row>
-    <row r="22" spans="2:19" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="98"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="55"/>
+    </row>
+    <row r="22" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="85"/>
       <c r="C22" s="40" t="s">
         <v>55</v>
       </c>
@@ -2822,7 +2898,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="102" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="F22" s="56" t="s">
         <v>129</v>
@@ -2835,22 +2911,25 @@
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
+      <c r="K22" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="L22" s="6"/>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="85"/>
+      <c r="N22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N22" s="6" t="s">
+      <c r="O22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O22" s="6"/>
       <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="96" t="s">
+      <c r="S22" s="6"/>
+      <c r="T22" s="7"/>
+    </row>
+    <row r="23" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="83" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -2861,7 +2940,7 @@
       </c>
       <c r="E23" s="107"/>
       <c r="F23" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>114</v>
@@ -2871,22 +2950,27 @@
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>167</v>
+      </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="83" t="s">
+        <v>7</v>
+      </c>
+      <c r="N23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="O23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="8"/>
       <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
-      <c r="S23" s="9"/>
-    </row>
-    <row r="24" spans="2:19" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="96"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="9"/>
+    </row>
+    <row r="24" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="83"/>
       <c r="C24" s="40" t="s">
         <v>55</v>
       </c>
@@ -2907,22 +2991,25 @@
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
+      <c r="K24" s="6" t="s">
+        <v>167</v>
+      </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="6" t="s">
+      <c r="M24" s="83"/>
+      <c r="N24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N24" s="6" t="s">
+      <c r="O24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="6"/>
       <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="96"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="7"/>
+    </row>
+    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="83"/>
       <c r="C25" s="43" t="s">
         <v>55</v>
       </c>
@@ -2939,22 +3026,25 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="83"/>
+      <c r="N25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-      <c r="S25" s="3"/>
-    </row>
-    <row r="26" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="96"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="3"/>
+    </row>
+    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="83"/>
       <c r="C26" s="43" t="s">
         <v>54</v>
       </c>
@@ -2973,22 +3063,25 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>167</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="83"/>
+      <c r="N26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-      <c r="S26" s="3"/>
-    </row>
-    <row r="27" spans="2:19" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="96" t="s">
+      <c r="S26" s="1"/>
+      <c r="T26" s="3"/>
+    </row>
+    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -3011,20 +3104,23 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="N27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-      <c r="S27" s="3"/>
-    </row>
-    <row r="28" spans="2:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="108"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="3"/>
+    </row>
+    <row r="28" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="87"/>
       <c r="C28" s="42" t="s">
         <v>56</v>
       </c>
@@ -3043,19 +3139,20 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="4" t="s">
+      <c r="M28" s="87"/>
+      <c r="N28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="N28" s="4" t="s">
+      <c r="O28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="5"/>
-    </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+      <c r="S28" s="4"/>
+      <c r="T28" s="5"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C30" s="13"/>
       <c r="D30" t="s">
         <v>60</v>
@@ -3064,23 +3161,45 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F33" t="s">
         <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="35">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="M17:M22"/>
+    <mergeCell ref="M23:M26"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="E24:E26"/>
@@ -3089,25 +3208,11 @@
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3116,7 +3221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EE43C-1B49-4AB9-8D61-D662968BE7CC}">
   <dimension ref="B1:AB30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3124,29 +3229,29 @@
       <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.09765625" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="7.8984375" customWidth="1"/>
-    <col min="4" max="5" width="18.09765625" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" customWidth="1"/>
-    <col min="7" max="8" width="14.09765625" customWidth="1"/>
-    <col min="9" max="9" width="18.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.125" customWidth="1"/>
+    <col min="2" max="2" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="5" width="18.125" customWidth="1"/>
+    <col min="6" max="6" width="12.375" customWidth="1"/>
+    <col min="7" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
     <col min="10" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="10.3984375" customWidth="1"/>
-    <col min="14" max="14" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="10.3984375" customWidth="1"/>
-    <col min="18" max="18" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.375" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="10.375" customWidth="1"/>
+    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="17.5" customWidth="1"/>
     <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="18.19921875" customWidth="1"/>
+    <col min="21" max="21" width="18.25" customWidth="1"/>
     <col min="22" max="22" width="22" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.09765625" customWidth="1"/>
-    <col min="24" max="24" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.125" customWidth="1"/>
+    <col min="24" max="24" width="21.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J1" t="s">
         <v>48</v>
       </c>
@@ -3160,63 +3265,63 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="113" t="s">
+    <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="85" t="s">
+      <c r="D2" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="115" t="s">
+      <c r="E2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="87" t="s">
+      <c r="F2" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="88" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="115" t="s">
+      <c r="H2" s="116" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="115" t="s">
+      <c r="I2" s="116" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="119" t="s">
+      <c r="K2" s="121"/>
+      <c r="L2" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="120"/>
-      <c r="N2" s="117" t="s">
+      <c r="M2" s="121"/>
+      <c r="N2" s="118" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="85" t="s">
+      <c r="P2" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="85"/>
-      <c r="T2" s="89" t="s">
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="88"/>
+      <c r="T2" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="92"/>
-    </row>
-    <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="114"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
+      <c r="U2" s="95"/>
+    </row>
+    <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="115"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
       <c r="J3" s="46"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -3225,7 +3330,7 @@
       <c r="M3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="118"/>
+      <c r="N3" s="119"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -3239,10 +3344,10 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="93"/>
-    </row>
-    <row r="4" spans="2:28" ht="24.9" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="T3" s="93"/>
+      <c r="U3" s="96"/>
+    </row>
+    <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
         <v>86</v>
       </c>
@@ -3280,8 +3385,8 @@
       <c r="T4" s="21"/>
       <c r="U4" s="23"/>
     </row>
-    <row r="5" spans="2:28" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="110" t="s">
+    <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="111" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3293,7 +3398,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="112" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3322,8 +3427,8 @@
       <c r="T5" s="10"/>
       <c r="U5" s="11"/>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B6" s="109"/>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B6" s="86"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3333,7 +3438,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="112"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3358,8 +3463,8 @@
       <c r="R6" s="17"/>
       <c r="S6" s="1"/>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.4">
-      <c r="B7" s="109"/>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.3">
+      <c r="B7" s="86"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3369,7 +3474,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="112"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3400,8 +3505,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="109"/>
+    <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="86"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -3411,7 +3516,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="112"/>
+      <c r="F8" s="113"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3436,8 +3541,8 @@
       <c r="T8" s="1"/>
       <c r="U8" s="3"/>
     </row>
-    <row r="9" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="109"/>
+    <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="86"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3447,7 +3552,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="112"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3472,8 +3577,8 @@
       <c r="T9" s="1"/>
       <c r="U9" s="3"/>
     </row>
-    <row r="10" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B10" s="109"/>
+    <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="B10" s="86"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -3483,7 +3588,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="112"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3511,8 +3616,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="109"/>
+    <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="86"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3522,7 +3627,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="112"/>
+      <c r="F11" s="113"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3553,8 +3658,8 @@
       <c r="T11" s="1"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="2:28" ht="35.4" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="110" t="s">
+    <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="111" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3566,7 +3671,7 @@
       <c r="E12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="126" t="s">
+      <c r="F12" s="127" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -3595,8 +3700,8 @@
       <c r="T12" s="10"/>
       <c r="U12" s="11"/>
     </row>
-    <row r="13" spans="2:28" ht="35.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="121"/>
+    <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="122"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -3606,7 +3711,7 @@
       <c r="E13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="82"/>
+      <c r="F13" s="109"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -3633,8 +3738,8 @@
       <c r="T13" s="8"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="2:28" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="110" t="s">
+    <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="111" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3646,7 +3751,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="126" t="s">
+      <c r="F14" s="127" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3681,8 +3786,8 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="2:28" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="B15" s="109"/>
+    <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
+      <c r="B15" s="86"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3692,7 +3797,7 @@
       <c r="E15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="81"/>
+      <c r="F15" s="108"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3719,8 +3824,8 @@
       <c r="T15" s="6"/>
       <c r="U15" s="7"/>
     </row>
-    <row r="16" spans="2:28" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="109"/>
+    <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="86"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3730,7 +3835,7 @@
       <c r="E16" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="81"/>
+      <c r="F16" s="108"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3757,8 +3862,8 @@
       <c r="T16" s="6"/>
       <c r="U16" s="7"/>
     </row>
-    <row r="17" spans="2:21" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="109"/>
+    <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="86"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -3768,7 +3873,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="81"/>
+      <c r="F17" s="108"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3795,8 +3900,8 @@
       <c r="T17" s="1"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="2:21" s="52" customFormat="1" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="109"/>
+    <row r="18" spans="2:21" s="52" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="86"/>
       <c r="C18" s="49" t="s">
         <v>53</v>
       </c>
@@ -3806,7 +3911,7 @@
       <c r="E18" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="82"/>
+      <c r="F18" s="109"/>
       <c r="G18" s="49" t="s">
         <v>37</v>
       </c>
@@ -3833,8 +3938,8 @@
       <c r="T18" s="49"/>
       <c r="U18" s="51"/>
     </row>
-    <row r="19" spans="2:21" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="109"/>
+    <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="86"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -3844,7 +3949,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="81" t="s">
+      <c r="F19" s="108" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3873,8 +3978,8 @@
       <c r="T19" s="6"/>
       <c r="U19" s="7"/>
     </row>
-    <row r="20" spans="2:21" ht="24.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="109"/>
+    <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="86"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3884,7 +3989,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="81"/>
+      <c r="F20" s="108"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -3911,8 +4016,8 @@
       <c r="T20" s="1"/>
       <c r="U20" s="3"/>
     </row>
-    <row r="21" spans="2:21" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="121"/>
+    <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="122"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -3922,7 +4027,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="82"/>
+      <c r="F21" s="109"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -3949,8 +4054,8 @@
       <c r="T21" s="8"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="2:21" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="110" t="s">
+    <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="111" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3962,7 +4067,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="111" t="s">
+      <c r="F22" s="112" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -3991,8 +4096,8 @@
       <c r="T22" s="10"/>
       <c r="U22" s="11"/>
     </row>
-    <row r="23" spans="2:21" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="121"/>
+    <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="122"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -4002,7 +4107,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="123"/>
+      <c r="F23" s="124"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -4029,8 +4134,8 @@
       <c r="T23" s="8"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="2:21" ht="24.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="110" t="s">
+    <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="111" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -4040,7 +4145,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="124" t="s">
+      <c r="F24" s="125" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -4065,8 +4170,8 @@
       <c r="T24" s="6"/>
       <c r="U24" s="7"/>
     </row>
-    <row r="25" spans="2:21" ht="24.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="122"/>
+    <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="123"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -4074,7 +4179,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="125"/>
+      <c r="F25" s="126"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -4097,7 +4202,7 @@
       <c r="T25" s="4"/>
       <c r="U25" s="5"/>
     </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C27" s="13"/>
       <c r="D27" t="s">
         <v>60</v>
@@ -4106,7 +4211,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
         <v>67</v>
       </c>
@@ -4117,12 +4222,12 @@
         <v>69</v>
       </c>
     </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J30" t="s">
         <v>71</v>
       </c>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5129116-F04F-422D-A045-59A2B809C4A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71C8CCE-E1F1-4363-BD0C-EF300D98C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -626,10 +626,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>cmypage.html / register.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>펀딩 참여</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -711,6 +707,15 @@
   </si>
   <si>
     <t>memberDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmypage.html / registe.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>regist.html
+registagree.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1611,52 +1616,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,6 +1670,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1692,34 +1706,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,22 +1742,19 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2069,8 +2074,8 @@
   <dimension ref="B1:T33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K26" sqref="K15:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2110,23 +2115,23 @@
       </c>
     </row>
     <row r="2" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="99" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="95" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="97" t="s">
@@ -2137,31 +2142,31 @@
         <v>106</v>
       </c>
       <c r="L2" s="97"/>
-      <c r="M2" s="81" t="s">
+      <c r="M2" s="99" t="s">
         <v>137</v>
       </c>
       <c r="N2" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="88" t="s">
+      <c r="O2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="92" t="s">
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="95"/>
+      <c r="T2" s="93"/>
     </row>
     <row r="3" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="82"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
       <c r="I3" s="46"/>
       <c r="J3" s="44" t="s">
         <v>103</v>
@@ -2170,7 +2175,7 @@
       <c r="L3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="82"/>
+      <c r="M3" s="100"/>
       <c r="N3" s="98"/>
       <c r="O3" s="24" t="s">
         <v>65</v>
@@ -2184,8 +2189,8 @@
       <c r="R3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="93"/>
-      <c r="T3" s="96"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="94"/>
     </row>
     <row r="4" spans="2:20" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="61" t="s">
@@ -2225,18 +2230,18 @@
       <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="88" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G5" s="74" t="s">
         <v>116</v>
@@ -2248,7 +2253,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="83"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
         <v>43</v>
@@ -2262,16 +2267,16 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
+      <c r="B6" s="81"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="108"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G6" s="74" t="s">
         <v>116</v>
@@ -2283,7 +2288,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="83"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
         <v>43</v>
@@ -2297,7 +2302,7 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="2:20" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -2306,9 +2311,9 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="108"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="73" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G7" s="74" t="s">
         <v>116</v>
@@ -2319,10 +2324,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="83" t="s">
+      <c r="M7" s="81" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -2344,16 +2349,16 @@
       </c>
     </row>
     <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="83"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="108"/>
+      <c r="E8" s="86"/>
       <c r="F8" s="72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G8" s="76" t="s">
         <v>116</v>
@@ -2364,10 +2369,10 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L8" s="6"/>
-      <c r="M8" s="83"/>
+      <c r="M8" s="81"/>
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
@@ -2383,14 +2388,14 @@
       <c r="T8" s="7"/>
     </row>
     <row r="9" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="83"/>
+      <c r="B9" s="81"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="109"/>
+      <c r="E9" s="87"/>
       <c r="F9" s="79" t="s">
         <v>136</v>
       </c>
@@ -2403,10 +2408,10 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="83"/>
+      <c r="M9" s="81"/>
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
@@ -2422,15 +2427,15 @@
       <c r="T9" s="9"/>
     </row>
     <row r="10" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="83"/>
+      <c r="B10" s="81"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="108" t="s">
-        <v>159</v>
+      <c r="E10" s="86" t="s">
+        <v>158</v>
       </c>
       <c r="F10" s="72" t="s">
         <v>128</v>
@@ -2439,15 +2444,15 @@
         <v>113</v>
       </c>
       <c r="H10" s="78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
       <c r="K10" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L10" s="6"/>
-      <c r="M10" s="83"/>
+      <c r="M10" s="81"/>
       <c r="N10" s="6" t="s">
         <v>107</v>
       </c>
@@ -2461,14 +2466,14 @@
       <c r="T10" s="7"/>
     </row>
     <row r="11" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="83"/>
+      <c r="B11" s="81"/>
       <c r="C11" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="108"/>
+      <c r="E11" s="86"/>
       <c r="F11" s="62" t="s">
         <v>128</v>
       </c>
@@ -2481,10 +2486,10 @@
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="83"/>
+      <c r="M11" s="81"/>
       <c r="N11" s="8" t="s">
         <v>109</v>
       </c>
@@ -2502,7 +2507,7 @@
       <c r="T11" s="9"/>
     </row>
     <row r="12" spans="2:20" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -2511,9 +2516,9 @@
       <c r="D12" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="108"/>
+      <c r="E12" s="86"/>
       <c r="F12" s="57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G12" s="64" t="s">
         <v>113</v>
@@ -2524,10 +2529,10 @@
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
       <c r="K12" s="65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L12" s="65"/>
-      <c r="M12" s="84" t="s">
+      <c r="M12" s="83" t="s">
         <v>4</v>
       </c>
       <c r="N12" s="65" t="s">
@@ -2550,9 +2555,9 @@
       <c r="D13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="87"/>
       <c r="F13" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>113</v>
@@ -2563,7 +2568,7 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="85"/>
@@ -2580,16 +2585,16 @@
       <c r="T13" s="9"/>
     </row>
     <row r="14" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="81" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="40" t="s">
         <v>54</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E14" s="103" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="106" t="s">
         <v>119</v>
       </c>
       <c r="F14" s="56" t="s">
@@ -2599,15 +2604,15 @@
         <v>114</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L14" s="6"/>
-      <c r="M14" s="83" t="s">
+      <c r="M14" s="81" t="s">
         <v>138</v>
       </c>
       <c r="N14" s="6" t="s">
@@ -2623,14 +2628,14 @@
       <c r="T14" s="7"/>
     </row>
     <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="83"/>
+      <c r="B15" s="81"/>
       <c r="C15" s="71" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="103"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="70" t="s">
         <v>135</v>
       </c>
@@ -2638,15 +2643,15 @@
         <v>114</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L15" s="6"/>
-      <c r="M15" s="83"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="6" t="s">
         <v>107</v>
       </c>
@@ -2660,14 +2665,14 @@
       <c r="T15" s="7"/>
     </row>
     <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="83"/>
+      <c r="B16" s="81"/>
       <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="104"/>
+        <v>150</v>
+      </c>
+      <c r="E16" s="107"/>
       <c r="F16" s="58" t="s">
         <v>135</v>
       </c>
@@ -2675,15 +2680,15 @@
         <v>114</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="83"/>
+      <c r="M16" s="81"/>
       <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
@@ -2697,7 +2702,7 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="84" t="s">
+      <c r="B17" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
@@ -2706,9 +2711,9 @@
       <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="105"/>
+      <c r="E17" s="108"/>
       <c r="F17" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>114</v>
@@ -2719,10 +2724,10 @@
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L17" s="8"/>
-      <c r="M17" s="84" t="s">
+      <c r="M17" s="83" t="s">
         <v>4</v>
       </c>
       <c r="N17" s="8" t="s">
@@ -2738,18 +2743,18 @@
       <c r="T17" s="9"/>
     </row>
     <row r="18" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="86"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="39" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="106" t="s">
+      <c r="E18" s="109" t="s">
         <v>120</v>
       </c>
       <c r="F18" s="57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>115</v>
@@ -2760,10 +2765,10 @@
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
       <c r="K18" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L18" s="10"/>
-      <c r="M18" s="86"/>
+      <c r="M18" s="84"/>
       <c r="N18" s="10" t="s">
         <v>107</v>
       </c>
@@ -2777,14 +2782,14 @@
       <c r="T18" s="11"/>
     </row>
     <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="86"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="104"/>
+      <c r="E19" s="107"/>
       <c r="F19" s="58" t="s">
         <v>129</v>
       </c>
@@ -2792,15 +2797,15 @@
         <v>115</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="86"/>
+      <c r="M19" s="84"/>
       <c r="N19" s="1" t="s">
         <v>107</v>
       </c>
@@ -2814,14 +2819,14 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="86"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="105"/>
+      <c r="E20" s="108"/>
       <c r="F20" s="62" t="s">
         <v>145</v>
       </c>
@@ -2834,10 +2839,10 @@
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L20" s="8"/>
-      <c r="M20" s="86"/>
+      <c r="M20" s="84"/>
       <c r="N20" s="8" t="s">
         <v>107</v>
       </c>
@@ -2851,7 +2856,7 @@
       <c r="T20" s="9"/>
     </row>
     <row r="21" spans="2:20" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="86"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="53" t="s">
         <v>54</v>
       </c>
@@ -2862,21 +2867,21 @@
         <v>146</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="54" t="s">
-        <v>95</v>
+      <c r="H21" s="69" t="s">
+        <v>170</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
       <c r="K21" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L21" s="54"/>
-      <c r="M21" s="86"/>
+      <c r="M21" s="84"/>
       <c r="N21" s="54" t="s">
         <v>108</v>
       </c>
@@ -2897,7 +2902,7 @@
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="102" t="s">
+      <c r="E22" s="105" t="s">
         <v>120</v>
       </c>
       <c r="F22" s="56" t="s">
@@ -2912,7 +2917,7 @@
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
       <c r="K22" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="L22" s="6"/>
       <c r="M22" s="85"/>
@@ -2929,7 +2934,7 @@
       <c r="T22" s="7"/>
     </row>
     <row r="23" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="81" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -2938,9 +2943,9 @@
       <c r="D23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="107"/>
+      <c r="E23" s="110"/>
       <c r="F23" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>114</v>
@@ -2951,10 +2956,10 @@
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L23" s="8"/>
-      <c r="M23" s="83" t="s">
+      <c r="M23" s="81" t="s">
         <v>7</v>
       </c>
       <c r="N23" s="8" t="s">
@@ -2970,14 +2975,14 @@
       <c r="T23" s="9"/>
     </row>
     <row r="24" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="83"/>
+      <c r="B24" s="81"/>
       <c r="C24" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="101" t="s">
+      <c r="E24" s="104" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="56" t="s">
@@ -2992,10 +2997,10 @@
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="83"/>
+      <c r="M24" s="81"/>
       <c r="N24" s="6" t="s">
         <v>109</v>
       </c>
@@ -3009,16 +3014,16 @@
       <c r="T24" s="7"/>
     </row>
     <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="83"/>
+      <c r="B25" s="81"/>
       <c r="C25" s="43" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="102"/>
+      <c r="E25" s="105"/>
       <c r="F25" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="1" t="s">
@@ -3027,10 +3032,10 @@
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="83"/>
+      <c r="M25" s="81"/>
       <c r="N25" s="1" t="s">
         <v>109</v>
       </c>
@@ -3044,16 +3049,16 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="83"/>
+      <c r="B26" s="81"/>
       <c r="C26" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>149</v>
-      </c>
-      <c r="E26" s="103"/>
+        <v>148</v>
+      </c>
+      <c r="E26" s="106"/>
       <c r="F26" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>115</v>
@@ -3064,10 +3069,10 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="83"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="1" t="s">
         <v>108</v>
       </c>
@@ -3081,7 +3086,7 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="81" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -3090,7 +3095,7 @@
       <c r="D27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="99" t="s">
+      <c r="E27" s="102" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="58" t="s">
@@ -3104,7 +3109,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="83" t="s">
+      <c r="M27" s="81" t="s">
         <v>62</v>
       </c>
       <c r="N27" s="1" t="s">
@@ -3120,14 +3125,14 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="87"/>
+      <c r="B28" s="82"/>
       <c r="C28" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="100"/>
+      <c r="E28" s="103"/>
       <c r="F28" s="60" t="s">
         <v>130</v>
       </c>
@@ -3139,7 +3144,7 @@
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="87"/>
+      <c r="M28" s="82"/>
       <c r="N28" s="4" t="s">
         <v>110</v>
       </c>
@@ -3178,20 +3183,10 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M7:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="M14:M16"/>
     <mergeCell ref="M17:M22"/>
     <mergeCell ref="M23:M26"/>
     <mergeCell ref="M27:M28"/>
@@ -3208,11 +3203,21 @@
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E22:E23"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:R2"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M16"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E5:E9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3266,62 +3271,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="116" t="s">
+      <c r="E2" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="88" t="s">
+      <c r="G2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="116" t="s">
+      <c r="H2" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="116" t="s">
+      <c r="I2" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="121" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="121"/>
-      <c r="L2" s="120" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="121"/>
-      <c r="N2" s="118" t="s">
+      <c r="M2" s="122"/>
+      <c r="N2" s="119" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="88" t="s">
+      <c r="P2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="92" t="s">
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="95"/>
+      <c r="U2" s="93"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="115"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="117"/>
-      <c r="I3" s="117"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="124"/>
+      <c r="I3" s="124"/>
       <c r="J3" s="46"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -3330,7 +3335,7 @@
       <c r="M3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="119"/>
+      <c r="N3" s="120"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -3344,8 +3349,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="93"/>
-      <c r="U3" s="96"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="94"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -3398,7 +3403,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="114" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3428,7 +3433,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3438,7 +3443,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="113"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3464,7 +3469,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="86"/>
+      <c r="B7" s="84"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3474,7 +3479,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="113"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3506,7 +3511,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -3516,7 +3521,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="113"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3542,7 +3547,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="86"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3552,7 +3557,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="113"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3578,7 +3583,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="86"/>
+      <c r="B10" s="84"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -3588,7 +3593,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="113"/>
+      <c r="F10" s="125"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3617,7 +3622,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="86"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,7 +3632,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="113"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3671,7 +3676,7 @@
       <c r="E12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="118" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -3701,7 +3706,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="122"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -3711,7 +3716,7 @@
       <c r="E13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="109"/>
+      <c r="F13" s="87"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -3751,7 +3756,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="127" t="s">
+      <c r="F14" s="118" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3787,7 +3792,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="86"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3797,7 +3802,7 @@
       <c r="E15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="108"/>
+      <c r="F15" s="86"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3825,7 +3830,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="86"/>
+      <c r="B16" s="84"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3835,7 +3840,7 @@
       <c r="E16" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="108"/>
+      <c r="F16" s="86"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3863,7 +3868,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="86"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -3873,7 +3878,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="108"/>
+      <c r="F17" s="86"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3901,7 +3906,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="52" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="86"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="49" t="s">
         <v>53</v>
       </c>
@@ -3911,7 +3916,7 @@
       <c r="E18" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="109"/>
+      <c r="F18" s="87"/>
       <c r="G18" s="49" t="s">
         <v>37</v>
       </c>
@@ -3939,7 +3944,7 @@
       <c r="U18" s="51"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="86"/>
+      <c r="B19" s="84"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -3949,7 +3954,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="86" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3979,7 +3984,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="86"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3989,7 +3994,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="108"/>
+      <c r="F20" s="86"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4017,7 +4022,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="122"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -4027,7 +4032,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="109"/>
+      <c r="F21" s="87"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -4067,7 +4072,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="112" t="s">
+      <c r="F22" s="114" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4097,7 +4102,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="122"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -4107,7 +4112,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="124"/>
+      <c r="F23" s="115"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -4145,7 +4150,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="125" t="s">
+      <c r="F24" s="116" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -4171,7 +4176,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="123"/>
+      <c r="B25" s="113"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -4179,7 +4184,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="126"/>
+      <c r="F25" s="117"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -4234,6 +4239,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B22:B23"/>
@@ -4243,22 +4264,6 @@
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D71C8CCE-E1F1-4363-BD0C-EF300D98C7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F7D9CE-DED0-4161-BA67-852FB535AF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="186">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -682,18 +682,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/creator/project</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/project/{no}/member</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/project/{category}/{state}/{order}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CreatorDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -707,15 +699,85 @@
   </si>
   <si>
     <t>memberDAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmypage.html / registe.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>regist.html
 registagree.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectDTO</t>
+  </si>
+  <si>
+    <t>/creator/project/{pageNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProjectDTO&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectProjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectByNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectProjsByCrId
+countMyProjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;ProjectDTO&gt;
+int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findProjs(SearchDTO search)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByNo(int projNo, String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findProjsByCrId(String crId,int currentPage)
+countMyProjs(String crId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FundingService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmypage.html / regist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectController2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMainDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -774,7 +836,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,8 +879,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="41">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1366,13 +1434,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1578,9 +1657,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1616,118 +1692,130 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1742,20 +1830,35 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2071,11 +2174,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
-  <dimension ref="B1:T33"/>
+  <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K26" sqref="K15:K26"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2088,111 +2191,122 @@
     <col min="6" max="6" width="28.375" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="25.875" customWidth="1"/>
-    <col min="9" max="10" width="11.5" customWidth="1"/>
-    <col min="11" max="11" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.5" customWidth="1"/>
-    <col min="13" max="13" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="37.125" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.375" customWidth="1"/>
-    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5" customWidth="1"/>
-    <col min="19" max="19" width="17" customWidth="1"/>
-    <col min="20" max="20" width="18.25" customWidth="1"/>
+    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="16" max="16" width="10.375" customWidth="1"/>
+    <col min="17" max="17" width="14.625" customWidth="1"/>
+    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.5" customWidth="1"/>
+    <col min="20" max="20" width="17" customWidth="1"/>
+    <col min="21" max="21" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:20" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>3</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="2:20" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="99" t="s">
+    <row r="2" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="95" t="s">
+      <c r="F2" s="95"/>
+      <c r="G2" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="97" t="s">
+      <c r="I2" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97" t="s">
+      <c r="J2" s="134"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="111" t="s">
         <v>106</v>
       </c>
-      <c r="L2" s="97"/>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="111"/>
+      <c r="N2" s="122" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="N2" s="97" t="s">
-        <v>74</v>
-      </c>
-      <c r="O2" s="95" t="s">
+      <c r="P2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="89" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="T2" s="93"/>
-    </row>
-    <row r="3" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="100"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="46"/>
+      <c r="U2" s="109"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="92"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="80" t="s">
+        <v>184</v>
+      </c>
       <c r="J3" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="44"/>
-      <c r="L3" s="46" t="s">
+      <c r="K3" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="M3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="M3" s="100"/>
-      <c r="N3" s="98"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="123"/>
+      <c r="O3" s="92"/>
+      <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="Q3" s="24" t="s">
+      <c r="R3" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="R3" s="45" t="s">
+      <c r="S3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="S3" s="90"/>
-      <c r="T3" s="94"/>
-    </row>
-    <row r="4" spans="2:20" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="107"/>
+      <c r="U3" s="110"/>
+    </row>
+    <row r="4" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="61" t="s">
         <v>117</v>
       </c>
@@ -2213,37 +2327,40 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="80" t="s">
-        <v>117</v>
-      </c>
+      <c r="L4" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
       <c r="R4" s="10"/>
       <c r="S4" s="10"/>
-      <c r="T4" s="11"/>
-    </row>
-    <row r="5" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="81"/>
-      <c r="C5" s="74" t="s">
+      <c r="T4" s="10"/>
+      <c r="U4" s="11"/>
+    </row>
+    <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="86"/>
+      <c r="C5" s="73" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="72" t="s">
         <v>151</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2253,32 +2370,33 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="81"/>
+      <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="O5" s="86"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="Q5" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
-      <c r="T5" s="3"/>
-    </row>
-    <row r="6" spans="2:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
-      <c r="C6" s="74" t="s">
+      <c r="T5" s="1"/>
+      <c r="U5" s="3"/>
+    </row>
+    <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="86"/>
+      <c r="C6" s="73" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="74" t="s">
+      <c r="G6" s="73" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2287,35 +2405,36 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="81"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>43</v>
-      </c>
+      <c r="O6" s="86"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="1"/>
+      <c r="Q6" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
-      <c r="T6" s="3"/>
-    </row>
-    <row r="7" spans="2:20" s="77" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="81" t="s">
+      <c r="T6" s="1"/>
+      <c r="U6" s="3"/>
+    </row>
+    <row r="7" spans="2:21" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="74" t="s">
+      <c r="C7" s="73" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="86"/>
-      <c r="F7" s="73" t="s">
+      <c r="E7" s="112"/>
+      <c r="F7" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="G7" s="74" t="s">
+      <c r="G7" s="73" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2323,44 +2442,45 @@
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="81" t="s">
-        <v>3</v>
-      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="86" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-      <c r="S7" s="34" t="s">
+      <c r="S7" s="1"/>
+      <c r="T7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="T7" s="14" t="s">
+      <c r="U7" s="14" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="81"/>
-      <c r="C8" s="76" t="s">
+    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="86"/>
+      <c r="C8" s="75" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="86"/>
-      <c r="F8" s="72" t="s">
+      <c r="E8" s="112"/>
+      <c r="F8" s="71" t="s">
         <v>153</v>
       </c>
-      <c r="G8" s="76" t="s">
+      <c r="G8" s="75" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2368,38 +2488,39 @@
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="K8" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="81"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="M8" s="6"/>
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>41</v>
-      </c>
+      <c r="O8" s="86"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="6"/>
+      <c r="Q8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-      <c r="T8" s="7"/>
-    </row>
-    <row r="9" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="81"/>
-      <c r="C9" s="75" t="s">
+      <c r="T8" s="6"/>
+      <c r="U8" s="7"/>
+    </row>
+    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="86"/>
+      <c r="C9" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="87"/>
-      <c r="F9" s="79" t="s">
+      <c r="E9" s="113"/>
+      <c r="F9" s="78" t="s">
         <v>136</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="74" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -2407,73 +2528,75 @@
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
-      <c r="K9" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L9" s="8"/>
-      <c r="M9" s="81"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="86"/>
+      <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="8" t="s">
+      <c r="Q9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
       <c r="S9" s="8"/>
-      <c r="T9" s="9"/>
-    </row>
-    <row r="10" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="81"/>
-      <c r="C10" s="76" t="s">
+      <c r="T9" s="8"/>
+      <c r="U9" s="9"/>
+    </row>
+    <row r="10" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="86"/>
+      <c r="C10" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="76" t="s">
+      <c r="G10" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="78" t="s">
+      <c r="H10" s="77" t="s">
         <v>157</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="K10" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L10" s="6"/>
-      <c r="M10" s="81"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="M10" s="6"/>
       <c r="N10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="O10" s="86"/>
+      <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="81"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="7"/>
+    </row>
+    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="86"/>
       <c r="C11" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="86"/>
+      <c r="E11" s="112"/>
       <c r="F11" s="62" t="s">
         <v>128</v>
       </c>
@@ -2485,29 +2608,30 @@
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
-      <c r="K11" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="8"/>
-      <c r="M11" s="81"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="O11" s="86"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="Q11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="R11" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="R11" s="8"/>
       <c r="S11" s="8"/>
-      <c r="T11" s="9"/>
-    </row>
-    <row r="12" spans="2:20" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="83" t="s">
+      <c r="T11" s="8"/>
+      <c r="U11" s="9"/>
+    </row>
+    <row r="12" spans="2:21" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="87" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -2516,7 +2640,7 @@
       <c r="D12" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="86"/>
+      <c r="E12" s="112"/>
       <c r="F12" s="57" t="s">
         <v>161</v>
       </c>
@@ -2528,34 +2652,35 @@
       </c>
       <c r="I12" s="65"/>
       <c r="J12" s="65"/>
-      <c r="K12" s="65" t="s">
-        <v>167</v>
-      </c>
-      <c r="L12" s="65"/>
-      <c r="M12" s="83" t="s">
-        <v>4</v>
-      </c>
+      <c r="K12" s="65"/>
+      <c r="L12" s="64" t="s">
+        <v>165</v>
+      </c>
+      <c r="M12" s="65"/>
       <c r="N12" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="65" t="s">
+      <c r="O12" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="65"/>
       <c r="Q12" s="65"/>
       <c r="R12" s="65"/>
       <c r="S12" s="65"/>
-      <c r="T12" s="66"/>
-    </row>
-    <row r="13" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="85"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="66"/>
+    </row>
+    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="88"/>
       <c r="C13" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="87"/>
+      <c r="E13" s="113"/>
       <c r="F13" s="62" t="s">
         <v>160</v>
       </c>
@@ -2567,25 +2692,26 @@
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
-      <c r="K13" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L13" s="8"/>
-      <c r="M13" s="85"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="8"/>
       <c r="N13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="88"/>
+      <c r="P13" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P13" s="8"/>
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
       <c r="S13" s="8"/>
-      <c r="T13" s="9"/>
-    </row>
-    <row r="14" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="81" t="s">
+      <c r="T13" s="8"/>
+      <c r="U13" s="9"/>
+    </row>
+    <row r="14" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="86" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -2594,7 +2720,7 @@
       <c r="D14" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="101" t="s">
         <v>119</v>
       </c>
       <c r="F14" s="56" t="s">
@@ -2604,75 +2730,77 @@
         <v>114</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="K14" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="L14" s="6"/>
-      <c r="M14" s="81" t="s">
-        <v>138</v>
-      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="6" t="s">
+      <c r="O14" s="86" t="s">
+        <v>138</v>
+      </c>
+      <c r="P14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="81"/>
-      <c r="C15" s="71" t="s">
+      <c r="T14" s="6"/>
+      <c r="U14" s="7"/>
+    </row>
+    <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="86"/>
+      <c r="C15" s="70" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="70" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="G15" s="71" t="s">
+      <c r="G15" s="70" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
-      <c r="K15" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="L15" s="6"/>
-      <c r="M15" s="81"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="6" t="s">
+      <c r="O15" s="86"/>
+      <c r="P15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-      <c r="T15" s="7"/>
-    </row>
-    <row r="16" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="81"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="7"/>
+    </row>
+    <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="86"/>
       <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="107"/>
+      <c r="E16" s="102"/>
       <c r="F16" s="58" t="s">
         <v>135</v>
       </c>
@@ -2680,29 +2808,30 @@
         <v>114</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="81"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="85" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="86"/>
+      <c r="P16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
       <c r="S16" s="1"/>
-      <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="83" t="s">
+      <c r="T16" s="1"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="2:21" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="87" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
@@ -2711,9 +2840,9 @@
       <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="108"/>
+      <c r="E17" s="103"/>
       <c r="F17" s="62" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>114</v>
@@ -2721,40 +2850,51 @@
       <c r="H17" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L17" s="8"/>
-      <c r="M17" s="83" t="s">
-        <v>4</v>
+      <c r="I17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="J17" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="K17" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="M17" s="135" t="s">
+        <v>175</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="87" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
+      <c r="Q17" s="135" t="s">
+        <v>175</v>
+      </c>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
-      <c r="T17" s="9"/>
-    </row>
-    <row r="18" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="84"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="9"/>
+    </row>
+    <row r="18" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="89"/>
       <c r="C18" s="39" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="104" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="57" t="s">
-        <v>164</v>
+      <c r="F18" s="133" t="s">
+        <v>154</v>
       </c>
       <c r="G18" s="39" t="s">
         <v>115</v>
@@ -2762,34 +2902,43 @@
       <c r="H18" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>177</v>
+      </c>
       <c r="K18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="L18" s="10"/>
-      <c r="M18" s="84"/>
+        <v>172</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>173</v>
+      </c>
       <c r="N18" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="10" t="s">
+      <c r="O18" s="89"/>
+      <c r="P18" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="84"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="11"/>
+    </row>
+    <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="89"/>
       <c r="C19" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="107"/>
+      <c r="E19" s="102"/>
       <c r="F19" s="58" t="s">
         <v>129</v>
       </c>
@@ -2799,34 +2948,45 @@
       <c r="H19" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>178</v>
+      </c>
       <c r="K19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="84"/>
+        <v>170</v>
+      </c>
+      <c r="L19" s="85" t="s">
+        <v>165</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="89"/>
+      <c r="P19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
+      <c r="Q19" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
-      <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="84"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="89"/>
       <c r="C20" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="108"/>
+      <c r="E20" s="103"/>
       <c r="F20" s="62" t="s">
         <v>145</v>
       </c>
@@ -2836,74 +2996,80 @@
       <c r="H20" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="I20" s="8"/>
+      <c r="I20" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="L20" s="8"/>
-      <c r="M20" s="84"/>
+        <v>172</v>
+      </c>
+      <c r="L20" s="82" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="89"/>
+      <c r="P20" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P20" s="8"/>
       <c r="Q20" s="8"/>
       <c r="R20" s="8"/>
       <c r="S20" s="8"/>
-      <c r="T20" s="9"/>
-    </row>
-    <row r="21" spans="2:20" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="84"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="9"/>
+    </row>
+    <row r="21" spans="2:21" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="89"/>
       <c r="C21" s="53" t="s">
         <v>54</v>
       </c>
       <c r="D21" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="132" t="s">
         <v>154</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>116</v>
       </c>
-      <c r="H21" s="69" t="s">
-        <v>170</v>
+      <c r="H21" s="68" t="s">
+        <v>167</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
-      <c r="K21" s="54" t="s">
-        <v>167</v>
-      </c>
-      <c r="L21" s="54"/>
-      <c r="M21" s="84"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="M21" s="54"/>
       <c r="N21" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="O21" s="54" t="s">
+      <c r="O21" s="89"/>
+      <c r="P21" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
       <c r="R21" s="54"/>
       <c r="S21" s="54"/>
-      <c r="T21" s="55"/>
-    </row>
-    <row r="22" spans="2:20" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="85"/>
+      <c r="T21" s="54"/>
+      <c r="U21" s="55"/>
+    </row>
+    <row r="22" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="88"/>
       <c r="C22" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="105" t="s">
-        <v>120</v>
+      <c r="E22" s="100" t="s">
+        <v>182</v>
       </c>
       <c r="F22" s="56" t="s">
         <v>129</v>
@@ -2914,27 +3080,30 @@
       <c r="H22" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I22" s="6"/>
+      <c r="I22" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="J22" s="6"/>
-      <c r="K22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="L22" s="6"/>
-      <c r="M22" s="85"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="88"/>
+      <c r="P22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P22" s="6"/>
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-      <c r="T22" s="7"/>
-    </row>
-    <row r="23" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="81" t="s">
+      <c r="T22" s="6"/>
+      <c r="U22" s="7"/>
+    </row>
+    <row r="23" spans="2:21" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="86" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -2943,9 +3112,9 @@
       <c r="D23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="110"/>
+      <c r="E23" s="105"/>
       <c r="F23" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>114</v>
@@ -2953,36 +3122,39 @@
       <c r="H23" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I23" s="8"/>
+      <c r="I23" s="8" t="s">
+        <v>180</v>
+      </c>
       <c r="J23" s="8"/>
-      <c r="K23" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="81" t="s">
-        <v>7</v>
-      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="86" t="s">
+        <v>7</v>
+      </c>
+      <c r="P23" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="P23" s="8"/>
       <c r="Q23" s="8"/>
       <c r="R23" s="8"/>
       <c r="S23" s="8"/>
-      <c r="T23" s="9"/>
-    </row>
-    <row r="24" spans="2:20" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="81"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="9"/>
+    </row>
+    <row r="24" spans="2:21" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="86"/>
       <c r="C24" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="104" t="s">
+      <c r="E24" s="99" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="56" t="s">
@@ -2996,32 +3168,33 @@
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
-      <c r="K24" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="L24" s="6"/>
-      <c r="M24" s="81"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="6" t="s">
+      <c r="O24" s="86"/>
+      <c r="P24" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="P24" s="6"/>
       <c r="Q24" s="6"/>
       <c r="R24" s="6"/>
       <c r="S24" s="6"/>
-      <c r="T24" s="7"/>
-    </row>
-    <row r="25" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="81"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="7"/>
+    </row>
+    <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="86"/>
       <c r="C25" s="43" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="105"/>
+      <c r="E25" s="100"/>
       <c r="F25" s="58" t="s">
         <v>155</v>
       </c>
@@ -3031,32 +3204,33 @@
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="81"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="86"/>
+      <c r="P25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
-      <c r="T25" s="3"/>
-    </row>
-    <row r="26" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="81"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="3"/>
+    </row>
+    <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="86"/>
       <c r="C26" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="106"/>
+      <c r="E26" s="101"/>
       <c r="F26" s="58" t="s">
         <v>155</v>
       </c>
@@ -3068,25 +3242,26 @@
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="81"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="86"/>
+      <c r="P26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="3"/>
-    </row>
-    <row r="27" spans="2:20" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="81" t="s">
+      <c r="T26" s="1"/>
+      <c r="U26" s="3"/>
+    </row>
+    <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="86" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -3095,7 +3270,7 @@
       <c r="D27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="102" t="s">
+      <c r="E27" s="97" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="58" t="s">
@@ -3108,31 +3283,32 @@
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="81" t="s">
-        <v>62</v>
-      </c>
+      <c r="L27" s="85"/>
+      <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="P27" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
-      <c r="T27" s="3"/>
-    </row>
-    <row r="28" spans="2:20" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="82"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="3"/>
+    </row>
+    <row r="28" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="90"/>
       <c r="C28" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="103"/>
+      <c r="E28" s="98"/>
       <c r="F28" s="60" t="s">
         <v>130</v>
       </c>
@@ -3143,21 +3319,22 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="82"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="4"/>
       <c r="N28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O28" s="4" t="s">
+      <c r="O28" s="90"/>
+      <c r="P28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="5"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="T28" s="4"/>
+      <c r="U28" s="5"/>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C30" s="13"/>
       <c r="D30" t="s">
         <v>60</v>
@@ -3166,12 +3343,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F31" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
       <c r="F32" t="s">
         <v>143</v>
       </c>
@@ -3183,13 +3360,22 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M7:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="M14:M16"/>
-    <mergeCell ref="M17:M22"/>
-    <mergeCell ref="M23:M26"/>
-    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="B17:B22"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="O23:O26"/>
+    <mergeCell ref="O27:O28"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -3203,21 +3389,12 @@
     <mergeCell ref="E14:E17"/>
     <mergeCell ref="E18:E20"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="M2:M3"/>
     <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="O17:O22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3271,62 +3448,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="123" t="s">
+      <c r="E2" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="121" t="s">
+      <c r="J2" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="121" t="s">
+      <c r="K2" s="125"/>
+      <c r="L2" s="124" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="122"/>
-      <c r="N2" s="119" t="s">
+      <c r="M2" s="125"/>
+      <c r="N2" s="122" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="89" t="s">
+      <c r="Q2" s="93"/>
+      <c r="R2" s="93"/>
+      <c r="S2" s="93"/>
+      <c r="T2" s="106" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="93"/>
+      <c r="U2" s="109"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="127"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="121"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="121"/>
       <c r="J3" s="46"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -3335,7 +3512,7 @@
       <c r="M3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="120"/>
+      <c r="N3" s="123"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -3349,8 +3526,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="94"/>
+      <c r="T3" s="107"/>
+      <c r="U3" s="110"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -3391,7 +3568,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="115" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3403,7 +3580,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="116" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3433,7 +3610,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="84"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3443,7 +3620,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="125"/>
+      <c r="F6" s="117"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3469,7 +3646,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="84"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3479,7 +3656,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="125"/>
+      <c r="F7" s="117"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3511,7 +3688,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="84"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -3521,7 +3698,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="125"/>
+      <c r="F8" s="117"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3547,7 +3724,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="84"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3557,7 +3734,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="125"/>
+      <c r="F9" s="117"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3583,7 +3760,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="84"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -3593,7 +3770,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="125"/>
+      <c r="F10" s="117"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3622,7 +3799,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="84"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3632,7 +3809,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="125"/>
+      <c r="F11" s="117"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3664,7 +3841,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="111" t="s">
+      <c r="B12" s="115" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3676,7 +3853,7 @@
       <c r="E12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="131" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -3706,7 +3883,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="112"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -3716,7 +3893,7 @@
       <c r="E13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="87"/>
+      <c r="F13" s="113"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -3744,7 +3921,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="111" t="s">
+      <c r="B14" s="115" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3756,7 +3933,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="131" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3792,7 +3969,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="84"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3802,7 +3979,7 @@
       <c r="E15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -3830,7 +4007,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="84"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -3840,7 +4017,7 @@
       <c r="E16" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="86"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -3868,7 +4045,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="84"/>
+      <c r="B17" s="89"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -3878,7 +4055,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="86"/>
+      <c r="F17" s="112"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -3906,7 +4083,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="52" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="84"/>
+      <c r="B18" s="89"/>
       <c r="C18" s="49" t="s">
         <v>53</v>
       </c>
@@ -3916,7 +4093,7 @@
       <c r="E18" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="87"/>
+      <c r="F18" s="113"/>
       <c r="G18" s="49" t="s">
         <v>37</v>
       </c>
@@ -3944,7 +4121,7 @@
       <c r="U18" s="51"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="84"/>
+      <c r="B19" s="89"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -3954,7 +4131,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="86" t="s">
+      <c r="F19" s="112" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -3984,7 +4161,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="84"/>
+      <c r="B20" s="89"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -3994,7 +4171,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="86"/>
+      <c r="F20" s="112"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4022,7 +4199,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="112"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -4032,7 +4209,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="113"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -4060,7 +4237,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="111" t="s">
+      <c r="B22" s="115" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -4072,7 +4249,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="114" t="s">
+      <c r="F22" s="116" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4102,7 +4279,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="112"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -4112,7 +4289,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="115"/>
+      <c r="F23" s="128"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -4140,7 +4317,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="111" t="s">
+      <c r="B24" s="115" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -4150,7 +4327,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="116" t="s">
+      <c r="F24" s="129" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -4176,7 +4353,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="113"/>
+      <c r="B25" s="127"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -4184,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="117"/>
+      <c r="F25" s="130"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -4239,13 +4416,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="P2:S2"/>
@@ -4255,15 +4434,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F7D9CE-DED0-4161-BA67-852FB535AF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A753FBA-29C7-48E5-A0B4-D9010776D31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
@@ -682,10 +682,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/project/{no}/member</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CreatorDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -778,6 +774,10 @@
   </si>
   <si>
     <t>ProjectMainDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{projNo}/fundings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1710,6 +1710,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1788,48 +1797,51 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1847,18 +1859,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2176,9 +2176,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
   <dimension ref="B1:U33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2221,76 +2221,76 @@
       </c>
     </row>
     <row r="2" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="95"/>
-      <c r="G2" s="93" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="93" t="s">
+      <c r="H2" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="134"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="111" t="s">
+      <c r="J2" s="121"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="111"/>
-      <c r="N2" s="122" t="s">
+      <c r="M2" s="114"/>
+      <c r="N2" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="91" t="s">
+      <c r="O2" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="P2" s="93" t="s">
+      <c r="P2" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="106" t="s">
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="109"/>
+      <c r="U2" s="112"/>
     </row>
     <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="92"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
       <c r="I3" s="80" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J3" s="44" t="s">
         <v>103</v>
       </c>
       <c r="K3" s="80" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L3" s="44" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="92"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="95"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -2303,8 +2303,8 @@
       <c r="S3" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="107"/>
-      <c r="U3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="113"/>
     </row>
     <row r="4" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="61" t="s">
@@ -2328,7 +2328,7 @@
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M4" s="10"/>
       <c r="N4" s="10" t="s">
@@ -2347,14 +2347,14 @@
       <c r="U4" s="11"/>
     </row>
     <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="86"/>
+      <c r="B5" s="89"/>
       <c r="C5" s="73" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="119" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="72" t="s">
@@ -2372,7 +2372,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="86"/>
+      <c r="O5" s="89"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2385,14 +2385,14 @@
       <c r="U5" s="3"/>
     </row>
     <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="73" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="112"/>
+      <c r="E6" s="117"/>
       <c r="F6" s="72" t="s">
         <v>152</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="L6" s="6"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="86"/>
+      <c r="O6" s="89"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="U6" s="3"/>
     </row>
     <row r="7" spans="2:21" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="89" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="73" t="s">
@@ -2430,7 +2430,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="112"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="72" t="s">
         <v>156</v>
       </c>
@@ -2444,13 +2444,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
       <c r="L7" s="83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="89" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -2469,14 +2469,14 @@
       </c>
     </row>
     <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="86"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="75" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="112"/>
+      <c r="E8" s="117"/>
       <c r="F8" s="71" t="s">
         <v>153</v>
       </c>
@@ -2490,13 +2490,13 @@
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="86"/>
+      <c r="O8" s="89"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
@@ -2509,14 +2509,14 @@
       <c r="U8" s="7"/>
     </row>
     <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="86"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="113"/>
+      <c r="E9" s="118"/>
       <c r="F9" s="78" t="s">
         <v>136</v>
       </c>
@@ -2530,13 +2530,13 @@
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="86"/>
+      <c r="O9" s="89"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
@@ -2549,14 +2549,14 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="86"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="112" t="s">
+      <c r="E10" s="117" t="s">
         <v>158</v>
       </c>
       <c r="F10" s="71" t="s">
@@ -2572,13 +2572,13 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="86"/>
+      <c r="O10" s="89"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
@@ -2589,14 +2589,14 @@
       <c r="U10" s="7"/>
     </row>
     <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="86"/>
+      <c r="B11" s="89"/>
       <c r="C11" s="41" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="112"/>
+      <c r="E11" s="117"/>
       <c r="F11" s="62" t="s">
         <v>128</v>
       </c>
@@ -2610,13 +2610,13 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="86"/>
+      <c r="O11" s="89"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
@@ -2631,7 +2631,7 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="2:21" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="64" t="s">
@@ -2640,7 +2640,7 @@
       <c r="D12" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="112"/>
+      <c r="E12" s="117"/>
       <c r="F12" s="57" t="s">
         <v>161</v>
       </c>
@@ -2654,13 +2654,13 @@
       <c r="J12" s="65"/>
       <c r="K12" s="65"/>
       <c r="L12" s="64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M12" s="65"/>
       <c r="N12" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="87" t="s">
+      <c r="O12" s="90" t="s">
         <v>4</v>
       </c>
       <c r="P12" s="65" t="s">
@@ -2673,14 +2673,14 @@
       <c r="U12" s="66"/>
     </row>
     <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="88"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E13" s="113"/>
+      <c r="E13" s="118"/>
       <c r="F13" s="62" t="s">
         <v>160</v>
       </c>
@@ -2694,13 +2694,13 @@
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="88"/>
+      <c r="O13" s="91"/>
       <c r="P13" s="8" t="s">
         <v>39</v>
       </c>
@@ -2711,7 +2711,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="86" t="s">
+      <c r="B14" s="89" t="s">
         <v>138</v>
       </c>
       <c r="C14" s="40" t="s">
@@ -2720,7 +2720,7 @@
       <c r="D14" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="101" t="s">
+      <c r="E14" s="104" t="s">
         <v>119</v>
       </c>
       <c r="F14" s="56" t="s">
@@ -2730,19 +2730,19 @@
         <v>114</v>
       </c>
       <c r="H14" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M14" s="6"/>
       <c r="N14" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O14" s="86" t="s">
+      <c r="O14" s="89" t="s">
         <v>138</v>
       </c>
       <c r="P14" s="6" t="s">
@@ -2755,14 +2755,14 @@
       <c r="U14" s="7"/>
     </row>
     <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="86"/>
+      <c r="B15" s="89"/>
       <c r="C15" s="70" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="101"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="69" t="s">
         <v>135</v>
       </c>
@@ -2770,19 +2770,19 @@
         <v>114</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="83" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M15" s="6"/>
       <c r="N15" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="86"/>
+      <c r="O15" s="89"/>
       <c r="P15" s="6" t="s">
         <v>39</v>
       </c>
@@ -2793,14 +2793,14 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="86"/>
+      <c r="B16" s="89"/>
       <c r="C16" s="43" t="s">
         <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E16" s="102"/>
+      <c r="E16" s="105"/>
       <c r="F16" s="58" t="s">
         <v>135</v>
       </c>
@@ -2808,19 +2808,19 @@
         <v>114</v>
       </c>
       <c r="H16" s="59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="85" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="86"/>
+      <c r="O16" s="89"/>
       <c r="P16" s="1" t="s">
         <v>42</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="U16" s="3"/>
     </row>
     <row r="17" spans="2:21" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="87" t="s">
+      <c r="B17" s="90" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="41" t="s">
@@ -2840,9 +2840,9 @@
       <c r="D17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="103"/>
+      <c r="E17" s="106"/>
       <c r="F17" s="62" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="41" t="s">
         <v>114</v>
@@ -2851,31 +2851,31 @@
         <v>127</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J17" s="135" t="s">
-        <v>179</v>
-      </c>
-      <c r="K17" s="135" t="s">
-        <v>176</v>
+        <v>167</v>
+      </c>
+      <c r="J17" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="88" t="s">
+        <v>175</v>
       </c>
       <c r="L17" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="M17" s="135" t="s">
-        <v>175</v>
+        <v>164</v>
+      </c>
+      <c r="M17" s="88" t="s">
+        <v>174</v>
       </c>
       <c r="N17" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O17" s="87" t="s">
+      <c r="O17" s="90" t="s">
         <v>4</v>
       </c>
       <c r="P17" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="135" t="s">
-        <v>175</v>
+      <c r="Q17" s="88" t="s">
+        <v>174</v>
       </c>
       <c r="R17" s="8"/>
       <c r="S17" s="8"/>
@@ -2883,17 +2883,17 @@
       <c r="U17" s="9"/>
     </row>
     <row r="18" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="89"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="39" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="104" t="s">
+      <c r="E18" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="F18" s="133" t="s">
+      <c r="F18" s="87" t="s">
         <v>154</v>
       </c>
       <c r="G18" s="39" t="s">
@@ -2903,24 +2903,24 @@
         <v>91</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K18" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="L18" s="81" t="s">
+        <v>164</v>
+      </c>
+      <c r="M18" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="L18" s="81" t="s">
-        <v>165</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="N18" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="89"/>
+      <c r="O18" s="92"/>
       <c r="P18" s="10" t="s">
         <v>39</v>
       </c>
@@ -2931,14 +2931,14 @@
       <c r="U18" s="11"/>
     </row>
     <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="89"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="43" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="102"/>
+      <c r="E19" s="105"/>
       <c r="F19" s="58" t="s">
         <v>129</v>
       </c>
@@ -2949,29 +2949,29 @@
         <v>159</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L19" s="85" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="89"/>
+      <c r="O19" s="92"/>
       <c r="P19" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -2979,14 +2979,14 @@
       <c r="U19" s="3"/>
     </row>
     <row r="20" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="89"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="41" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="103"/>
+      <c r="E20" s="106"/>
       <c r="F20" s="62" t="s">
         <v>145</v>
       </c>
@@ -2997,20 +2997,20 @@
         <v>147</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L20" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M20" s="8"/>
       <c r="N20" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O20" s="89"/>
+      <c r="O20" s="92"/>
       <c r="P20" s="8" t="s">
         <v>39</v>
       </c>
@@ -3021,7 +3021,7 @@
       <c r="U20" s="9"/>
     </row>
     <row r="21" spans="2:21" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="89"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="53" t="s">
         <v>54</v>
       </c>
@@ -3031,26 +3031,26 @@
       <c r="E21" s="68" t="s">
         <v>146</v>
       </c>
-      <c r="F21" s="132" t="s">
+      <c r="F21" s="86" t="s">
         <v>154</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>116</v>
       </c>
       <c r="H21" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I21" s="54"/>
       <c r="J21" s="54"/>
       <c r="K21" s="54"/>
       <c r="L21" s="53" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M21" s="54"/>
       <c r="N21" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="O21" s="89"/>
+      <c r="O21" s="92"/>
       <c r="P21" s="54" t="s">
         <v>41</v>
       </c>
@@ -3061,15 +3061,15 @@
       <c r="U21" s="55"/>
     </row>
     <row r="22" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="88"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="100" t="s">
-        <v>182</v>
+      <c r="E22" s="103" t="s">
+        <v>181</v>
       </c>
       <c r="F22" s="56" t="s">
         <v>129</v>
@@ -3081,18 +3081,18 @@
         <v>127</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="83" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M22" s="6"/>
       <c r="N22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O22" s="88"/>
+      <c r="O22" s="91"/>
       <c r="P22" s="6" t="s">
         <v>42</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="U22" s="7"/>
     </row>
     <row r="23" spans="2:21" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="89" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="41" t="s">
@@ -3112,9 +3112,9 @@
       <c r="D23" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E23" s="105"/>
+      <c r="E23" s="108"/>
       <c r="F23" s="62" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="G23" s="41" t="s">
         <v>114</v>
@@ -3123,18 +3123,18 @@
         <v>123</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="82" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O23" s="86" t="s">
+      <c r="O23" s="89" t="s">
         <v>7</v>
       </c>
       <c r="P23" s="8" t="s">
@@ -3147,14 +3147,14 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="86"/>
+      <c r="B24" s="89"/>
       <c r="C24" s="40" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="E24" s="99" t="s">
+      <c r="E24" s="102" t="s">
         <v>126</v>
       </c>
       <c r="F24" s="56" t="s">
@@ -3170,13 +3170,13 @@
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="83" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M24" s="6"/>
       <c r="N24" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="86"/>
+      <c r="O24" s="89"/>
       <c r="P24" s="6" t="s">
         <v>42</v>
       </c>
@@ -3187,14 +3187,14 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="86"/>
+      <c r="B25" s="89"/>
       <c r="C25" s="43" t="s">
         <v>55</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E25" s="100"/>
+      <c r="E25" s="103"/>
       <c r="F25" s="58" t="s">
         <v>155</v>
       </c>
@@ -3206,13 +3206,13 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O25" s="86"/>
+      <c r="O25" s="89"/>
       <c r="P25" s="1" t="s">
         <v>42</v>
       </c>
@@ -3223,14 +3223,14 @@
       <c r="U25" s="3"/>
     </row>
     <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="86"/>
+      <c r="B26" s="89"/>
       <c r="C26" s="43" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="E26" s="101"/>
+      <c r="E26" s="104"/>
       <c r="F26" s="58" t="s">
         <v>155</v>
       </c>
@@ -3244,13 +3244,13 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="86"/>
+      <c r="O26" s="89"/>
       <c r="P26" s="1" t="s">
         <v>41</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="U26" s="3"/>
     </row>
     <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="86" t="s">
+      <c r="B27" s="89" t="s">
         <v>62</v>
       </c>
       <c r="C27" s="43" t="s">
@@ -3270,7 +3270,7 @@
       <c r="D27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="100" t="s">
         <v>121</v>
       </c>
       <c r="F27" s="58" t="s">
@@ -3288,7 +3288,7 @@
       <c r="N27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O27" s="86" t="s">
+      <c r="O27" s="89" t="s">
         <v>62</v>
       </c>
       <c r="P27" s="1" t="s">
@@ -3301,14 +3301,14 @@
       <c r="U27" s="3"/>
     </row>
     <row r="28" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="90"/>
+      <c r="B28" s="93"/>
       <c r="C28" s="42" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="98"/>
+      <c r="E28" s="101"/>
       <c r="F28" s="60" t="s">
         <v>130</v>
       </c>
@@ -3324,7 +3324,7 @@
       <c r="N28" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O28" s="90"/>
+      <c r="O28" s="93"/>
       <c r="P28" s="4" t="s">
         <v>84</v>
       </c>
@@ -3448,62 +3448,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="96" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="93" t="s">
+      <c r="G2" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="120" t="s">
+      <c r="H2" s="128" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="120" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="125"/>
-      <c r="L2" s="124" t="s">
+      <c r="K2" s="122"/>
+      <c r="L2" s="120" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="125"/>
-      <c r="N2" s="122" t="s">
+      <c r="M2" s="122"/>
+      <c r="N2" s="115" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="93" t="s">
+      <c r="P2" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="93"/>
-      <c r="R2" s="93"/>
-      <c r="S2" s="93"/>
-      <c r="T2" s="106" t="s">
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="109" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="109"/>
+      <c r="U2" s="112"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="119"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="129"/>
+      <c r="I3" s="129"/>
       <c r="J3" s="46"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -3512,7 +3512,7 @@
       <c r="M3" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="123"/>
+      <c r="N3" s="116"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -3526,8 +3526,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="107"/>
-      <c r="U3" s="110"/>
+      <c r="T3" s="110"/>
+      <c r="U3" s="113"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -3568,7 +3568,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="123" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3580,7 +3580,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="124" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3610,7 +3610,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="89"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3620,7 +3620,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="117"/>
+      <c r="F6" s="125"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="89"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +3656,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="117"/>
+      <c r="F7" s="125"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3688,7 +3688,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -3698,7 +3698,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="117"/>
+      <c r="F8" s="125"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3724,7 +3724,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="89"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="117"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +3760,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="89"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -3770,7 +3770,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="117"/>
+      <c r="F10" s="125"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3799,7 +3799,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="89"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3809,7 +3809,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="117"/>
+      <c r="F11" s="125"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3841,7 +3841,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="123" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3853,7 +3853,7 @@
       <c r="E12" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="131" t="s">
+      <c r="F12" s="135" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -3883,7 +3883,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="126"/>
+      <c r="B13" s="130"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -3893,7 +3893,7 @@
       <c r="E13" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="113"/>
+      <c r="F13" s="118"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -3921,7 +3921,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="123" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3933,7 +3933,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="131" t="s">
+      <c r="F14" s="135" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3969,7 +3969,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="89"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="E15" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="112"/>
+      <c r="F15" s="117"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="89"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -4017,7 +4017,7 @@
       <c r="E16" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="117"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="89"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="112"/>
+      <c r="F17" s="117"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4083,7 +4083,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="52" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="89"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="49" t="s">
         <v>53</v>
       </c>
@@ -4093,7 +4093,7 @@
       <c r="E18" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="113"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="49" t="s">
         <v>37</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="U18" s="51"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="89"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -4131,7 +4131,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="112" t="s">
+      <c r="F19" s="117" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -4161,7 +4161,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="89"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="112"/>
+      <c r="F20" s="117"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="126"/>
+      <c r="B21" s="130"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="113"/>
+      <c r="F21" s="118"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="115" t="s">
+      <c r="B22" s="123" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -4249,7 +4249,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="116" t="s">
+      <c r="F22" s="124" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4279,7 +4279,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="126"/>
+      <c r="B23" s="130"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="128"/>
+      <c r="F23" s="132"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -4317,7 +4317,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="115" t="s">
+      <c r="B24" s="123" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -4327,7 +4327,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="133" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -4353,7 +4353,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="127"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="130"/>
+      <c r="F25" s="134"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A753FBA-29C7-48E5-A0B4-D9010776D31D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4265E2-66F7-431C-90CC-09CB26984179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
-    <sheet name="명사" sheetId="4" r:id="rId1"/>
-    <sheet name="동사" sheetId="1" r:id="rId2"/>
+    <sheet name="REST" sheetId="4" r:id="rId1"/>
+    <sheet name="응답" sheetId="5" r:id="rId2"/>
+    <sheet name="초안" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="234">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -562,18 +563,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>운송장 대량 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>운송장 한개 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/funding/{no}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>북마크한프로젝트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -630,10 +619,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>크리에이터 추가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>크리에이터 정보수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -666,19 +651,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MyPageController</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>info.html / apply.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/bookmark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/member/project</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -778,6 +751,222 @@
   </si>
   <si>
     <t>/project/{projNo}/fundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/fundings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/list/{page}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectService</t>
+  </si>
+  <si>
+    <t>운송장 입력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/bmlist/{page}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{projNo}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩한 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberController2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랜잭션?트리거?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>funlist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리에이터 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리에이터 정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCrById(String loginId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreatorDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCr(CreatorDTO creator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifyCr(CreatorDTO creator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateCr</t>
+  </si>
+  <si>
+    <t>insertCr</t>
+  </si>
+  <si>
+    <t>selectCrById</t>
+  </si>
+  <si>
+    <t>ProjectDAO</t>
+  </si>
+  <si>
+    <t>findPrevProj(int projNo)</t>
+  </si>
+  <si>
+    <t>cancleProj(int projNo, String loginId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFunsByProjNo(int projNo, String loginId)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FundingDTO&gt;</t>
+  </si>
+  <si>
+    <t>modifyFuns(List&lt;FundingDTO&gt; list)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>mainProjs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectPrevProj</t>
+  </si>
+  <si>
+    <t>updateProj</t>
+  </si>
+  <si>
+    <t>selectFunsByProjNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>updateFuns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200번대 : 정상적인 응답</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400번대 서버에서 인식x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500번대 서버 내부의 문제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wellbell.tistory.com/24</t>
+  </si>
+  <si>
+    <t>BAD_REQUEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FORBIDDEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유효성검사를 철저히 하면  필요없을듯?
+자릿수,DB type잘맞추기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTERNAL_SERVER_ERROR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록한 프로젝트 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션에 로그인정보없음
+ → 로그인페이지 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowCnt=1
+ → 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowCnt=1
+→ 새로고침</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL문 오료나 기타오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creaotr 테이블에 없을때
+(정보수정한적없거나 프로젝트등록한적없는경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowCnt=0
+(?SQL문 오류? 타입오류?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNAUTHORIZED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인정보 볼 권한없을때
+실패인경우도 막기?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩참여자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운송장 입력건수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -785,7 +974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,8 +1024,41 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,8 +1107,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="42">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -1330,21 +1576,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1445,13 +1676,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1542,9 +1802,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1587,9 +1844,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1611,187 +1865,142 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1803,62 +2012,260 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1875,6 +2282,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1211035</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27217</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1748116</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>118640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55CCAB0B-4021-4235-8044-DEBBD26E681E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2748642" y="10831288"/>
+          <a:ext cx="9810750" cy="6214638"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2174,11 +2630,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
-  <dimension ref="B1:U33"/>
+  <dimension ref="B1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2188,179 +2644,157 @@
     <col min="3" max="3" width="16.125" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
     <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="28.375" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="25.875" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="8" max="8" width="24.125" customWidth="1"/>
+    <col min="9" max="9" width="14.375" customWidth="1"/>
     <col min="10" max="10" width="37.125" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="141" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
     <col min="16" max="16" width="10.375" customWidth="1"/>
     <col min="17" max="17" width="14.625" customWidth="1"/>
-    <col min="18" max="18" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.5" customWidth="1"/>
-    <col min="20" max="20" width="17" customWidth="1"/>
-    <col min="21" max="21" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I1" t="s">
         <v>48</v>
       </c>
       <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" t="s">
-        <v>3</v>
-      </c>
-      <c r="S1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="2:21" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C2" s="96" t="s">
+    </row>
+    <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="98" t="s">
+      <c r="E2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="G2" s="96" t="s">
+      <c r="F2" s="91" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="96" t="s">
+      <c r="H2" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="114" t="s">
+      <c r="J2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="115" t="s">
+      <c r="M2" s="97"/>
+      <c r="N2" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="P2" s="96" t="s">
+      <c r="O2" s="100" t="s">
+        <v>134</v>
+      </c>
+      <c r="P2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="109" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" s="112"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="95"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="111"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" s="44" t="s">
+      <c r="Q2" s="95"/>
+    </row>
+    <row r="3" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="101"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="K3" s="80" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" s="44" t="s">
-        <v>182</v>
-      </c>
-      <c r="M3" s="46" t="s">
+      <c r="K3" s="67" t="s">
+        <v>161</v>
+      </c>
+      <c r="L3" s="142" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="116"/>
-      <c r="O3" s="95"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="101"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
       <c r="Q3" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="R3" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="S3" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="T3" s="110"/>
-      <c r="U3" s="113"/>
-    </row>
-    <row r="4" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="61" t="s">
+    </row>
+    <row r="4" spans="2:17" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="10"/>
+      <c r="E4" s="152"/>
       <c r="F4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="39"/>
+      <c r="G4" s="152" t="s">
+        <v>115</v>
+      </c>
       <c r="H4" s="10" t="s">
         <v>72</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="M4" s="10"/>
+      <c r="L4" s="74" t="s">
+        <v>177</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>207</v>
+      </c>
       <c r="N4" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="O4" s="79" t="s">
+      <c r="O4" s="66" t="s">
         <v>117</v>
       </c>
       <c r="P4" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="11"/>
-    </row>
-    <row r="5" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="89"/>
-      <c r="C5" s="73" t="s">
+    </row>
+    <row r="5" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="80"/>
+      <c r="C5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="119" t="s">
+      <c r="E5" s="124" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="156" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2369,34 +2803,30 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
+      <c r="L5" s="72"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="89"/>
+      <c r="O5" s="80"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="3"/>
-    </row>
-    <row r="6" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="89"/>
-      <c r="C6" s="73" t="s">
+    </row>
+    <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="80"/>
+      <c r="C6" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="117"/>
+      <c r="E6" s="125"/>
       <c r="F6" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="G6" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="156" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2405,36 +2835,32 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="L6" s="71"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="89"/>
+      <c r="O6" s="80"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="3"/>
-    </row>
-    <row r="7" spans="2:21" s="76" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="89" t="s">
+    </row>
+    <row r="7" spans="2:17" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="73" t="s">
+      <c r="C7" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="117"/>
+      <c r="E7" s="125"/>
       <c r="F7" s="72" t="s">
-        <v>156</v>
-      </c>
-      <c r="G7" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="156" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2443,14 +2869,14 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="83" t="s">
-        <v>165</v>
+      <c r="L7" s="71" t="s">
+        <v>158</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="89" t="s">
+      <c r="O7" s="80" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -2459,28 +2885,20 @@
       <c r="Q7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="34" t="s">
-        <v>87</v>
-      </c>
-      <c r="U7" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="89"/>
-      <c r="C8" s="75" t="s">
+    </row>
+    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="80"/>
+      <c r="C8" s="78" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="117"/>
+      <c r="E8" s="125"/>
       <c r="F8" s="71" t="s">
-        <v>153</v>
-      </c>
-      <c r="G8" s="75" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="157" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2489,38 +2907,34 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="83" t="s">
-        <v>165</v>
+      <c r="L8" s="71" t="s">
+        <v>158</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="89"/>
+      <c r="O8" s="80"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Q8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="7"/>
-    </row>
-    <row r="9" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="89"/>
-      <c r="C9" s="74" t="s">
+    </row>
+    <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="80"/>
+      <c r="C9" s="77" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="74" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="158" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -2529,872 +2943,814 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="82" t="s">
-        <v>165</v>
+      <c r="L9" s="73" t="s">
+        <v>158</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="89"/>
+      <c r="O9" s="80"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="9"/>
-    </row>
-    <row r="10" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="89"/>
-      <c r="C10" s="75" t="s">
+    </row>
+    <row r="10" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="80"/>
+      <c r="C10" s="78" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="117" t="s">
-        <v>158</v>
+      <c r="E10" s="127" t="s">
+        <v>187</v>
       </c>
       <c r="F10" s="71" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="75" t="s">
-        <v>113</v>
-      </c>
-      <c r="H10" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
+      <c r="G10" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="144"/>
+      <c r="J10" s="144"/>
+      <c r="K10" s="144"/>
+      <c r="L10" s="147" t="s">
+        <v>158</v>
+      </c>
+      <c r="M10" s="144"/>
+      <c r="N10" s="144" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="89"/>
+      <c r="O10" s="80"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="7"/>
-    </row>
-    <row r="11" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="89"/>
-      <c r="C11" s="41" t="s">
+    </row>
+    <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="80"/>
+      <c r="C11" s="77" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="117"/>
-      <c r="F11" s="62" t="s">
+      <c r="E11" s="128"/>
+      <c r="F11" s="73" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="41" t="s">
-        <v>113</v>
+      <c r="G11" s="160" t="s">
+        <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8" t="s">
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="148" t="s">
+        <v>158</v>
+      </c>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="89"/>
+      <c r="O11" s="120"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
       <c r="Q11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="R11" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="9"/>
-    </row>
-    <row r="12" spans="2:21" s="52" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="90" t="s">
+    </row>
+    <row r="12" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L12" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="O12" s="83" t="s">
+        <v>135</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="80"/>
+      <c r="C13" s="62" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="129"/>
+      <c r="F13" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L13" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="80"/>
+      <c r="P13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="80"/>
+      <c r="C14" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="130"/>
+      <c r="F14" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L14" s="72" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="80"/>
+      <c r="P14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="64" t="s">
+      <c r="C15" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="65" t="s">
-        <v>83</v>
-      </c>
-      <c r="E12" s="117"/>
-      <c r="F12" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="H12" s="65" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="64" t="s">
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="131"/>
+      <c r="F15" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J15" s="68" t="s">
+        <v>171</v>
+      </c>
+      <c r="K15" s="68" t="s">
+        <v>168</v>
+      </c>
+      <c r="L15" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" s="68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="82"/>
+      <c r="C16" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65" t="s">
+      <c r="L16" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O12" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" s="65" t="s">
+      <c r="O16" s="82"/>
+      <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66"/>
-    </row>
-    <row r="13" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="91"/>
-      <c r="C13" s="41" t="s">
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="82"/>
+      <c r="C17" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="118"/>
-      <c r="F13" s="62" t="s">
+      <c r="D17" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="133"/>
+      <c r="F17" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="144" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144" t="s">
+        <v>162</v>
+      </c>
+      <c r="L17" s="147" t="s">
+        <v>200</v>
+      </c>
+      <c r="M17" s="144"/>
+      <c r="N17" s="144" t="s">
+        <v>124</v>
+      </c>
+      <c r="O17" s="82"/>
+      <c r="P17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="82"/>
+      <c r="C18" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="133"/>
+      <c r="F18" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="G13" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="82" t="s">
+      <c r="J18" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="O18" s="82"/>
+      <c r="P18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="82"/>
+      <c r="C19" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="134"/>
+      <c r="F19" s="58" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8" t="s">
+      <c r="L19" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="91"/>
-      <c r="P13" s="8" t="s">
+      <c r="O19" s="82"/>
+      <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="9"/>
-    </row>
-    <row r="14" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="40" t="s">
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="2:17" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="82"/>
+      <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="E14" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="40" t="s">
+      <c r="D20" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="143"/>
+      <c r="J20" s="143"/>
+      <c r="K20" s="143"/>
+      <c r="L20" s="149" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="143"/>
+      <c r="N20" s="143" t="s">
+        <v>108</v>
+      </c>
+      <c r="O20" s="82"/>
+      <c r="P20" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q20" s="52"/>
+    </row>
+    <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="83"/>
+      <c r="C21" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="53" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="89" t="s">
-        <v>138</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="6"/>
-      <c r="U14" s="7"/>
-    </row>
-    <row r="15" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="89"/>
-      <c r="C15" s="70" t="s">
+      <c r="H21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="L21" s="71" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="O21" s="83"/>
+      <c r="P21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="2:17" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15" s="104"/>
-      <c r="F15" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="G15" s="70" t="s">
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="128"/>
+      <c r="F22" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6" t="s">
+      <c r="H22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="L22" s="73" t="s">
+        <v>156</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="89"/>
-      <c r="P15" s="6" t="s">
+      <c r="O22" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="P22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="7"/>
-    </row>
-    <row r="16" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="89"/>
-      <c r="C16" s="43" t="s">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="80"/>
+      <c r="C23" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="145" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+      <c r="L23" s="150" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="145"/>
+      <c r="N23" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="O23" s="80"/>
+      <c r="P23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="80"/>
+      <c r="C24" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E16" s="105"/>
-      <c r="F16" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="G16" s="43" t="s">
+      <c r="D24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="137"/>
+      <c r="F24" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="161" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O16" s="89"/>
-      <c r="P16" s="1" t="s">
+      <c r="O24" s="80"/>
+      <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="2:21" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="62" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J17" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="K17" s="88" t="s">
-        <v>175</v>
-      </c>
-      <c r="L17" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="M17" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="N17" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O17" s="90" t="s">
-        <v>4</v>
-      </c>
-      <c r="P17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q17" s="88" t="s">
-        <v>174</v>
-      </c>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="92"/>
-      <c r="C18" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="87" t="s">
-        <v>154</v>
-      </c>
-      <c r="G18" s="39" t="s">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="80"/>
+      <c r="C25" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="138"/>
+      <c r="F25" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="154" t="s">
         <v>115</v>
       </c>
-      <c r="H18" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="J18" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="L18" s="81" t="s">
-        <v>164</v>
-      </c>
-      <c r="M18" s="10" t="s">
+      <c r="H25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="N18" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="92"/>
-      <c r="P18" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11"/>
-    </row>
-    <row r="19" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
-      <c r="C19" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="105"/>
-      <c r="F19" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="H19" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L19" s="85" t="s">
-        <v>164</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="O19" s="92"/>
-      <c r="P19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="92"/>
-      <c r="C20" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="62" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" s="41" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="L20" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="O20" s="92"/>
-      <c r="P20" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q20" s="8"/>
-      <c r="R20" s="8"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="9"/>
-    </row>
-    <row r="21" spans="2:21" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="92"/>
-      <c r="C21" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="D21" s="67" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="68" t="s">
-        <v>146</v>
-      </c>
-      <c r="F21" s="86" t="s">
-        <v>154</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>116</v>
-      </c>
-      <c r="H21" s="68" t="s">
-        <v>166</v>
-      </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="92"/>
-      <c r="P21" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
-      <c r="S21" s="54"/>
-      <c r="T21" s="54"/>
-      <c r="U21" s="55"/>
-    </row>
-    <row r="22" spans="2:21" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="91"/>
-      <c r="C22" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="103" t="s">
-        <v>181</v>
-      </c>
-      <c r="F22" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="M22" s="6"/>
-      <c r="N22" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O22" s="91"/>
-      <c r="P22" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="6"/>
-      <c r="U22" s="7"/>
-    </row>
-    <row r="23" spans="2:21" s="47" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="108"/>
-      <c r="F23" s="62" t="s">
-        <v>185</v>
-      </c>
-      <c r="G23" s="41" t="s">
-        <v>114</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="82" t="s">
-        <v>163</v>
-      </c>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O23" s="89" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="9"/>
-    </row>
-    <row r="24" spans="2:21" s="47" customFormat="1" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="89"/>
-      <c r="C24" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E24" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="M24" s="6"/>
-      <c r="N24" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="O24" s="89"/>
-      <c r="P24" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6"/>
-      <c r="T24" s="6"/>
-      <c r="U24" s="7"/>
-    </row>
-    <row r="25" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="89"/>
-      <c r="C25" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E25" s="103"/>
-      <c r="F25" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="43"/>
-      <c r="H25" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="85" t="s">
-        <v>163</v>
-      </c>
-      <c r="M25" s="1"/>
+      <c r="L25" s="72" t="s">
+        <v>156</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="N25" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="O25" s="89"/>
+        <v>108</v>
+      </c>
+      <c r="O25" s="80"/>
       <c r="P25" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="3"/>
-    </row>
-    <row r="26" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="89"/>
-      <c r="C26" s="43" t="s">
+    </row>
+    <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>148</v>
-      </c>
-      <c r="E26" s="104"/>
-      <c r="F26" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>115</v>
-      </c>
+      <c r="D26" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="42"/>
       <c r="H26" s="1" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="85" t="s">
-        <v>163</v>
-      </c>
+      <c r="L26" s="72"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="89"/>
+      <c r="O26" s="80" t="s">
+        <v>62</v>
+      </c>
       <c r="P26" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="100" t="s">
-        <v>121</v>
-      </c>
-      <c r="F27" s="58" t="s">
+    </row>
+    <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="102"/>
+      <c r="C27" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="140"/>
+      <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="43"/>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="41"/>
+      <c r="H27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="O27" s="102"/>
+      <c r="P27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="151"/>
+      <c r="D29" t="s">
+        <v>188</v>
+      </c>
+      <c r="F29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
         <v>140</v>
       </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="85"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="89" t="s">
-        <v>62</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="3"/>
-    </row>
-    <row r="28" spans="2:21" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="93"/>
-      <c r="C28" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="101"/>
-      <c r="F28" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="O28" s="93"/>
-      <c r="P28" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="5"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="C30" s="13"/>
-      <c r="D30" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F33" t="s">
-        <v>144</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="O23:O26"/>
-    <mergeCell ref="O27:O28"/>
+  <mergeCells count="31">
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O22:O25"/>
+    <mergeCell ref="O26:O27"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="E18:E20"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="O14:O16"/>
-    <mergeCell ref="O17:O22"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3403,11 +3759,1015 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4E0677-B131-47E3-B38A-B65DD9F3F371}">
+  <dimension ref="B1:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
+    <col min="4" max="4" width="18.125" customWidth="1"/>
+    <col min="5" max="5" width="20.25" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="11.375" customWidth="1"/>
+    <col min="8" max="8" width="24.125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.125" customWidth="1"/>
+    <col min="11" max="11" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.75" customWidth="1"/>
+    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="166" t="s">
+        <v>215</v>
+      </c>
+      <c r="K1" s="167"/>
+      <c r="L1" s="165" t="s">
+        <v>216</v>
+      </c>
+      <c r="M1" s="165"/>
+      <c r="N1" s="165"/>
+      <c r="O1" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="P1" s="165"/>
+      <c r="Q1" s="165"/>
+    </row>
+    <row r="2" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="176" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="177" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="178" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="178" t="s">
+        <v>208</v>
+      </c>
+      <c r="G2" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="179" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="168">
+        <v>200</v>
+      </c>
+      <c r="K2" s="168">
+        <v>204</v>
+      </c>
+      <c r="L2" s="168">
+        <v>400</v>
+      </c>
+      <c r="M2" s="168">
+        <v>401</v>
+      </c>
+      <c r="N2" s="168">
+        <v>403</v>
+      </c>
+      <c r="O2" s="168">
+        <v>500</v>
+      </c>
+      <c r="P2" s="168"/>
+      <c r="Q2" s="169"/>
+    </row>
+    <row r="3" spans="2:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="180"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="182"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="183" t="s">
+        <v>161</v>
+      </c>
+      <c r="J3" s="164" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="164" t="s">
+        <v>214</v>
+      </c>
+      <c r="L3" s="164" t="s">
+        <v>219</v>
+      </c>
+      <c r="M3" s="164" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="164" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" s="164" t="s">
+        <v>222</v>
+      </c>
+      <c r="P3" s="164"/>
+      <c r="Q3" s="170"/>
+    </row>
+    <row r="4" spans="2:17" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="152"/>
+      <c r="F4" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="74">
+        <f>REST!K4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="45"/>
+      <c r="Q4" s="171"/>
+    </row>
+    <row r="5" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="80"/>
+      <c r="C5" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="F5" s="72" t="s">
+        <v>147</v>
+      </c>
+      <c r="G5" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I5" s="74">
+        <f>REST!K5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="171"/>
+    </row>
+    <row r="6" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="80"/>
+      <c r="C6" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="125"/>
+      <c r="F6" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="71">
+        <f>REST!K6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="171"/>
+    </row>
+    <row r="7" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="125"/>
+      <c r="F7" s="72" t="s">
+        <v>152</v>
+      </c>
+      <c r="G7" s="156" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="72">
+        <f>REST!K7</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="171"/>
+    </row>
+    <row r="8" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="80"/>
+      <c r="C8" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="125"/>
+      <c r="F8" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="G8" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="71">
+        <f>REST!K8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="171"/>
+    </row>
+    <row r="9" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="80"/>
+      <c r="C9" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="126"/>
+      <c r="F9" s="65" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" s="158" t="s">
+        <v>116</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I9" s="73">
+        <f>REST!K9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
+      <c r="O9" s="45"/>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="171"/>
+    </row>
+    <row r="10" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="80"/>
+      <c r="C10" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="127" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="G10" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" s="64" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="147">
+        <f>REST!K10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="172" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="L10" s="172" t="s">
+        <v>221</v>
+      </c>
+      <c r="M10" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="N10" s="45"/>
+      <c r="O10" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="171"/>
+    </row>
+    <row r="11" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="80"/>
+      <c r="C11" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="128"/>
+      <c r="F11" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="G11" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="148">
+        <f>REST!K11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="172" t="s">
+        <v>226</v>
+      </c>
+      <c r="K11" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="172" t="s">
+        <v>221</v>
+      </c>
+      <c r="M11" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="171"/>
+    </row>
+    <row r="12" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="80" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="129" t="s">
+        <v>119</v>
+      </c>
+      <c r="F12" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="71" t="str">
+        <f>REST!K12</f>
+        <v>int</v>
+      </c>
+      <c r="J12" s="172" t="s">
+        <v>225</v>
+      </c>
+      <c r="K12" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="L12" s="172" t="s">
+        <v>221</v>
+      </c>
+      <c r="M12" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="O12" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="171"/>
+    </row>
+    <row r="13" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="80"/>
+      <c r="C13" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>191</v>
+      </c>
+      <c r="E13" s="129"/>
+      <c r="F13" s="71" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="71" t="str">
+        <f>REST!K13</f>
+        <v>CreatorDTO</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>193</v>
+      </c>
+      <c r="K13" s="172" t="s">
+        <v>228</v>
+      </c>
+      <c r="L13" s="45"/>
+      <c r="M13" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="O13" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="171"/>
+    </row>
+    <row r="14" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="80"/>
+      <c r="C14" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" s="130"/>
+      <c r="F14" s="72" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="I14" s="72" t="str">
+        <f>REST!K14</f>
+        <v>int</v>
+      </c>
+      <c r="J14" s="172" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="172" t="s">
+        <v>221</v>
+      </c>
+      <c r="M14" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="O14" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P14" s="45"/>
+      <c r="Q14" s="171"/>
+    </row>
+    <row r="15" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="81" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="131"/>
+      <c r="F15" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="G15" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="163" t="str">
+        <f>REST!K15</f>
+        <v>List&lt;ProjectDTO&gt;
+int</v>
+      </c>
+      <c r="J15" s="175" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="M15" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="O15" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="171"/>
+    </row>
+    <row r="16" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="82"/>
+      <c r="C16" s="75" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="132" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G16" s="152" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="74" t="str">
+        <f>REST!K16</f>
+        <v>List&lt;ProjectDTO&gt;</v>
+      </c>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="171"/>
+    </row>
+    <row r="17" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="82"/>
+      <c r="C17" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E17" s="133"/>
+      <c r="F17" s="117" t="s">
+        <v>184</v>
+      </c>
+      <c r="G17" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="I17" s="147" t="str">
+        <f>REST!K17</f>
+        <v>ProjectDTO</v>
+      </c>
+      <c r="J17" s="45"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="45"/>
+      <c r="N17" s="45"/>
+      <c r="O17" s="45"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="171"/>
+    </row>
+    <row r="18" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="82"/>
+      <c r="C18" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="133"/>
+      <c r="F18" s="72" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="I18" s="72" t="str">
+        <f>REST!K18</f>
+        <v>ProjectDTO</v>
+      </c>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="171"/>
+    </row>
+    <row r="19" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="82"/>
+      <c r="C19" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="134"/>
+      <c r="F19" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="G19" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="73" t="str">
+        <f>REST!K19</f>
+        <v>List&lt;ProjectDTO&gt;</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="45"/>
+      <c r="N19" s="45"/>
+      <c r="O19" s="45"/>
+      <c r="P19" s="45"/>
+      <c r="Q19" s="171"/>
+    </row>
+    <row r="20" spans="2:17" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="82"/>
+      <c r="C20" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="135" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="119" t="s">
+        <v>150</v>
+      </c>
+      <c r="G20" s="162" t="s">
+        <v>116</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="I20" s="149">
+        <f>REST!K20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="45"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="171"/>
+    </row>
+    <row r="21" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="83"/>
+      <c r="C21" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="136" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="71" t="s">
+        <v>185</v>
+      </c>
+      <c r="G21" s="159" t="s">
+        <v>114</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="I21" s="71" t="str">
+        <f>REST!K21</f>
+        <v>int</v>
+      </c>
+      <c r="J21" s="172" t="s">
+        <v>225</v>
+      </c>
+      <c r="K21" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="L21" s="172" t="s">
+        <v>221</v>
+      </c>
+      <c r="M21" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="N21" s="172"/>
+      <c r="O21" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P21" s="45"/>
+      <c r="Q21" s="171"/>
+    </row>
+    <row r="22" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="128"/>
+      <c r="F22" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="I22" s="73" t="str">
+        <f>REST!K22</f>
+        <v>List&lt;FundingDTO&gt;</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>232</v>
+      </c>
+      <c r="M22" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="N22" s="172" t="s">
+        <v>231</v>
+      </c>
+      <c r="O22" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q22" s="171"/>
+    </row>
+    <row r="23" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="80"/>
+      <c r="C23" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="137" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23" s="150">
+        <f>REST!K23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="K23" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="L23" s="45"/>
+      <c r="M23" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="N23" s="45"/>
+      <c r="O23" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="171"/>
+    </row>
+    <row r="24" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="80"/>
+      <c r="C24" s="76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E24" s="137"/>
+      <c r="F24" s="72" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I24" s="72" t="str">
+        <f>REST!K24</f>
+        <v>int</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="K24" s="184" t="s">
+        <v>229</v>
+      </c>
+      <c r="L24" s="45"/>
+      <c r="M24" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="N24" s="172"/>
+      <c r="O24" s="45" t="s">
+        <v>227</v>
+      </c>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="171"/>
+    </row>
+    <row r="25" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="80"/>
+      <c r="C25" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="138"/>
+      <c r="F25" s="72" t="s">
+        <v>151</v>
+      </c>
+      <c r="G25" s="154" t="s">
+        <v>115</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="72">
+        <f>REST!K25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="45"/>
+      <c r="N25" s="45"/>
+      <c r="O25" s="45"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="171"/>
+    </row>
+    <row r="26" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="122" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="139" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="76"/>
+      <c r="H26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I26" s="72">
+        <f>REST!K26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="45"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="45"/>
+      <c r="N26" s="45"/>
+      <c r="O26" s="45"/>
+      <c r="P26" s="45"/>
+      <c r="Q26" s="171"/>
+    </row>
+    <row r="27" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="102"/>
+      <c r="C27" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E27" s="140"/>
+      <c r="F27" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="79"/>
+      <c r="H27" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="I27" s="56">
+        <f>REST!K27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="173"/>
+      <c r="K27" s="173"/>
+      <c r="L27" s="173"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
+      <c r="O27" s="173"/>
+      <c r="P27" s="173"/>
+      <c r="Q27" s="174"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="K28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C29" s="151"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="B7:B11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15EE43C-1B49-4AB9-8D61-D662968BE7CC}">
   <dimension ref="B1:AB30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
@@ -3448,71 +4808,71 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="126" t="s">
+      <c r="B2" s="115" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="128" t="s">
+      <c r="E2" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="98" t="s">
+      <c r="F2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="95" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="128" t="s">
+      <c r="H2" s="112" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="128" t="s">
+      <c r="I2" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="86" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="122"/>
-      <c r="L2" s="120" t="s">
+      <c r="K2" s="88"/>
+      <c r="L2" s="86" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="122"/>
-      <c r="N2" s="115" t="s">
+      <c r="M2" s="88"/>
+      <c r="N2" s="98" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="96" t="s">
+      <c r="P2" s="95" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="109" t="s">
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+      <c r="S2" s="95"/>
+      <c r="T2" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="112"/>
+      <c r="U2" s="93"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="127"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="129"/>
-      <c r="I3" s="129"/>
-      <c r="J3" s="46"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
       </c>
       <c r="L3" s="29"/>
-      <c r="M3" s="46" t="s">
+      <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="116"/>
+      <c r="N3" s="99"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -3526,8 +4886,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="110"/>
-      <c r="U3" s="113"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="94"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -3568,7 +4928,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="123" t="s">
+      <c r="B5" s="104" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -3580,7 +4940,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="124" t="s">
+      <c r="F5" s="107" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -3610,7 +4970,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="92"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -3620,7 +4980,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="125"/>
+      <c r="F6" s="114"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -3646,7 +5006,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="92"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -3656,7 +5016,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="125"/>
+      <c r="F7" s="114"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3680,7 +5040,7 @@
       </c>
       <c r="R7" s="17"/>
       <c r="S7" s="1"/>
-      <c r="T7" s="34" t="s">
+      <c r="T7" s="33" t="s">
         <v>87</v>
       </c>
       <c r="U7" s="14" t="s">
@@ -3688,7 +5048,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="92"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -3698,7 +5058,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="125"/>
+      <c r="F8" s="114"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3724,7 +5084,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="92"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -3734,7 +5094,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="125"/>
+      <c r="F9" s="114"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -3760,7 +5120,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="92"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -3770,7 +5130,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="125"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -3799,7 +5159,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="92"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -3809,7 +5169,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="125"/>
+      <c r="F11" s="114"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -3841,7 +5201,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="123" t="s">
+      <c r="B12" s="104" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -3850,10 +5210,10 @@
       <c r="D12" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="36" t="s">
+      <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="135" t="s">
+      <c r="F12" s="111" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -3862,7 +5222,7 @@
       <c r="H12" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="I12" s="36" t="s">
+      <c r="I12" s="35" t="s">
         <v>100</v>
       </c>
       <c r="J12" s="10"/>
@@ -3883,24 +5243,24 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="130"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E13" s="35" t="s">
+      <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="118"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="H13" s="48" t="s">
+      <c r="H13" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="34" t="s">
         <v>100</v>
       </c>
       <c r="J13" s="8"/>
@@ -3910,7 +5270,7 @@
       <c r="N13" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="O13" s="38"/>
+      <c r="O13" s="37"/>
       <c r="P13" s="1" t="s">
         <v>42</v>
       </c>
@@ -3921,7 +5281,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="123" t="s">
+      <c r="B14" s="104" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -3933,7 +5293,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="135" t="s">
+      <c r="F14" s="111" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -3964,29 +5324,29 @@
       <c r="W14" t="s">
         <v>101</v>
       </c>
-      <c r="X14" s="37" t="s">
+      <c r="X14" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="92"/>
+      <c r="B15" s="82"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="117"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="34" t="s">
         <v>98</v>
       </c>
       <c r="J15" s="1"/>
@@ -4007,24 +5367,24 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="92"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="117"/>
+      <c r="F16" s="84"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="30" t="s">
         <v>92</v>
       </c>
       <c r="J16" s="1"/>
@@ -4045,7 +5405,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="92"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -4055,7 +5415,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="117"/>
+      <c r="F17" s="84"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -4082,56 +5442,56 @@
       <c r="T17" s="1"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="2:21" s="52" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="92"/>
-      <c r="C18" s="49" t="s">
+    <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="82"/>
+      <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="49" t="s">
+      <c r="D18" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="118"/>
-      <c r="G18" s="49" t="s">
+      <c r="F18" s="85"/>
+      <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="49" t="s">
+      <c r="H18" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="I18" s="49" t="s">
+      <c r="I18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49" t="s">
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49" t="s">
+      <c r="O18" s="47"/>
+      <c r="P18" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="51"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="92"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="117" t="s">
+      <c r="F19" s="84" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -4161,7 +5521,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="92"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -4171,7 +5531,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="117"/>
+      <c r="F20" s="84"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -4199,7 +5559,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="130"/>
+      <c r="B21" s="105"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -4209,7 +5569,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="118"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -4237,7 +5597,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="123" t="s">
+      <c r="B22" s="104" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -4249,7 +5609,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="124" t="s">
+      <c r="F22" s="107" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -4279,7 +5639,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="130"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -4289,7 +5649,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="132"/>
+      <c r="F23" s="108"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -4317,17 +5677,17 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="123" t="s">
+      <c r="B24" s="104" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="133" t="s">
+      <c r="F24" s="109" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -4353,15 +5713,15 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="131"/>
+      <c r="B25" s="106"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="32" t="s">
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="134"/>
+      <c r="F25" s="110"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -4416,6 +5776,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B22:B23"/>
@@ -4425,22 +5801,6 @@
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4265E2-66F7-431C-90CC-09CB26984179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC452B45-26EA-487E-8AB2-663FACDD89A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="248">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -590,18 +590,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://sabarada.tistory.com/28</t>
-  </si>
-  <si>
-    <t>https://docs.microsoft.com/ko-kr/azure/architecture/best-practices/api-design</t>
-  </si>
-  <si>
-    <t>https://velog.io/@pm1100tm/%EA%B9%94%EB%81%94%ED%95%9C-URL-%ED%8C%A8%ED%84%B4%EC%9D%84-%EC%9C%84%ED%95%9C-REST-Resource-Naming-Guide</t>
-  </si>
-  <si>
-    <t>https://developer.cafe24.com/docs/en/api/admin/#api-status-code</t>
-  </si>
-  <si>
     <t>/project/{no}/histrory</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -789,10 +777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>트랜잭션?트리거?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>funlist.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -900,19 +884,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://wellbell.tistory.com/24</t>
-  </si>
-  <si>
     <t>BAD_REQUEST</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FORBIDDEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유효성검사를 철저히 하면  필요없을듯?
-자릿수,DB type잘맞추기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -967,6 +943,93 @@
   </si>
   <si>
     <t>운송장 입력건수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://velog.io/@pm1100tm/%EA%B9%94%EB%81%94%ED%95%9C-URL-%ED%8C%A8%ED%84%B4%EC%9D%84-%EC%9C%84%ED%95%9C-REST-Resource-Naming-Guide</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://developer.cafe24.com/docs/en/api/admin/#api-status-code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/ko-kr/azure/architecture/best-practices/api-design</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sabarada.tistory.com/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://wellbell.tistory.com/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 조건에 맞는 프로젝트없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크한 프로젝트없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 프로젝트를 올린 크리에이터가
+이전에 올린 프로젝트없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션에 로그인정보없음
+ → 로그인페이지 이동</t>
+  </si>
+  <si>
+    <t>크레이이터 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재고(제한수량-주문수량) &lt; 신청수량</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no번 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색,필터 조건에 맞는 
+프로젝트 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크한 프로젝트 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이전 프로젝트 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOT_FOUND</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 번호 프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩신청 성공
+ → 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로시저+트리거</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -974,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1057,6 +1120,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -1121,18 +1202,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -1678,40 +1759,38 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="209">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,9 +1998,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1937,37 +2013,277 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1979,297 +2295,133 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2288,16 +2440,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1211035</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>27217</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729183</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1748116</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>118640</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>143274</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>96228</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2320,8 +2472,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2748642" y="10831288"/>
-          <a:ext cx="9810750" cy="6214638"/>
+          <a:off x="4875359" y="11737364"/>
+          <a:ext cx="9804346" cy="6478776"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2630,27 +2782,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
-  <dimension ref="B1:Q32"/>
+  <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
-    <col min="3" max="3" width="16.125" customWidth="1"/>
-    <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="20.25" customWidth="1"/>
-    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="24.125" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="37.125" customWidth="1"/>
+    <col min="10" max="10" width="35.75" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="141" customWidth="1"/>
+    <col min="12" max="12" width="15.5" style="90" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
@@ -2667,72 +2819,72 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="91" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="95" t="s">
+      <c r="F2" s="147" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="87"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="97" t="s">
+      <c r="J2" s="166"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="159" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="97"/>
-      <c r="N2" s="98" t="s">
+      <c r="M2" s="159"/>
+      <c r="N2" s="160" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="100" t="s">
+      <c r="O2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="95"/>
+      <c r="Q2" s="145"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="101"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="67" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>103</v>
       </c>
       <c r="K3" s="67" t="s">
-        <v>161</v>
-      </c>
-      <c r="L3" s="142" t="s">
-        <v>175</v>
-      </c>
-      <c r="M3" s="70" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="91" t="s">
+        <v>171</v>
+      </c>
+      <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="99"/>
-      <c r="O3" s="101"/>
+      <c r="N3" s="161"/>
+      <c r="O3" s="144"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -2750,11 +2902,11 @@
       <c r="D4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="152"/>
+      <c r="E4" s="101"/>
       <c r="F4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="101" t="s">
         <v>115</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -2763,11 +2915,11 @@
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
-      <c r="L4" s="74" t="s">
-        <v>177</v>
+      <c r="L4" s="73" t="s">
+        <v>173</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>107</v>
@@ -2781,20 +2933,20 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="76" t="s">
+      <c r="B5" s="141"/>
+      <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="162" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="156" t="s">
+      <c r="F5" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2803,10 +2955,10 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="72"/>
+      <c r="L5" s="71"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
-      <c r="O5" s="80"/>
+      <c r="O5" s="141"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2815,18 +2967,18 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="76" t="s">
+      <c r="B6" s="141"/>
+      <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="156" t="s">
+      <c r="E6" s="163"/>
+      <c r="F6" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2835,10 +2987,10 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="71"/>
+      <c r="L6" s="70"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
-      <c r="O6" s="80"/>
+      <c r="O6" s="141"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2847,20 +2999,20 @@
       </c>
     </row>
     <row r="7" spans="2:17" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="80" t="s">
+      <c r="B7" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="74" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="156" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2869,14 +3021,14 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="6"/>
-      <c r="L7" s="71" t="s">
-        <v>158</v>
+      <c r="L7" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="80" t="s">
+      <c r="O7" s="141" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -2887,18 +3039,18 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="78" t="s">
+      <c r="B8" s="141"/>
+      <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="157" t="s">
+      <c r="E8" s="163"/>
+      <c r="F8" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="106" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -2907,14 +3059,14 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
-      <c r="L8" s="71" t="s">
-        <v>158</v>
+      <c r="L8" s="70" t="s">
+        <v>154</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="80"/>
+      <c r="O8" s="141"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
@@ -2923,18 +3075,18 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="80"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="141"/>
+      <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="126"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="158" t="s">
+      <c r="G9" s="107" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -2943,14 +3095,14 @@
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
-      <c r="L9" s="73" t="s">
-        <v>158</v>
+      <c r="L9" s="72" t="s">
+        <v>154</v>
       </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="80"/>
+      <c r="O9" s="141"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
@@ -2959,70 +3111,70 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
-      <c r="C10" s="78" t="s">
+      <c r="B10" s="141"/>
+      <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="174" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="144"/>
-      <c r="J10" s="144"/>
-      <c r="K10" s="144"/>
-      <c r="L10" s="147" t="s">
-        <v>158</v>
-      </c>
-      <c r="M10" s="144"/>
-      <c r="N10" s="144" t="s">
+        <v>149</v>
+      </c>
+      <c r="I10" s="93"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="93"/>
+      <c r="L10" s="96" t="s">
+        <v>154</v>
+      </c>
+      <c r="M10" s="93"/>
+      <c r="N10" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="80"/>
+      <c r="O10" s="141"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="80"/>
-      <c r="C11" s="77" t="s">
+      <c r="B11" s="141"/>
+      <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="73" t="s">
+      <c r="E11" s="157"/>
+      <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="146"/>
-      <c r="L11" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="M11" s="146"/>
-      <c r="N11" s="146" t="s">
+      <c r="I11" s="95"/>
+      <c r="J11" s="95"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="97" t="s">
+        <v>154</v>
+      </c>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="120"/>
+      <c r="O11" s="175"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
@@ -3031,145 +3183,145 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="141" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="129" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="153" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="159" t="s">
+      <c r="G12" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L12" s="71" t="s">
-        <v>155</v>
+        <v>191</v>
+      </c>
+      <c r="L12" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="83" t="s">
+      <c r="O12" s="173" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="129"/>
+        <v>186</v>
+      </c>
+      <c r="E13" s="153"/>
       <c r="F13" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="159" t="s">
+      <c r="G13" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="L13" s="71" t="s">
-        <v>155</v>
+        <v>188</v>
+      </c>
+      <c r="L13" s="70" t="s">
+        <v>151</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="80"/>
+      <c r="O13" s="141"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="130"/>
+        <v>142</v>
+      </c>
+      <c r="E14" s="154"/>
       <c r="F14" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="161" t="s">
+      <c r="G14" s="110" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L14" s="72" t="s">
-        <v>155</v>
+        <v>191</v>
+      </c>
+      <c r="L14" s="71" t="s">
+        <v>151</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="80"/>
+      <c r="O14" s="141"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="171" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3178,294 +3330,294 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="131"/>
+      <c r="E15" s="155"/>
       <c r="F15" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="160" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>127</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K15" s="68" t="s">
-        <v>168</v>
-      </c>
-      <c r="L15" s="73" t="s">
-        <v>157</v>
+        <v>164</v>
+      </c>
+      <c r="L15" s="72" t="s">
+        <v>153</v>
       </c>
       <c r="M15" s="68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="81" t="s">
+      <c r="O15" s="171" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q15" s="68" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="152" t="s">
+      <c r="F16" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="101" t="s">
         <v>115</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>91</v>
       </c>
       <c r="I16" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="L16" s="74" t="s">
-        <v>157</v>
+      <c r="L16" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="82"/>
+      <c r="O16" s="172"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
-      <c r="C17" s="78" t="s">
+      <c r="B17" s="172"/>
+      <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="117" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="153" t="s">
+      <c r="E17" s="169"/>
+      <c r="F17" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="102" t="s">
         <v>115</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="144" t="s">
-        <v>182</v>
-      </c>
-      <c r="J17" s="144"/>
-      <c r="K17" s="144" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="147" t="s">
-        <v>200</v>
-      </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="144" t="s">
+      <c r="I17" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" s="96" t="s">
+        <v>195</v>
+      </c>
+      <c r="M17" s="93"/>
+      <c r="N17" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="82"/>
+      <c r="O17" s="172"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="133"/>
+      <c r="E18" s="169"/>
       <c r="F18" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="154" t="s">
+      <c r="G18" s="103" t="s">
         <v>115</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K18" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" s="71" t="s">
+        <v>153</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="L18" s="72" t="s">
-        <v>157</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="82"/>
+      <c r="O18" s="172"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="82"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="134"/>
+      <c r="E19" s="170"/>
       <c r="F19" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="155" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="104" t="s">
         <v>115</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I19" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="J19" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="L19" s="73" t="s">
-        <v>157</v>
+      <c r="L19" s="72" t="s">
+        <v>153</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="82"/>
+      <c r="O19" s="172"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="82"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="162" t="s">
+      <c r="E20" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="86" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="111" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="143"/>
-      <c r="J20" s="143"/>
-      <c r="K20" s="143"/>
-      <c r="L20" s="149" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="143"/>
-      <c r="N20" s="143" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="92"/>
+      <c r="L20" s="98" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="92"/>
+      <c r="N20" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="82"/>
+      <c r="O20" s="172"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83"/>
+      <c r="B21" s="173"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="136" t="s">
-        <v>174</v>
+      <c r="E21" s="156" t="s">
+        <v>170</v>
       </c>
       <c r="F21" s="53" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="159" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>127</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="L21" s="71" t="s">
-        <v>157</v>
+        <v>191</v>
+      </c>
+      <c r="L21" s="70" t="s">
+        <v>153</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="83"/>
+      <c r="O21" s="173"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="141" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="40" t="s">
@@ -3474,35 +3626,35 @@
       <c r="D22" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="128"/>
+      <c r="E22" s="157"/>
       <c r="F22" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="160" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>123</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="L22" s="73" t="s">
-        <v>156</v>
+        <v>199</v>
+      </c>
+      <c r="L22" s="72" t="s">
+        <v>152</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="80" t="s">
+      <c r="O22" s="141" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3511,134 +3663,134 @@
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="137" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="151" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="54" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="161" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="110" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" s="145" t="s">
-        <v>172</v>
-      </c>
-      <c r="J23" s="145"/>
-      <c r="K23" s="145"/>
-      <c r="L23" s="150" t="s">
-        <v>156</v>
-      </c>
-      <c r="M23" s="145"/>
-      <c r="N23" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="94" t="s">
+        <v>168</v>
+      </c>
+      <c r="J23" s="94"/>
+      <c r="K23" s="94"/>
+      <c r="L23" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="94"/>
+      <c r="N23" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="80"/>
+      <c r="O23" s="141"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="76" t="s">
+      <c r="B24" s="141"/>
+      <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="161" t="s">
+      <c r="E24" s="151"/>
+      <c r="F24" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="110" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="L24" s="72" t="s">
-        <v>156</v>
+        <v>191</v>
+      </c>
+      <c r="L24" s="71" t="s">
+        <v>152</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="80"/>
+      <c r="O24" s="141"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="138"/>
+      <c r="D25" s="116" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="152"/>
       <c r="F25" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="103" t="s">
         <v>115</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>96</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="72" t="s">
-        <v>156</v>
+      <c r="L25" s="71" t="s">
+        <v>152</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="80"/>
+      <c r="O25" s="141"/>
       <c r="P25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="141" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="149" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="54" t="s">
@@ -3651,12 +3803,12 @@
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="72"/>
+      <c r="L26" s="71"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="80" t="s">
+      <c r="O26" s="141" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -3665,14 +3817,14 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="102"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="140"/>
+      <c r="E27" s="150"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -3688,38 +3840,115 @@
       <c r="N27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="102"/>
+      <c r="O27" s="142"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q27" s="4"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C29" s="151"/>
+      <c r="C29" s="117"/>
       <c r="D29" t="s">
-        <v>188</v>
-      </c>
-      <c r="F29" t="s">
-        <v>138</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="F29" s="176" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="177"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="177"/>
+      <c r="J29" s="177"/>
+      <c r="K29" s="177"/>
+      <c r="L29" s="177"/>
+      <c r="M29" s="177"/>
+      <c r="N29" s="177"/>
+      <c r="O29" s="177"/>
+      <c r="P29" s="177"/>
+      <c r="Q29" s="177"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F30" t="s">
-        <v>139</v>
-      </c>
+      <c r="C30" s="100"/>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="176" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" s="177"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="177"/>
+      <c r="J30" s="177"/>
+      <c r="K30" s="177"/>
+      <c r="L30" s="177"/>
+      <c r="M30" s="177"/>
+      <c r="N30" s="177"/>
+      <c r="O30" s="177"/>
+      <c r="P30" s="177"/>
+      <c r="Q30" s="177"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F31" t="s">
-        <v>140</v>
-      </c>
+      <c r="F31" s="176" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="177"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="177"/>
+      <c r="J31" s="177"/>
+      <c r="K31" s="177"/>
+      <c r="L31" s="177"/>
+      <c r="M31" s="177"/>
+      <c r="N31" s="177"/>
+      <c r="O31" s="177"/>
+      <c r="P31" s="177"/>
+      <c r="Q31" s="177"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F32" t="s">
-        <v>141</v>
-      </c>
+      <c r="F32" s="176" t="s">
+        <v>228</v>
+      </c>
+      <c r="G32" s="177"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="177"/>
+      <c r="J32" s="177"/>
+      <c r="K32" s="177"/>
+      <c r="L32" s="177"/>
+      <c r="M32" s="177"/>
+      <c r="N32" s="177"/>
+      <c r="O32" s="177"/>
+      <c r="P32" s="177"/>
+      <c r="Q32" s="177"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
+      <c r="F35" s="178"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="179"/>
+      <c r="I35" s="179"/>
+      <c r="J35" s="179"/>
+      <c r="K35" s="179"/>
+      <c r="L35" s="179"/>
+      <c r="M35" s="179"/>
+      <c r="N35" s="179"/>
+      <c r="O35" s="179"/>
+      <c r="P35" s="179"/>
+      <c r="Q35" s="179"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="36">
+    <mergeCell ref="F29:Q29"/>
+    <mergeCell ref="F30:Q30"/>
+    <mergeCell ref="F35:Q35"/>
+    <mergeCell ref="F32:Q32"/>
+    <mergeCell ref="F31:Q31"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="E5:E9"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="E16:E19"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="E10:E11"/>
     <mergeCell ref="O15:O21"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="O7:O11"/>
@@ -3741,30 +3970,26 @@
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="E10:E11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F31" r:id="rId1" xr:uid="{7EE56107-B47B-49B8-BAB4-45FA86B80794}"/>
+    <hyperlink ref="F32" r:id="rId2" location="api-status-code" xr:uid="{0F6742C2-09B4-49E7-90C3-18B102648B26}"/>
+    <hyperlink ref="F30" r:id="rId3" xr:uid="{020D7EF4-39C3-489B-BCC3-E061ABDEB565}"/>
+    <hyperlink ref="F29" r:id="rId4" xr:uid="{FEC746DC-B529-4175-9B84-D873222092EC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4E0677-B131-47E3-B38A-B65DD9F3F371}">
-  <dimension ref="B1:Q29"/>
+  <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3778,935 +4003,1035 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="24.125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="11" max="11" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="26.75" customWidth="1"/>
-    <col min="14" max="14" width="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="41" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22" customWidth="1"/>
+    <col min="11" max="11" width="42.25" customWidth="1"/>
+    <col min="12" max="12" width="31.25" customWidth="1"/>
+    <col min="13" max="13" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="15" max="16" width="25.875" customWidth="1"/>
+    <col min="17" max="17" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="166" t="s">
+    <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="180" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" s="181"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="113" t="s">
+        <v>211</v>
+      </c>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113" t="s">
+        <v>212</v>
+      </c>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+    </row>
+    <row r="2" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="186" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="184" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="184" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="188" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="188" t="s">
+        <v>203</v>
+      </c>
+      <c r="G2" s="184" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="184" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="127" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="134">
+        <v>200</v>
+      </c>
+      <c r="K2" s="134">
+        <v>204</v>
+      </c>
+      <c r="L2" s="134">
+        <v>300</v>
+      </c>
+      <c r="M2" s="134">
+        <v>400</v>
+      </c>
+      <c r="N2" s="134">
+        <v>401</v>
+      </c>
+      <c r="O2" s="134">
+        <v>403</v>
+      </c>
+      <c r="P2" s="134">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="134">
+        <v>500</v>
+      </c>
+      <c r="R2" s="128"/>
+      <c r="S2" s="129"/>
+    </row>
+    <row r="3" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="187"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="130" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="132" t="s">
+        <v>208</v>
+      </c>
+      <c r="K3" s="132" t="s">
+        <v>209</v>
+      </c>
+      <c r="L3" s="132" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="132" t="s">
+        <v>213</v>
+      </c>
+      <c r="N3" s="132" t="s">
+        <v>223</v>
+      </c>
+      <c r="O3" s="132" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="132" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="132" t="s">
         <v>215</v>
       </c>
-      <c r="K1" s="167"/>
-      <c r="L1" s="165" t="s">
-        <v>216</v>
-      </c>
-      <c r="M1" s="165"/>
-      <c r="N1" s="165"/>
-      <c r="O1" s="165" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="165"/>
-      <c r="Q1" s="165"/>
-    </row>
-    <row r="2" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="176" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="177" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="177" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="178" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="178" t="s">
-        <v>208</v>
-      </c>
-      <c r="G2" s="177" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="177" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="179" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="168">
-        <v>200</v>
-      </c>
-      <c r="K2" s="168">
-        <v>204</v>
-      </c>
-      <c r="L2" s="168">
-        <v>400</v>
-      </c>
-      <c r="M2" s="168">
-        <v>401</v>
-      </c>
-      <c r="N2" s="168">
-        <v>403</v>
-      </c>
-      <c r="O2" s="168">
-        <v>500</v>
-      </c>
-      <c r="P2" s="168"/>
-      <c r="Q2" s="169"/>
-    </row>
-    <row r="3" spans="2:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="180"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="183" t="s">
-        <v>161</v>
-      </c>
-      <c r="J3" s="164" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="164" t="s">
-        <v>214</v>
-      </c>
-      <c r="L3" s="164" t="s">
-        <v>219</v>
-      </c>
-      <c r="M3" s="164" t="s">
-        <v>230</v>
-      </c>
-      <c r="N3" s="164" t="s">
-        <v>220</v>
-      </c>
-      <c r="O3" s="164" t="s">
-        <v>222</v>
-      </c>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="170"/>
-    </row>
-    <row r="4" spans="2:17" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="69" t="s">
+      <c r="R3" s="132"/>
+      <c r="S3" s="133"/>
+    </row>
+    <row r="4" spans="2:19" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="152"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="131"/>
+      <c r="F4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="152" t="s">
+      <c r="G4" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="74">
+      <c r="I4" s="121">
         <f>REST!K4</f>
         <v>0</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="171"/>
-    </row>
-    <row r="5" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="80"/>
-      <c r="C5" s="76" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="135"/>
+    </row>
+    <row r="5" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="141"/>
+      <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="124" t="s">
+      <c r="E5" s="163" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="G5" s="156" t="s">
+      <c r="F5" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="G5" s="106" t="s">
         <v>116</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="74">
+      <c r="I5" s="70">
         <f>REST!K5</f>
         <v>0</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="45"/>
-      <c r="L5" s="45"/>
-      <c r="M5" s="45"/>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="171"/>
-    </row>
-    <row r="6" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="80"/>
-      <c r="C6" s="76" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="141"/>
+      <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="125"/>
-      <c r="F6" s="72" t="s">
-        <v>148</v>
-      </c>
-      <c r="G6" s="156" t="s">
+      <c r="E6" s="163"/>
+      <c r="F6" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="70">
         <f>REST!K6</f>
         <v>0</v>
       </c>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
-      <c r="N6" s="45"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="45"/>
-      <c r="Q6" s="171"/>
-    </row>
-    <row r="7" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="80" t="s">
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="2:19" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="76" t="s">
+      <c r="C7" s="83" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="125"/>
-      <c r="F7" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="G7" s="156" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="G7" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="72">
+      <c r="I7" s="71">
         <f>REST!K7</f>
         <v>0</v>
       </c>
-      <c r="Q7" s="171"/>
-    </row>
-    <row r="8" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="80"/>
-      <c r="C8" s="78" t="s">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="141"/>
+      <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="125"/>
-      <c r="F8" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="G8" s="157" t="s">
+      <c r="E8" s="163"/>
+      <c r="F8" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="G8" s="106" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="70">
         <f>REST!K8</f>
         <v>0</v>
       </c>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="171"/>
-    </row>
-    <row r="9" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="80"/>
-      <c r="C9" s="77" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="141"/>
+      <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="126"/>
+      <c r="E9" s="164"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="158" t="s">
+      <c r="G9" s="107" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="73">
+      <c r="I9" s="72">
         <f>REST!K9</f>
         <v>0</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="45"/>
-      <c r="N9" s="45"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="45"/>
-      <c r="Q9" s="171"/>
-    </row>
-    <row r="10" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="80"/>
-      <c r="C10" s="78" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="9"/>
+    </row>
+    <row r="10" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="141"/>
+      <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="127" t="s">
-        <v>187</v>
-      </c>
-      <c r="F10" s="71" t="s">
+      <c r="E10" s="156" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="159" t="s">
+      <c r="G10" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="64" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="147">
+        <v>149</v>
+      </c>
+      <c r="I10" s="126">
         <f>REST!K10</f>
         <v>0</v>
       </c>
-      <c r="J10" s="172" t="s">
-        <v>225</v>
-      </c>
-      <c r="K10" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="L10" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="M10" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="N10" s="45"/>
-      <c r="O10" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="171"/>
-    </row>
-    <row r="11" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="80"/>
-      <c r="C11" s="77" t="s">
+      <c r="J10" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R10" s="10"/>
+      <c r="S10" s="11"/>
+    </row>
+    <row r="11" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="141"/>
+      <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="128"/>
-      <c r="F11" s="73" t="s">
+      <c r="E11" s="157"/>
+      <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="160" t="s">
+      <c r="G11" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="148">
+      <c r="I11" s="97">
         <f>REST!K11</f>
         <v>0</v>
       </c>
-      <c r="J11" s="172" t="s">
-        <v>226</v>
-      </c>
-      <c r="K11" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="L11" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="M11" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="N11" s="45"/>
-      <c r="O11" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="171"/>
-    </row>
-    <row r="12" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="80" t="s">
+      <c r="J11" s="68" t="s">
+        <v>219</v>
+      </c>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="N11" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R11" s="8"/>
+      <c r="S11" s="9"/>
+    </row>
+    <row r="12" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="141" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>190</v>
-      </c>
-      <c r="E12" s="129" t="s">
+        <v>185</v>
+      </c>
+      <c r="E12" s="153" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="159" t="s">
+      <c r="G12" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="71" t="str">
+        <v>169</v>
+      </c>
+      <c r="I12" s="73" t="str">
         <f>REST!K12</f>
         <v>int</v>
       </c>
-      <c r="J12" s="172" t="s">
-        <v>225</v>
-      </c>
-      <c r="K12" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="M12" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="O12" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="171"/>
-    </row>
-    <row r="13" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="80"/>
-      <c r="C13" s="78" t="s">
+      <c r="J12" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R12" s="10"/>
+      <c r="S12" s="11"/>
+    </row>
+    <row r="13" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="141"/>
+      <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>191</v>
-      </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="153"/>
+      <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="159" t="s">
+      <c r="G13" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="I13" s="71" t="str">
+        <v>169</v>
+      </c>
+      <c r="I13" s="70" t="str">
         <f>REST!K13</f>
         <v>CreatorDTO</v>
       </c>
-      <c r="J13" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="K13" s="172" t="s">
-        <v>228</v>
-      </c>
-      <c r="L13" s="45"/>
-      <c r="M13" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="O13" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="171"/>
-    </row>
-    <row r="14" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="80"/>
-      <c r="C14" s="76" t="s">
+      <c r="J13" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="141"/>
+      <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" s="130"/>
-      <c r="F14" s="72" t="s">
+        <v>142</v>
+      </c>
+      <c r="E14" s="154"/>
+      <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="161" t="s">
+      <c r="G14" s="110" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="72" t="str">
+        <v>169</v>
+      </c>
+      <c r="I14" s="71" t="str">
         <f>REST!K14</f>
         <v>int</v>
       </c>
-      <c r="J14" s="172" t="s">
-        <v>226</v>
-      </c>
-      <c r="K14" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="L14" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="M14" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="O14" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="171"/>
-    </row>
-    <row r="15" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="81" t="s">
+      <c r="J14" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N14" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="3"/>
+    </row>
+    <row r="15" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="77" t="s">
+      <c r="C15" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="131"/>
-      <c r="F15" s="73" t="s">
-        <v>163</v>
-      </c>
-      <c r="G15" s="160" t="s">
+      <c r="E15" s="155"/>
+      <c r="F15" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="163" t="str">
+      <c r="I15" s="112" t="str">
         <f>REST!K15</f>
         <v>List&lt;ProjectDTO&gt;
 int</v>
       </c>
-      <c r="J15" s="175" t="s">
+      <c r="J15" s="137" t="s">
         <v>35</v>
       </c>
-      <c r="K15" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="M15" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="O15" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="171"/>
-    </row>
-    <row r="16" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
-      <c r="C16" s="75" t="s">
+      <c r="K15" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R15" s="8"/>
+      <c r="S15" s="9"/>
+    </row>
+    <row r="16" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="172"/>
+      <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="132" t="s">
+      <c r="E16" s="168" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="118" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="152" t="s">
+      <c r="F16" s="85" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="101" t="s">
         <v>115</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="I16" s="74" t="str">
+      <c r="I16" s="73" t="str">
         <f>REST!K16</f>
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="171"/>
-    </row>
-    <row r="17" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
-      <c r="C17" s="78" t="s">
+      <c r="J16" s="136" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R16" s="10"/>
+      <c r="S16" s="11"/>
+    </row>
+    <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="172"/>
+      <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="133"/>
-      <c r="F17" s="117" t="s">
-        <v>184</v>
-      </c>
-      <c r="G17" s="153" t="s">
+      <c r="E17" s="169"/>
+      <c r="F17" s="84" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="102" t="s">
         <v>115</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="147" t="str">
+      <c r="I17" s="96" t="str">
         <f>REST!K17</f>
         <v>ProjectDTO</v>
       </c>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="171"/>
-    </row>
-    <row r="18" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
-      <c r="C18" s="76" t="s">
+      <c r="J17" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R17" s="1"/>
+      <c r="S17" s="3"/>
+    </row>
+    <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="172"/>
+      <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="133"/>
-      <c r="F18" s="72" t="s">
+      <c r="E18" s="169"/>
+      <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="154" t="s">
+      <c r="G18" s="103" t="s">
         <v>115</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>154</v>
-      </c>
-      <c r="I18" s="72" t="str">
+        <v>150</v>
+      </c>
+      <c r="I18" s="71" t="str">
         <f>REST!K18</f>
         <v>ProjectDTO</v>
       </c>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="171"/>
-    </row>
-    <row r="19" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="82"/>
-      <c r="C19" s="77" t="s">
+      <c r="J18" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R18" s="1"/>
+      <c r="S18" s="3"/>
+    </row>
+    <row r="19" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="172"/>
+      <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="134"/>
-      <c r="F19" s="73" t="s">
-        <v>142</v>
-      </c>
-      <c r="G19" s="155" t="s">
+      <c r="E19" s="170"/>
+      <c r="F19" s="72" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="104" t="s">
         <v>115</v>
       </c>
       <c r="H19" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="73" t="str">
+        <v>140</v>
+      </c>
+      <c r="I19" s="72" t="str">
         <f>REST!K19</f>
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="171"/>
-    </row>
-    <row r="20" spans="2:17" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="82"/>
-      <c r="C20" s="51" t="s">
+      <c r="J19" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" s="68" t="s">
+        <v>235</v>
+      </c>
+      <c r="L19" s="68"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R19" s="8"/>
+      <c r="S19" s="9"/>
+    </row>
+    <row r="20" spans="2:20" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="172"/>
+      <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="135" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="119" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="162" t="s">
+      <c r="E20" s="123" t="s">
+        <v>139</v>
+      </c>
+      <c r="F20" s="124" t="s">
+        <v>146</v>
+      </c>
+      <c r="G20" s="111" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="I20" s="149">
+        <v>155</v>
+      </c>
+      <c r="I20" s="98">
         <f>REST!K20</f>
         <v>0</v>
       </c>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="N20" s="45"/>
-      <c r="O20" s="45"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="171"/>
-    </row>
-    <row r="21" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="83"/>
-      <c r="C21" s="78" t="s">
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
+      <c r="S20" s="135"/>
+    </row>
+    <row r="21" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="173"/>
+      <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="136" t="s">
-        <v>174</v>
-      </c>
-      <c r="F21" s="71" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="159" t="s">
+      <c r="E21" s="174" t="s">
+        <v>170</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="H21" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="71" t="str">
+      <c r="I21" s="73" t="str">
         <f>REST!K21</f>
         <v>int</v>
       </c>
-      <c r="J21" s="172" t="s">
-        <v>225</v>
-      </c>
-      <c r="K21" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="L21" s="172" t="s">
-        <v>221</v>
-      </c>
-      <c r="M21" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="N21" s="172"/>
-      <c r="O21" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P21" s="45"/>
-      <c r="Q21" s="171"/>
-    </row>
-    <row r="22" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="80" t="s">
+      <c r="J21" s="136" t="s">
+        <v>218</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="136" t="s">
+        <v>222</v>
+      </c>
+      <c r="N21" s="35" t="s">
+        <v>217</v>
+      </c>
+      <c r="O21" s="136"/>
+      <c r="P21" s="136"/>
+      <c r="Q21" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="R21" s="10"/>
+      <c r="S21" s="11"/>
+    </row>
+    <row r="22" spans="2:20" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="141" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="77" t="s">
+      <c r="C22" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="G22" s="160" t="s">
+      <c r="E22" s="157"/>
+      <c r="F22" s="72" t="s">
+        <v>174</v>
+      </c>
+      <c r="G22" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="73" t="str">
+      <c r="I22" s="72" t="str">
         <f>REST!K22</f>
         <v>List&lt;FundingDTO&gt;</v>
       </c>
-      <c r="J22" s="45" t="s">
-        <v>232</v>
-      </c>
-      <c r="M22" s="175" t="s">
+      <c r="J22" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="137" t="s">
+        <v>217</v>
+      </c>
+      <c r="O22" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="N22" s="172" t="s">
-        <v>231</v>
-      </c>
-      <c r="O22" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q22" s="171"/>
-    </row>
-    <row r="23" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="80"/>
-      <c r="C23" s="76" t="s">
+      <c r="P22" s="68"/>
+      <c r="Q22" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="R22" s="8"/>
+      <c r="S22" s="9"/>
+    </row>
+    <row r="23" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="141"/>
+      <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E23" s="137" t="s">
+      <c r="D23" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="E23" s="182" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="72" t="s">
-        <v>179</v>
-      </c>
-      <c r="G23" s="161" t="s">
+      <c r="F23" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="I23" s="150">
+      <c r="H23" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="I23" s="96">
         <f>REST!K23</f>
         <v>0</v>
       </c>
-      <c r="J23" s="45" t="s">
+      <c r="J23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K23" s="45" t="s">
-        <v>223</v>
-      </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="171"/>
-    </row>
-    <row r="24" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="80"/>
-      <c r="C24" s="76" t="s">
+      <c r="K23" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="34" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="45"/>
+    </row>
+    <row r="24" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="141"/>
+      <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E24" s="137"/>
-      <c r="F24" s="72" t="s">
+      <c r="D24" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="G24" s="161" t="s">
+      <c r="E24" s="151"/>
+      <c r="F24" s="71" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" s="110" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I24" s="72" t="str">
+      <c r="I24" s="71" t="str">
         <f>REST!K24</f>
         <v>int</v>
       </c>
-      <c r="J24" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" s="184" t="s">
-        <v>229</v>
-      </c>
-      <c r="L24" s="45"/>
-      <c r="M24" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="N24" s="172"/>
-      <c r="O24" s="45" t="s">
-        <v>227</v>
-      </c>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="171"/>
-    </row>
-    <row r="25" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="80"/>
-      <c r="C25" s="76" t="s">
+      <c r="J24" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="N24" s="55" t="s">
+        <v>217</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="R24" s="1"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="45"/>
+    </row>
+    <row r="25" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="141"/>
+      <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="122" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="138"/>
+      <c r="D25" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" s="183"/>
       <c r="F25" s="72" t="s">
-        <v>151</v>
-      </c>
-      <c r="G25" s="154" t="s">
+        <v>147</v>
+      </c>
+      <c r="G25" s="104" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="8" t="s">
         <v>96</v>
       </c>
       <c r="I25" s="72">
         <f>REST!K25</f>
         <v>0</v>
       </c>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="45"/>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="45"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="171"/>
-    </row>
-    <row r="26" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="80" t="s">
+      <c r="J25" s="68" t="s">
+        <v>245</v>
+      </c>
+      <c r="K25" s="8"/>
+      <c r="L25" s="140" t="s">
+        <v>238</v>
+      </c>
+      <c r="M25" s="8"/>
+      <c r="N25" s="55" t="s">
+        <v>236</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="120"/>
+    </row>
+    <row r="26" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="141" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="76" t="s">
+      <c r="C26" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="122" t="s">
+      <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="151" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="81"/>
+      <c r="H26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="72">
+      <c r="I26" s="70">
         <f>REST!K26</f>
         <v>0</v>
       </c>
-      <c r="J26" s="45"/>
-      <c r="K26" s="45"/>
-      <c r="L26" s="45"/>
-      <c r="M26" s="45"/>
-      <c r="N26" s="45"/>
-      <c r="O26" s="45"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="171"/>
-    </row>
-    <row r="27" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="102"/>
-      <c r="C27" s="79" t="s">
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="7"/>
+    </row>
+    <row r="27" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="142"/>
+      <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="123" t="s">
+      <c r="D27" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="140"/>
+      <c r="E27" s="150"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="79"/>
+      <c r="G27" s="82"/>
       <c r="H27" s="4" t="s">
         <v>136</v>
       </c>
@@ -4714,25 +5039,33 @@
         <f>REST!K27</f>
         <v>0</v>
       </c>
-      <c r="J27" s="173"/>
-      <c r="K27" s="173"/>
-      <c r="L27" s="173"/>
-      <c r="M27" s="173"/>
-      <c r="N27" s="173"/>
-      <c r="O27" s="173"/>
-      <c r="P27" s="173"/>
-      <c r="Q27" s="174"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="K28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C29" s="151"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="K28" s="138" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" s="138"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C29" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="J1:K1"/>
@@ -4749,16 +5082,14 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="K28" r:id="rId1" xr:uid="{2A1E2353-652E-4D98-8B7D-4A2825DC55CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -4808,62 +5139,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="193" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="112" t="s">
+      <c r="E2" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="91" t="s">
+      <c r="F2" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="112" t="s">
+      <c r="H2" s="195" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="112" t="s">
+      <c r="I2" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="86" t="s">
+      <c r="J2" s="165" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="86" t="s">
+      <c r="K2" s="167"/>
+      <c r="L2" s="165" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="88"/>
-      <c r="N2" s="98" t="s">
+      <c r="M2" s="167"/>
+      <c r="N2" s="160" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="95" t="s">
+      <c r="P2" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="89" t="s">
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="93"/>
+      <c r="U2" s="197"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="116"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="113"/>
-      <c r="I3" s="113"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -4872,7 +5203,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="99"/>
+      <c r="N3" s="161"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -4886,8 +5217,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="90"/>
-      <c r="U3" s="94"/>
+      <c r="T3" s="200"/>
+      <c r="U3" s="198"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -4928,7 +5259,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="104" t="s">
+      <c r="B5" s="190" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -4940,7 +5271,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="191" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -4970,7 +5301,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="82"/>
+      <c r="B6" s="172"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -4980,7 +5311,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="114"/>
+      <c r="F6" s="192"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5006,7 +5337,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="82"/>
+      <c r="B7" s="172"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5016,7 +5347,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="114"/>
+      <c r="F7" s="192"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5048,7 +5379,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82"/>
+      <c r="B8" s="172"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5058,7 +5389,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="114"/>
+      <c r="F8" s="192"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5084,7 +5415,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="82"/>
+      <c r="B9" s="172"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5094,7 +5425,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="114"/>
+      <c r="F9" s="192"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5120,7 +5451,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="82"/>
+      <c r="B10" s="172"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5130,7 +5461,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="114"/>
+      <c r="F10" s="192"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5159,7 +5490,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="82"/>
+      <c r="B11" s="172"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5169,7 +5500,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="114"/>
+      <c r="F11" s="192"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5201,7 +5532,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="104" t="s">
+      <c r="B12" s="190" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5213,7 +5544,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="111" t="s">
+      <c r="F12" s="206" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5243,7 +5574,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="105"/>
+      <c r="B13" s="201"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5253,7 +5584,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="85"/>
+      <c r="F13" s="208"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5281,7 +5612,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="190" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5293,7 +5624,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="111" t="s">
+      <c r="F14" s="206" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5329,7 +5660,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="172"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5339,7 +5670,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="84"/>
+      <c r="F15" s="207"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5367,7 +5698,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="172"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -5377,7 +5708,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="84"/>
+      <c r="F16" s="207"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5405,7 +5736,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="172"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -5415,7 +5746,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="84"/>
+      <c r="F17" s="207"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5443,7 +5774,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="82"/>
+      <c r="B18" s="172"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -5453,7 +5784,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="85"/>
+      <c r="F18" s="208"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -5481,7 +5812,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="172"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -5491,7 +5822,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="84" t="s">
+      <c r="F19" s="207" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -5521,7 +5852,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="172"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5531,7 +5862,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="84"/>
+      <c r="F20" s="207"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -5559,7 +5890,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="105"/>
+      <c r="B21" s="201"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -5569,7 +5900,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="85"/>
+      <c r="F21" s="208"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -5597,7 +5928,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="190" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -5609,7 +5940,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="107" t="s">
+      <c r="F22" s="191" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -5639,7 +5970,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="105"/>
+      <c r="B23" s="201"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -5649,7 +5980,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="108"/>
+      <c r="F23" s="203"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -5677,7 +6008,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="190" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -5687,7 +6018,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="109" t="s">
+      <c r="F24" s="204" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -5713,7 +6044,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="106"/>
+      <c r="B25" s="202"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -5721,7 +6052,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="110"/>
+      <c r="F25" s="205"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -5776,13 +6107,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="P2:S2"/>
@@ -5792,15 +6125,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC452B45-26EA-487E-8AB2-663FACDD89A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C788B9-FFAA-4194-8546-C422377A3A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="262">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -915,20 +915,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SQL문 오료나 기타오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>creaotr 테이블에 없을때
 (정보수정한적없거나 프로젝트등록한적없는경우)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>rowCnt=0
-(?SQL문 오류? 타입오류?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UNAUTHORIZED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1030,6 +1021,71 @@
   </si>
   <si>
     <t>프로시저+트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>login(String id, String pwd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MemberDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>signup(MemberDTO m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>프로젝트 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타오류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowCnt=0
+(SQL문 오류 타입오류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rowCnt=0
+(?SQL문 오류 타입오류)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩한 프로젝트 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>duplicateCheck(String id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1790,7 +1846,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2213,6 +2269,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2447,7 +2509,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>143274</xdr:colOff>
+      <xdr:colOff>193700</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>96228</xdr:rowOff>
     </xdr:to>
@@ -2785,8 +2847,8 @@
   <dimension ref="B1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2810,64 +2872,57 @@
     <col min="17" max="17" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="I1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" t="s">
-        <v>47</v>
-      </c>
-    </row>
+    <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="149" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="147" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="147" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="165" t="s">
+      <c r="I2" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="166"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="159" t="s">
+      <c r="J2" s="168"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="161" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="159"/>
-      <c r="N2" s="160" t="s">
+      <c r="M2" s="161"/>
+      <c r="N2" s="162" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="143" t="s">
+      <c r="O2" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="145" t="s">
+      <c r="P2" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="145"/>
+      <c r="Q2" s="147"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="144"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="B3" s="146"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="160"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="148"/>
       <c r="I3" s="67" t="s">
         <v>172</v>
       </c>
@@ -2883,8 +2938,8 @@
       <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="161"/>
-      <c r="O3" s="144"/>
+      <c r="N3" s="163"/>
+      <c r="O3" s="146"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -2933,14 +2988,14 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="141"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="164" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="71" t="s">
@@ -2952,13 +3007,25 @@
       <c r="H5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="71"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="141"/>
+      <c r="I5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L5" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O5" s="143"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2967,14 +3034,14 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
@@ -2984,13 +3051,25 @@
       <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="141"/>
+      <c r="I6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="70" t="s">
+        <v>252</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="O6" s="143"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2999,7 +3078,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="143" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -3008,7 +3087,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="163"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
@@ -3018,17 +3097,25 @@
       <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="L7" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="141" t="s">
+      <c r="O7" s="143" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3039,14 +3126,14 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="163"/>
+      <c r="E8" s="165"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
@@ -3056,17 +3143,25 @@
       <c r="H8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>250</v>
+      </c>
       <c r="L8" s="70" t="s">
         <v>154</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="141"/>
+      <c r="O8" s="143"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
@@ -3075,14 +3170,14 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="141"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="164"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
@@ -3092,17 +3187,25 @@
       <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>251</v>
+      </c>
       <c r="L9" s="72" t="s">
         <v>154</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="141"/>
+      <c r="O9" s="143"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
@@ -3111,14 +3214,14 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="174" t="s">
+      <c r="E10" s="176" t="s">
         <v>183</v>
       </c>
       <c r="F10" s="70" t="s">
@@ -3130,9 +3233,13 @@
       <c r="H10" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="93"/>
+      <c r="I10" s="93" t="s">
+        <v>247</v>
+      </c>
       <c r="J10" s="93"/>
-      <c r="K10" s="93"/>
+      <c r="K10" s="93" t="s">
+        <v>248</v>
+      </c>
       <c r="L10" s="96" t="s">
         <v>154</v>
       </c>
@@ -3140,21 +3247,21 @@
       <c r="N10" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="141"/>
+      <c r="O10" s="143"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="141"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="157"/>
+      <c r="E11" s="159"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
@@ -3164,9 +3271,13 @@
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="95"/>
+      <c r="I11" s="95" t="s">
+        <v>247</v>
+      </c>
       <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
+      <c r="K11" s="95" t="s">
+        <v>191</v>
+      </c>
       <c r="L11" s="97" t="s">
         <v>154</v>
       </c>
@@ -3174,7 +3285,7 @@
       <c r="N11" s="95" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="175"/>
+      <c r="O11" s="177"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
@@ -3183,7 +3294,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="143" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -3192,7 +3303,7 @@
       <c r="D12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="155" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="53" t="s">
@@ -3222,7 +3333,7 @@
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="173" t="s">
+      <c r="O12" s="175" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
@@ -3233,14 +3344,14 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="153"/>
+      <c r="E13" s="155"/>
       <c r="F13" s="61" t="s">
         <v>132</v>
       </c>
@@ -3268,7 +3379,7 @@
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="141"/>
+      <c r="O13" s="143"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
@@ -3277,14 +3388,14 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="154"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="54" t="s">
         <v>132</v>
       </c>
@@ -3312,7 +3423,7 @@
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="141"/>
+      <c r="O14" s="143"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3321,7 +3432,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="173" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3330,7 +3441,7 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="155"/>
+      <c r="E15" s="157"/>
       <c r="F15" s="58" t="s">
         <v>159</v>
       </c>
@@ -3358,7 +3469,7 @@
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="171" t="s">
+      <c r="O15" s="173" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -3369,14 +3480,14 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="172"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="168" t="s">
+        <v>253</v>
+      </c>
+      <c r="E16" s="170" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
@@ -3406,21 +3517,21 @@
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="172"/>
+      <c r="O16" s="174"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="172"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="169"/>
+      <c r="E17" s="171"/>
       <c r="F17" s="84" t="s">
         <v>180</v>
       </c>
@@ -3444,21 +3555,21 @@
       <c r="N17" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="172"/>
+      <c r="O17" s="174"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="172"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="169"/>
+        <v>254</v>
+      </c>
+      <c r="E18" s="171"/>
       <c r="F18" s="54" t="s">
         <v>129</v>
       </c>
@@ -3486,7 +3597,7 @@
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="172"/>
+      <c r="O18" s="174"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
@@ -3495,14 +3606,14 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="172"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="170"/>
+      <c r="E19" s="172"/>
       <c r="F19" s="58" t="s">
         <v>138</v>
       </c>
@@ -3530,19 +3641,19 @@
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="172"/>
+      <c r="O19" s="174"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="172"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="115" t="s">
-        <v>5</v>
+        <v>255</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>139</v>
@@ -3566,21 +3677,21 @@
       <c r="N20" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="172"/>
+      <c r="O20" s="174"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="173"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="156" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="158" t="s">
         <v>170</v>
       </c>
       <c r="F21" s="53" t="s">
@@ -3610,14 +3721,14 @@
       <c r="N21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="173"/>
+      <c r="O21" s="175"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="143" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="40" t="s">
@@ -3626,7 +3737,7 @@
       <c r="D22" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="157"/>
+      <c r="E22" s="159"/>
       <c r="F22" s="58" t="s">
         <v>174</v>
       </c>
@@ -3654,7 +3765,7 @@
       <c r="N22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="143" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3663,14 +3774,14 @@
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="141"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="151" t="s">
+      <c r="E23" s="153" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="54" t="s">
@@ -3694,21 +3805,21 @@
       <c r="N23" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="141"/>
+      <c r="O23" s="143"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="141"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="153"/>
       <c r="F24" s="71" t="s">
         <v>175</v>
       </c>
@@ -3736,21 +3847,21 @@
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="141"/>
+      <c r="O24" s="143"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="141"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="116" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="152"/>
+      <c r="E25" s="154"/>
       <c r="F25" s="54" t="s">
         <v>147</v>
       </c>
@@ -3774,14 +3885,14 @@
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="141"/>
+      <c r="O25" s="143"/>
       <c r="P25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="143" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -3790,7 +3901,7 @@
       <c r="D26" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="149" t="s">
+      <c r="E26" s="151" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="54" t="s">
@@ -3800,15 +3911,15 @@
       <c r="H26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="71"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1" t="s">
+      <c r="I26" s="94"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="94"/>
+      <c r="N26" s="94" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="141" t="s">
+      <c r="O26" s="143" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -3817,14 +3928,14 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="142"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="150"/>
+      <c r="E27" s="152"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -3832,15 +3943,15 @@
       <c r="H27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4" t="s">
+      <c r="I27" s="141"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="141"/>
+      <c r="L27" s="142"/>
+      <c r="M27" s="141"/>
+      <c r="N27" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="142"/>
+      <c r="O27" s="144"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
@@ -3849,88 +3960,88 @@
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C29" s="117"/>
       <c r="D29" t="s">
-        <v>247</v>
-      </c>
-      <c r="F29" s="176" t="s">
-        <v>230</v>
-      </c>
-      <c r="G29" s="177"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="177"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="177"/>
-      <c r="L29" s="177"/>
-      <c r="M29" s="177"/>
-      <c r="N29" s="177"/>
-      <c r="O29" s="177"/>
-      <c r="P29" s="177"/>
-      <c r="Q29" s="177"/>
+        <v>245</v>
+      </c>
+      <c r="F29" s="178" t="s">
+        <v>228</v>
+      </c>
+      <c r="G29" s="179"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="179"/>
+      <c r="P29" s="179"/>
+      <c r="Q29" s="179"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C30" s="100"/>
       <c r="D30" t="s">
-        <v>231</v>
-      </c>
-      <c r="F30" s="176" t="s">
         <v>229</v>
       </c>
-      <c r="G30" s="177"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="177"/>
-      <c r="J30" s="177"/>
-      <c r="K30" s="177"/>
-      <c r="L30" s="177"/>
-      <c r="M30" s="177"/>
-      <c r="N30" s="177"/>
-      <c r="O30" s="177"/>
-      <c r="P30" s="177"/>
-      <c r="Q30" s="177"/>
+      <c r="F30" s="178" t="s">
+        <v>227</v>
+      </c>
+      <c r="G30" s="179"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="179"/>
+      <c r="P30" s="179"/>
+      <c r="Q30" s="179"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F31" s="176" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" s="177"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="177"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="177"/>
-      <c r="L31" s="177"/>
-      <c r="M31" s="177"/>
-      <c r="N31" s="177"/>
-      <c r="O31" s="177"/>
-      <c r="P31" s="177"/>
-      <c r="Q31" s="177"/>
+      <c r="F31" s="178" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="179"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="179"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="179"/>
+      <c r="O31" s="179"/>
+      <c r="P31" s="179"/>
+      <c r="Q31" s="179"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F32" s="176" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="177"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="177"/>
-      <c r="J32" s="177"/>
-      <c r="K32" s="177"/>
-      <c r="L32" s="177"/>
-      <c r="M32" s="177"/>
-      <c r="N32" s="177"/>
-      <c r="O32" s="177"/>
-      <c r="P32" s="177"/>
-      <c r="Q32" s="177"/>
+      <c r="F32" s="178" t="s">
+        <v>226</v>
+      </c>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="179"/>
+      <c r="K32" s="179"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="179"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="179"/>
+      <c r="Q32" s="179"/>
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F35" s="178"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="179"/>
-      <c r="I35" s="179"/>
-      <c r="J35" s="179"/>
-      <c r="K35" s="179"/>
-      <c r="L35" s="179"/>
-      <c r="M35" s="179"/>
-      <c r="N35" s="179"/>
-      <c r="O35" s="179"/>
-      <c r="P35" s="179"/>
-      <c r="Q35" s="179"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="181"/>
+      <c r="H35" s="181"/>
+      <c r="I35" s="181"/>
+      <c r="J35" s="181"/>
+      <c r="K35" s="181"/>
+      <c r="L35" s="181"/>
+      <c r="M35" s="181"/>
+      <c r="N35" s="181"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
+      <c r="Q35" s="181"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -3987,9 +4098,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4E0677-B131-47E3-B38A-B65DD9F3F371}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q16" sqref="Q16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4003,20 +4114,21 @@
     <col min="7" max="7" width="11.375" customWidth="1"/>
     <col min="8" max="8" width="24.125" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="42.25" customWidth="1"/>
+    <col min="10" max="10" width="23.25" customWidth="1"/>
+    <col min="11" max="11" width="40.25" customWidth="1"/>
     <col min="12" max="12" width="31.25" customWidth="1"/>
-    <col min="13" max="13" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.125" customWidth="1"/>
     <col min="14" max="14" width="26.75" customWidth="1"/>
-    <col min="15" max="16" width="25.875" customWidth="1"/>
+    <col min="15" max="15" width="25.875" customWidth="1"/>
+    <col min="16" max="16" width="23.5" customWidth="1"/>
     <col min="17" max="17" width="41" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="180" t="s">
+      <c r="J1" s="182" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="181"/>
+      <c r="K1" s="183"/>
       <c r="L1" s="114"/>
       <c r="M1" s="113" t="s">
         <v>211</v>
@@ -4031,25 +4143,25 @@
       <c r="S1" s="113"/>
     </row>
     <row r="2" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="186" t="s">
+      <c r="B2" s="188" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="186" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="188" t="s">
+      <c r="E2" s="190" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="188" t="s">
+      <c r="F2" s="190" t="s">
         <v>203</v>
       </c>
-      <c r="G2" s="184" t="s">
+      <c r="G2" s="186" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="186" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="127" t="s">
@@ -4083,13 +4195,13 @@
       <c r="S2" s="129"/>
     </row>
     <row r="3" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="187"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="187"/>
+      <c r="E3" s="187"/>
+      <c r="F3" s="191"/>
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
       <c r="I3" s="130" t="s">
         <v>157</v>
       </c>
@@ -4100,19 +4212,19 @@
         <v>209</v>
       </c>
       <c r="L3" s="132" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M3" s="132" t="s">
         <v>213</v>
       </c>
       <c r="N3" s="132" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O3" s="132" t="s">
         <v>214</v>
       </c>
       <c r="P3" s="132" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="Q3" s="132" t="s">
         <v>215</v>
@@ -4156,14 +4268,14 @@
       <c r="S4" s="135"/>
     </row>
     <row r="5" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="141"/>
+      <c r="B5" s="143"/>
       <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="163" t="s">
+      <c r="E5" s="165" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="70" t="s">
@@ -4175,9 +4287,9 @@
       <c r="H5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="70">
+      <c r="I5" s="70" t="str">
         <f>REST!K5</f>
-        <v>0</v>
+        <v>x</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
@@ -4191,14 +4303,14 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+      <c r="B6" s="143"/>
       <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="165"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
@@ -4208,9 +4320,9 @@
       <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I6" s="70">
+      <c r="I6" s="70" t="str">
         <f>REST!K6</f>
-        <v>0</v>
+        <v>x</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -4224,7 +4336,7 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="143" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -4233,7 +4345,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="163"/>
+      <c r="E7" s="165"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
@@ -4243,9 +4355,9 @@
       <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="71" t="str">
         <f>REST!K7</f>
-        <v>0</v>
+        <v>MemberDTO</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -4259,14 +4371,14 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
+      <c r="B8" s="143"/>
       <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="163"/>
+      <c r="E8" s="165"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
@@ -4276,9 +4388,9 @@
       <c r="H8" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="I8" s="70">
+      <c r="I8" s="70" t="str">
         <f>REST!K8</f>
-        <v>0</v>
+        <v>void</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -4292,14 +4404,14 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="141"/>
+      <c r="B9" s="143"/>
       <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="164"/>
+      <c r="E9" s="166"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
@@ -4309,9 +4421,9 @@
       <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="I9" s="72">
+      <c r="I9" s="72" t="str">
         <f>REST!K9</f>
-        <v>0</v>
+        <v>boolean</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
@@ -4325,14 +4437,14 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="141"/>
+      <c r="B10" s="143"/>
       <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="156" t="s">
+      <c r="E10" s="158" t="s">
         <v>183</v>
       </c>
       <c r="F10" s="70" t="s">
@@ -4344,38 +4456,38 @@
       <c r="H10" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="126">
+      <c r="I10" s="126" t="str">
         <f>REST!K10</f>
-        <v>0</v>
+        <v>MemberDTO</v>
       </c>
       <c r="J10" s="136" t="s">
         <v>218</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="136" t="s">
-        <v>222</v>
-      </c>
+      <c r="M10" s="136"/>
       <c r="N10" s="35" t="s">
         <v>217</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="P10" s="136" t="s">
+        <v>258</v>
+      </c>
       <c r="Q10" s="10" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="141"/>
+      <c r="B11" s="143"/>
       <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="157"/>
+      <c r="E11" s="159"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
@@ -4385,31 +4497,31 @@
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="97" t="str">
         <f>REST!K11</f>
-        <v>0</v>
+        <v>int</v>
       </c>
       <c r="J11" s="68" t="s">
         <v>219</v>
       </c>
       <c r="K11" s="137"/>
       <c r="L11" s="137"/>
-      <c r="M11" s="68" t="s">
-        <v>222</v>
-      </c>
+      <c r="M11" s="68"/>
       <c r="N11" s="137" t="s">
         <v>217</v>
       </c>
       <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
+      <c r="P11" s="68" t="s">
+        <v>259</v>
+      </c>
       <c r="Q11" s="8" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="143" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -4418,7 +4530,7 @@
       <c r="D12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="153" t="s">
+      <c r="E12" s="155" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="70" t="s">
@@ -4439,29 +4551,29 @@
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="136" t="s">
-        <v>222</v>
-      </c>
+      <c r="M12" s="136"/>
       <c r="N12" s="35" t="s">
         <v>217</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
+      <c r="P12" s="136" t="s">
+        <v>259</v>
+      </c>
       <c r="Q12" s="10" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
+      <c r="B13" s="143"/>
       <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="153"/>
+      <c r="E13" s="155"/>
       <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
@@ -4476,10 +4588,10 @@
         <v>CreatorDTO</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
@@ -4489,20 +4601,20 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
+      <c r="B14" s="143"/>
       <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="154"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
@@ -4521,22 +4633,22 @@
       </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
-      <c r="M14" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="M14" s="2"/>
       <c r="N14" s="55" t="s">
         <v>217</v>
       </c>
       <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
+      <c r="P14" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="Q14" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="173" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -4545,7 +4657,7 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="155"/>
+      <c r="E15" s="157"/>
       <c r="F15" s="72" t="s">
         <v>159</v>
       </c>
@@ -4574,20 +4686,20 @@
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="172"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="168" t="s">
+      <c r="E16" s="170" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
@@ -4604,10 +4716,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J16" s="136" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -4615,20 +4727,20 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="172"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="169"/>
+      <c r="E17" s="171"/>
       <c r="F17" s="84" t="s">
         <v>180</v>
       </c>
@@ -4643,10 +4755,10 @@
         <v>ProjectDTO</v>
       </c>
       <c r="J17" s="139" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4654,20 +4766,20 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="172"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="169"/>
+      <c r="E18" s="171"/>
       <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
@@ -4682,7 +4794,7 @@
         <v>ProjectDTO</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4690,23 +4802,23 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="172"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="170"/>
+      <c r="E19" s="172"/>
       <c r="F19" s="72" t="s">
         <v>138</v>
       </c>
@@ -4721,10 +4833,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="8"/>
@@ -4732,13 +4844,13 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="2:20" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="172"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
@@ -4773,14 +4885,14 @@
       <c r="S20" s="135"/>
     </row>
     <row r="21" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="173"/>
+      <c r="B21" s="175"/>
       <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="174" t="s">
+      <c r="E21" s="176" t="s">
         <v>170</v>
       </c>
       <c r="F21" s="73" t="s">
@@ -4801,22 +4913,22 @@
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="136" t="s">
-        <v>222</v>
-      </c>
+      <c r="M21" s="136"/>
       <c r="N21" s="35" t="s">
         <v>217</v>
       </c>
       <c r="O21" s="136"/>
-      <c r="P21" s="136"/>
+      <c r="P21" s="136" t="s">
+        <v>259</v>
+      </c>
       <c r="Q21" s="10" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="11"/>
     </row>
     <row r="22" spans="2:20" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="143" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -4825,7 +4937,7 @@
       <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="157"/>
+      <c r="E22" s="159"/>
       <c r="F22" s="72" t="s">
         <v>174</v>
       </c>
@@ -4840,7 +4952,7 @@
         <v>List&lt;FundingDTO&gt;</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
@@ -4849,24 +4961,24 @@
         <v>217</v>
       </c>
       <c r="O22" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P22" s="68"/>
       <c r="Q22" s="8" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="141"/>
+      <c r="B23" s="143"/>
       <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="182" t="s">
+      <c r="E23" s="184" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="73" t="s">
@@ -4886,7 +4998,7 @@
         <v>83</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -4896,21 +5008,21 @@
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="7"/>
       <c r="T23" s="45"/>
     </row>
     <row r="24" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="141"/>
+      <c r="B24" s="143"/>
       <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="118" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="151"/>
+      <c r="E24" s="153"/>
       <c r="F24" s="71" t="s">
         <v>175</v>
       </c>
@@ -4925,34 +5037,34 @@
         <v>int</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
-      <c r="M24" s="2" t="s">
-        <v>222</v>
-      </c>
+      <c r="M24" s="2"/>
       <c r="N24" s="55" t="s">
         <v>217</v>
       </c>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="2" t="s">
+        <v>259</v>
+      </c>
       <c r="Q24" s="1" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="3"/>
       <c r="T24" s="45"/>
     </row>
     <row r="25" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="141"/>
+      <c r="B25" s="143"/>
       <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="183"/>
+      <c r="E25" s="185"/>
       <c r="F25" s="72" t="s">
         <v>147</v>
       </c>
@@ -4967,15 +5079,15 @@
         <v>0</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="140" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="55" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -4985,7 +5097,7 @@
       <c r="T25" s="120"/>
     </row>
     <row r="26" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="143" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -4994,7 +5106,7 @@
       <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="151" t="s">
+      <c r="E26" s="153" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="70" t="s">
@@ -5020,14 +5132,14 @@
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="142"/>
+      <c r="B27" s="144"/>
       <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="150"/>
+      <c r="E27" s="152"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -5052,7 +5164,7 @@
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
       <c r="K28" s="138" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L28" s="138"/>
     </row>
@@ -5098,7 +5210,7 @@
   <dimension ref="B1:AB30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
@@ -5139,62 +5251,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="147" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="195" t="s">
+      <c r="E2" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="149" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="195" t="s">
+      <c r="H2" s="197" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="195" t="s">
+      <c r="I2" s="197" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="165" t="s">
+      <c r="J2" s="167" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="167"/>
-      <c r="L2" s="165" t="s">
+      <c r="K2" s="169"/>
+      <c r="L2" s="167" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="167"/>
-      <c r="N2" s="160" t="s">
+      <c r="M2" s="169"/>
+      <c r="N2" s="162" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="145" t="s">
+      <c r="P2" s="147" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="199" t="s">
+      <c r="Q2" s="147"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="147"/>
+      <c r="T2" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="197"/>
+      <c r="U2" s="199"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="194"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="196"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="196"/>
-      <c r="I3" s="196"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -5203,7 +5315,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="161"/>
+      <c r="N3" s="163"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -5217,8 +5329,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="200"/>
-      <c r="U3" s="198"/>
+      <c r="T3" s="202"/>
+      <c r="U3" s="200"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -5259,7 +5371,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="192" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5271,7 +5383,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="191" t="s">
+      <c r="F5" s="193" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5301,7 +5413,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="172"/>
+      <c r="B6" s="174"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5311,7 +5423,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="192"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5337,7 +5449,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="172"/>
+      <c r="B7" s="174"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5347,7 +5459,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="192"/>
+      <c r="F7" s="194"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5379,7 +5491,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="172"/>
+      <c r="B8" s="174"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5389,7 +5501,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="192"/>
+      <c r="F8" s="194"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5415,7 +5527,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="172"/>
+      <c r="B9" s="174"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5425,7 +5537,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="192"/>
+      <c r="F9" s="194"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5451,7 +5563,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="172"/>
+      <c r="B10" s="174"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5461,7 +5573,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="192"/>
+      <c r="F10" s="194"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5490,7 +5602,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="172"/>
+      <c r="B11" s="174"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5500,7 +5612,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="192"/>
+      <c r="F11" s="194"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5532,7 +5644,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="190" t="s">
+      <c r="B12" s="192" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5544,7 +5656,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="206" t="s">
+      <c r="F12" s="208" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5574,7 +5686,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="201"/>
+      <c r="B13" s="203"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5584,7 +5696,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="208"/>
+      <c r="F13" s="210"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5612,7 +5724,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="190" t="s">
+      <c r="B14" s="192" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5624,7 +5736,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="206" t="s">
+      <c r="F14" s="208" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5660,7 +5772,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="172"/>
+      <c r="B15" s="174"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5670,7 +5782,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="207"/>
+      <c r="F15" s="209"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5698,7 +5810,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="172"/>
+      <c r="B16" s="174"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -5708,7 +5820,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="207"/>
+      <c r="F16" s="209"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5736,7 +5848,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="172"/>
+      <c r="B17" s="174"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -5746,7 +5858,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="207"/>
+      <c r="F17" s="209"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5774,7 +5886,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="172"/>
+      <c r="B18" s="174"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -5784,7 +5896,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="208"/>
+      <c r="F18" s="210"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -5812,7 +5924,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="172"/>
+      <c r="B19" s="174"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -5822,7 +5934,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="207" t="s">
+      <c r="F19" s="209" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -5852,7 +5964,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="172"/>
+      <c r="B20" s="174"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5862,7 +5974,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="207"/>
+      <c r="F20" s="209"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -5890,7 +6002,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="201"/>
+      <c r="B21" s="203"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -5900,7 +6012,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="208"/>
+      <c r="F21" s="210"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -5928,7 +6040,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="192" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -5940,7 +6052,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="191" t="s">
+      <c r="F22" s="193" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -5970,7 +6082,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="201"/>
+      <c r="B23" s="203"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -5980,7 +6092,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="203"/>
+      <c r="F23" s="205"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -6008,7 +6120,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="192" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -6018,7 +6130,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="204" t="s">
+      <c r="F24" s="206" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -6044,7 +6156,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="202"/>
+      <c r="B25" s="204"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -6052,7 +6164,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="205"/>
+      <c r="F25" s="207"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7C788B9-FFAA-4194-8546-C422377A3A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C995DB-BA6D-49AA-8ACD-B8D6BA14625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="263">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -832,9 +832,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>List&lt;FundingDTO&gt;</t>
-  </si>
-  <si>
     <t>modifyFuns(List&lt;FundingDTO&gt; list)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,6 +1083,14 @@
   </si>
   <si>
     <t>duplicateCheck(String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookMarkService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BookMarkDAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1846,7 +1851,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="211">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2132,9 +2137,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2270,11 +2272,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2300,9 +2299,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2479,6 +2475,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2847,8 +2867,8 @@
   <dimension ref="B1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2874,55 +2894,55 @@
   <sheetData>
     <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="145" t="s">
+      <c r="B2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="147" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="149" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="147" t="s">
+      <c r="F2" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="167" t="s">
+      <c r="I2" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="168"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="161" t="s">
+      <c r="J2" s="165"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="158" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="161"/>
-      <c r="N2" s="162" t="s">
+      <c r="M2" s="158"/>
+      <c r="N2" s="159" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="145" t="s">
+      <c r="O2" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="147" t="s">
+      <c r="P2" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="147"/>
+      <c r="Q2" s="145"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="146"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="160"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="148"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="67" t="s">
         <v>172</v>
       </c>
@@ -2938,8 +2958,8 @@
       <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="163"/>
-      <c r="O3" s="146"/>
+      <c r="N3" s="160"/>
+      <c r="O3" s="144"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -2957,11 +2977,11 @@
       <c r="D4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="101"/>
+      <c r="E4" s="100"/>
       <c r="F4" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>115</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -2974,7 +2994,7 @@
         <v>173</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>107</v>
@@ -2988,44 +3008,44 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="164" t="s">
+      <c r="E5" s="161" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="104" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="O5" s="143"/>
+        <v>251</v>
+      </c>
+      <c r="O5" s="141"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
@@ -3034,42 +3054,42 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="143"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="165"/>
+      <c r="E6" s="162"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="104" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="O6" s="143"/>
+        <v>251</v>
+      </c>
+      <c r="O6" s="141"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3078,7 +3098,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="141" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -3087,24 +3107,24 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="165"/>
+      <c r="E7" s="162"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="104" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>154</v>
@@ -3115,7 +3135,7 @@
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="143" t="s">
+      <c r="O7" s="141" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3126,31 +3146,31 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="143"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="165"/>
+      <c r="E8" s="162"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="L8" s="70" t="s">
         <v>154</v>
@@ -3161,7 +3181,7 @@
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="143"/>
+      <c r="O8" s="141"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
@@ -3170,31 +3190,31 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="143"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="166"/>
+      <c r="E9" s="163"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="106" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L9" s="72" t="s">
         <v>154</v>
@@ -3205,7 +3225,7 @@
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="143"/>
+      <c r="O9" s="141"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
@@ -3214,78 +3234,78 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="143"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="176" t="s">
+      <c r="E10" s="173" t="s">
         <v>183</v>
       </c>
       <c r="F10" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="107" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="93" t="s">
+      <c r="I10" s="213" t="s">
+        <v>246</v>
+      </c>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213" t="s">
         <v>247</v>
       </c>
-      <c r="J10" s="93"/>
-      <c r="K10" s="93" t="s">
-        <v>248</v>
-      </c>
-      <c r="L10" s="96" t="s">
+      <c r="L10" s="214" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="93"/>
-      <c r="N10" s="93" t="s">
+      <c r="M10" s="213"/>
+      <c r="N10" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="143"/>
+      <c r="O10" s="141"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="143"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="159"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="95" t="s">
-        <v>247</v>
-      </c>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="97" t="s">
+      <c r="I11" s="47" t="s">
+        <v>246</v>
+      </c>
+      <c r="J11" s="47"/>
+      <c r="K11" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" s="215" t="s">
         <v>154</v>
       </c>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95" t="s">
+      <c r="M11" s="47"/>
+      <c r="N11" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="177"/>
+      <c r="O11" s="174"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
@@ -3294,7 +3314,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="141" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -3303,13 +3323,13 @@
       <c r="D12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="152" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="107" t="s">
         <v>114</v>
       </c>
       <c r="H12" s="34" t="s">
@@ -3322,7 +3342,7 @@
         <v>189</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="L12" s="70" t="s">
         <v>151</v>
@@ -3333,7 +3353,7 @@
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="175" t="s">
+      <c r="O12" s="172" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
@@ -3344,18 +3364,18 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="143"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="155"/>
+      <c r="E13" s="152"/>
       <c r="F13" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="107" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="34" t="s">
@@ -3379,7 +3399,7 @@
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="143"/>
+      <c r="O13" s="141"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
@@ -3388,18 +3408,18 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="143"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="156"/>
+      <c r="E14" s="153"/>
       <c r="F14" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="55" t="s">
@@ -3412,7 +3432,7 @@
         <v>190</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="L14" s="71" t="s">
         <v>151</v>
@@ -3423,7 +3443,7 @@
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="143"/>
+      <c r="O14" s="141"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3432,7 +3452,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="170" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3441,11 +3461,11 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="157"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="8" t="s">
@@ -3469,7 +3489,7 @@
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="173" t="s">
+      <c r="O15" s="170" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -3480,20 +3500,20 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="174"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>253</v>
-      </c>
-      <c r="E16" s="170" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="167" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="100" t="s">
         <v>115</v>
       </c>
       <c r="H16" s="26" t="s">
@@ -3517,25 +3537,25 @@
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="174"/>
+      <c r="O16" s="171"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="174"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="171"/>
+      <c r="E17" s="168"/>
       <c r="F17" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="G17" s="102" t="s">
+      <c r="G17" s="101" t="s">
         <v>115</v>
       </c>
       <c r="H17" s="30" t="s">
@@ -3548,32 +3568,32 @@
       <c r="K17" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="L17" s="96" t="s">
+      <c r="L17" s="95" t="s">
         <v>195</v>
       </c>
       <c r="M17" s="93"/>
       <c r="N17" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="174"/>
+      <c r="O17" s="171"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="174"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="E18" s="171"/>
+        <v>253</v>
+      </c>
+      <c r="E18" s="168"/>
       <c r="F18" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="102" t="s">
         <v>115</v>
       </c>
       <c r="H18" s="55" t="s">
@@ -3597,7 +3617,7 @@
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="174"/>
+      <c r="O18" s="171"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
@@ -3606,18 +3626,18 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="174"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="172"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="103" t="s">
         <v>115</v>
       </c>
       <c r="H19" s="59" t="s">
@@ -3636,24 +3656,24 @@
         <v>153</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="174"/>
+      <c r="O19" s="171"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="174"/>
+      <c r="B20" s="171"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="115" t="s">
-        <v>255</v>
+      <c r="D20" s="114" t="s">
+        <v>254</v>
       </c>
       <c r="E20" s="89" t="s">
         <v>139</v>
@@ -3661,7 +3681,7 @@
       <c r="F20" s="86" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="110" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="60" t="s">
@@ -3670,34 +3690,34 @@
       <c r="I20" s="92"/>
       <c r="J20" s="92"/>
       <c r="K20" s="92"/>
-      <c r="L20" s="98" t="s">
+      <c r="L20" s="97" t="s">
         <v>153</v>
       </c>
       <c r="M20" s="92"/>
       <c r="N20" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="174"/>
+      <c r="O20" s="171"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="175"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="E21" s="158" t="s">
+        <v>255</v>
+      </c>
+      <c r="E21" s="155" t="s">
         <v>170</v>
       </c>
       <c r="F21" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="G21" s="108" t="s">
+      <c r="G21" s="107" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="6" t="s">
@@ -3710,26 +3730,26 @@
         <v>197</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="L21" s="70" t="s">
         <v>153</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="175"/>
+      <c r="O21" s="172"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="143" t="s">
-        <v>7</v>
+      <c r="B22" s="140" t="s">
+        <v>50</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>53</v>
@@ -3737,11 +3757,11 @@
       <c r="D22" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="159"/>
+      <c r="E22" s="156"/>
       <c r="F22" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="109" t="s">
+      <c r="G22" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -3753,19 +3773,17 @@
       <c r="J22" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="K22" s="8" t="s">
-        <v>199</v>
-      </c>
+      <c r="K22" s="8"/>
       <c r="L22" s="72" t="s">
         <v>152</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N22" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="143" t="s">
+      <c r="O22" s="141" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3774,20 +3792,22 @@
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="143"/>
+      <c r="B23" s="170" t="s">
+        <v>7</v>
+      </c>
       <c r="C23" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="153" t="s">
+      <c r="E23" s="150" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="110" t="s">
+      <c r="G23" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -3798,32 +3818,32 @@
       </c>
       <c r="J23" s="94"/>
       <c r="K23" s="94"/>
-      <c r="L23" s="99" t="s">
+      <c r="L23" s="98" t="s">
         <v>152</v>
       </c>
       <c r="M23" s="94"/>
       <c r="N23" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="143"/>
+      <c r="O23" s="141"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="143"/>
+      <c r="B24" s="171"/>
       <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="153"/>
+      <c r="E24" s="150"/>
       <c r="F24" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="110" t="s">
+      <c r="G24" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3833,7 +3853,7 @@
         <v>168</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>191</v>
@@ -3842,30 +3862,30 @@
         <v>152</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="143"/>
+      <c r="O24" s="141"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="143"/>
+      <c r="B25" s="172"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="116" t="s">
+      <c r="D25" s="115" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="154"/>
+      <c r="E25" s="151"/>
       <c r="F25" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="102" t="s">
         <v>115</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -3880,19 +3900,19 @@
         <v>152</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="143"/>
+      <c r="O25" s="141"/>
       <c r="P25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="141" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -3901,25 +3921,33 @@
       <c r="D26" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="151" t="s">
+      <c r="E26" s="211" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="G26" s="42"/>
+      <c r="G26" s="102" t="s">
+        <v>115</v>
+      </c>
       <c r="H26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="94"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94" t="s">
+      <c r="I26" s="117" t="s">
+        <v>261</v>
+      </c>
+      <c r="J26" s="117"/>
+      <c r="K26" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" s="208" t="s">
+        <v>262</v>
+      </c>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="143" t="s">
+      <c r="O26" s="141" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -3928,120 +3956,128 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="144"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="152"/>
+      <c r="E27" s="212"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="G27" s="41"/>
+      <c r="G27" s="210" t="s">
+        <v>115</v>
+      </c>
       <c r="H27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="141"/>
-      <c r="J27" s="141"/>
-      <c r="K27" s="141"/>
-      <c r="L27" s="142"/>
-      <c r="M27" s="141"/>
-      <c r="N27" s="141" t="s">
+      <c r="I27" s="118" t="s">
+        <v>261</v>
+      </c>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118" t="s">
+        <v>249</v>
+      </c>
+      <c r="L27" s="209" t="s">
+        <v>262</v>
+      </c>
+      <c r="M27" s="118"/>
+      <c r="N27" s="118" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="144"/>
+      <c r="O27" s="142"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q27" s="4"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C29" s="117"/>
+      <c r="C29" s="116"/>
       <c r="D29" t="s">
-        <v>245</v>
-      </c>
-      <c r="F29" s="178" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="175" t="s">
+        <v>227</v>
+      </c>
+      <c r="G29" s="176"/>
+      <c r="H29" s="176"/>
+      <c r="I29" s="176"/>
+      <c r="J29" s="176"/>
+      <c r="K29" s="176"/>
+      <c r="L29" s="176"/>
+      <c r="M29" s="176"/>
+      <c r="N29" s="176"/>
+      <c r="O29" s="176"/>
+      <c r="P29" s="176"/>
+      <c r="Q29" s="176"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C30" s="99"/>
+      <c r="D30" t="s">
         <v>228</v>
       </c>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="179"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C30" s="100"/>
-      <c r="D30" t="s">
-        <v>229</v>
-      </c>
-      <c r="F30" s="178" t="s">
-        <v>227</v>
-      </c>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
+      <c r="F30" s="175" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" s="176"/>
+      <c r="H30" s="176"/>
+      <c r="I30" s="176"/>
+      <c r="J30" s="176"/>
+      <c r="K30" s="176"/>
+      <c r="L30" s="176"/>
+      <c r="M30" s="176"/>
+      <c r="N30" s="176"/>
+      <c r="O30" s="176"/>
+      <c r="P30" s="176"/>
+      <c r="Q30" s="176"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F31" s="178" t="s">
+      <c r="F31" s="175" t="s">
+        <v>224</v>
+      </c>
+      <c r="G31" s="176"/>
+      <c r="H31" s="176"/>
+      <c r="I31" s="176"/>
+      <c r="J31" s="176"/>
+      <c r="K31" s="176"/>
+      <c r="L31" s="176"/>
+      <c r="M31" s="176"/>
+      <c r="N31" s="176"/>
+      <c r="O31" s="176"/>
+      <c r="P31" s="176"/>
+      <c r="Q31" s="176"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="F32" s="175" t="s">
         <v>225</v>
       </c>
-      <c r="G31" s="179"/>
-      <c r="H31" s="179"/>
-      <c r="I31" s="179"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="179"/>
-      <c r="Q31" s="179"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F32" s="178" t="s">
-        <v>226</v>
-      </c>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="179"/>
-      <c r="K32" s="179"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="179"/>
-      <c r="Q32" s="179"/>
+      <c r="G32" s="176"/>
+      <c r="H32" s="176"/>
+      <c r="I32" s="176"/>
+      <c r="J32" s="176"/>
+      <c r="K32" s="176"/>
+      <c r="L32" s="176"/>
+      <c r="M32" s="176"/>
+      <c r="N32" s="176"/>
+      <c r="O32" s="176"/>
+      <c r="P32" s="176"/>
+      <c r="Q32" s="176"/>
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F35" s="180"/>
-      <c r="G35" s="181"/>
-      <c r="H35" s="181"/>
-      <c r="I35" s="181"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="181"/>
-      <c r="L35" s="181"/>
-      <c r="M35" s="181"/>
-      <c r="N35" s="181"/>
-      <c r="O35" s="181"/>
-      <c r="P35" s="181"/>
-      <c r="Q35" s="181"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="178"/>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
+      <c r="K35" s="178"/>
+      <c r="L35" s="178"/>
+      <c r="M35" s="178"/>
+      <c r="N35" s="178"/>
+      <c r="O35" s="178"/>
+      <c r="P35" s="178"/>
+      <c r="Q35" s="178"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -4054,7 +4090,6 @@
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="B22:B25"/>
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="E16:E19"/>
@@ -4065,6 +4100,7 @@
     <mergeCell ref="O7:O11"/>
     <mergeCell ref="O12:O14"/>
     <mergeCell ref="O22:O25"/>
+    <mergeCell ref="B23:B25"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -4098,9 +4134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4E0677-B131-47E3-B38A-B65DD9F3F371}">
   <dimension ref="B1:T29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K24" sqref="K24"/>
+      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4125,112 +4161,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="182" t="s">
+      <c r="J1" s="179" t="s">
+        <v>209</v>
+      </c>
+      <c r="K1" s="180"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="112" t="s">
         <v>210</v>
       </c>
-      <c r="K1" s="183"/>
-      <c r="L1" s="114"/>
-      <c r="M1" s="113" t="s">
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112" t="s">
         <v>211</v>
       </c>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113" t="s">
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+    </row>
+    <row r="2" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="185" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="183" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="183" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="187" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="187" t="s">
+        <v>202</v>
+      </c>
+      <c r="G2" s="183" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="183" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="133">
+        <v>200</v>
+      </c>
+      <c r="K2" s="133">
+        <v>204</v>
+      </c>
+      <c r="L2" s="133">
+        <v>300</v>
+      </c>
+      <c r="M2" s="133">
+        <v>400</v>
+      </c>
+      <c r="N2" s="133">
+        <v>401</v>
+      </c>
+      <c r="O2" s="133">
+        <v>403</v>
+      </c>
+      <c r="P2" s="133">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="133">
+        <v>500</v>
+      </c>
+      <c r="R2" s="127"/>
+      <c r="S2" s="128"/>
+    </row>
+    <row r="3" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="186"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="129" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="131" t="s">
+        <v>207</v>
+      </c>
+      <c r="K3" s="131" t="s">
+        <v>208</v>
+      </c>
+      <c r="L3" s="131" t="s">
+        <v>243</v>
+      </c>
+      <c r="M3" s="131" t="s">
         <v>212</v>
       </c>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-    </row>
-    <row r="2" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="188" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="186" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="186" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="190" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="190" t="s">
-        <v>203</v>
-      </c>
-      <c r="G2" s="186" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="186" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="127" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="134">
-        <v>200</v>
-      </c>
-      <c r="K2" s="134">
-        <v>204</v>
-      </c>
-      <c r="L2" s="134">
-        <v>300</v>
-      </c>
-      <c r="M2" s="134">
-        <v>400</v>
-      </c>
-      <c r="N2" s="134">
-        <v>401</v>
-      </c>
-      <c r="O2" s="134">
-        <v>403</v>
-      </c>
-      <c r="P2" s="134">
-        <v>404</v>
-      </c>
-      <c r="Q2" s="134">
-        <v>500</v>
-      </c>
-      <c r="R2" s="128"/>
-      <c r="S2" s="129"/>
-    </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="189"/>
-      <c r="C3" s="187"/>
-      <c r="D3" s="187"/>
-      <c r="E3" s="187"/>
-      <c r="F3" s="191"/>
-      <c r="G3" s="187"/>
-      <c r="H3" s="187"/>
-      <c r="I3" s="130" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="132" t="s">
-        <v>208</v>
-      </c>
-      <c r="K3" s="132" t="s">
-        <v>209</v>
-      </c>
-      <c r="L3" s="132" t="s">
-        <v>244</v>
-      </c>
-      <c r="M3" s="132" t="s">
+      <c r="N3" s="131" t="s">
+        <v>220</v>
+      </c>
+      <c r="O3" s="131" t="s">
         <v>213</v>
       </c>
-      <c r="N3" s="132" t="s">
-        <v>221</v>
-      </c>
-      <c r="O3" s="132" t="s">
+      <c r="P3" s="131" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q3" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="P3" s="132" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q3" s="132" t="s">
-        <v>215</v>
-      </c>
-      <c r="R3" s="132"/>
-      <c r="S3" s="133"/>
+      <c r="R3" s="131"/>
+      <c r="S3" s="132"/>
     </row>
     <row r="4" spans="2:19" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="77" t="s">
@@ -4242,17 +4278,17 @@
       <c r="D4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="131"/>
+      <c r="E4" s="130"/>
       <c r="F4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="G4" s="130" t="s">
         <v>115</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="121">
+      <c r="I4" s="120">
         <f>REST!K4</f>
         <v>0</v>
       </c>
@@ -4265,23 +4301,23 @@
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
-      <c r="S4" s="135"/>
+      <c r="S4" s="134"/>
     </row>
     <row r="5" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="143"/>
+      <c r="B5" s="141"/>
       <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="162" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="106" t="s">
+      <c r="G5" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4303,18 +4339,18 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="143"/>
+      <c r="B6" s="141"/>
       <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="165"/>
+      <c r="E6" s="162"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="105" t="s">
+      <c r="G6" s="104" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -4336,7 +4372,7 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="143" t="s">
+      <c r="B7" s="141" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -4345,11 +4381,11 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="165"/>
+      <c r="E7" s="162"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="105" t="s">
+      <c r="G7" s="104" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -4371,18 +4407,18 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="143"/>
+      <c r="B8" s="141"/>
       <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="165"/>
+      <c r="E8" s="162"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G8" s="105" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -4404,18 +4440,18 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="143"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="166"/>
+      <c r="E9" s="163"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="107" t="s">
+      <c r="G9" s="106" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -4437,91 +4473,91 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="143"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="158" t="s">
+      <c r="E10" s="155" t="s">
         <v>183</v>
       </c>
       <c r="F10" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="107" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="126" t="str">
+      <c r="I10" s="125" t="str">
         <f>REST!K10</f>
         <v>MemberDTO</v>
       </c>
-      <c r="J10" s="136" t="s">
-        <v>218</v>
+      <c r="J10" s="135" t="s">
+        <v>217</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="136"/>
+      <c r="M10" s="135"/>
       <c r="N10" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="136" t="s">
-        <v>258</v>
+      <c r="P10" s="135" t="s">
+        <v>257</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="143"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="159"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="97" t="str">
+      <c r="I11" s="96" t="str">
         <f>REST!K11</f>
-        <v>int</v>
+        <v>void</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="137"/>
-      <c r="L11" s="137"/>
+        <v>218</v>
+      </c>
+      <c r="K11" s="136"/>
+      <c r="L11" s="136"/>
       <c r="M11" s="68"/>
-      <c r="N11" s="137" t="s">
-        <v>217</v>
+      <c r="N11" s="136" t="s">
+        <v>216</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="68" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="143" t="s">
+      <c r="B12" s="141" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -4530,13 +4566,13 @@
       <c r="D12" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="152" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="107" t="s">
         <v>114</v>
       </c>
       <c r="H12" s="34" t="s">
@@ -4544,40 +4580,40 @@
       </c>
       <c r="I12" s="73" t="str">
         <f>REST!K12</f>
-        <v>int</v>
-      </c>
-      <c r="J12" s="136" t="s">
-        <v>218</v>
+        <v>void</v>
+      </c>
+      <c r="J12" s="135" t="s">
+        <v>217</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="136"/>
+      <c r="M12" s="135"/>
       <c r="N12" s="35" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="136" t="s">
-        <v>259</v>
+      <c r="P12" s="135" t="s">
+        <v>258</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="143"/>
+      <c r="B13" s="141"/>
       <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="155"/>
+      <c r="E13" s="152"/>
       <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="108" t="s">
+      <c r="G13" s="107" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="34" t="s">
@@ -4588,37 +4624,37 @@
         <v>CreatorDTO</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="143"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="156"/>
+      <c r="E14" s="153"/>
       <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="110" t="s">
+      <c r="G14" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="55" t="s">
@@ -4626,29 +4662,29 @@
       </c>
       <c r="I14" s="71" t="str">
         <f>REST!K14</f>
-        <v>int</v>
+        <v>void</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="2"/>
       <c r="N14" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="170" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -4657,55 +4693,55 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="157"/>
+      <c r="E15" s="154"/>
       <c r="F15" s="72" t="s">
         <v>159</v>
       </c>
-      <c r="G15" s="109" t="s">
+      <c r="G15" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="112" t="str">
+      <c r="I15" s="111" t="str">
         <f>REST!K15</f>
         <v>List&lt;ProjectDTO&gt;
 int</v>
       </c>
-      <c r="J15" s="137" t="s">
+      <c r="J15" s="136" t="s">
         <v>35</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="137" t="s">
-        <v>217</v>
+      <c r="N15" s="136" t="s">
+        <v>216</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="174"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="167" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
         <v>176</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G16" s="100" t="s">
         <v>115</v>
       </c>
       <c r="H16" s="26" t="s">
@@ -4715,11 +4751,11 @@
         <f>REST!K16</f>
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
-      <c r="J16" s="136" t="s">
-        <v>238</v>
+      <c r="J16" s="135" t="s">
+        <v>237</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -4727,38 +4763,38 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="174"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="171"/>
+      <c r="E17" s="168"/>
       <c r="F17" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="G17" s="102" t="s">
+      <c r="G17" s="101" t="s">
         <v>115</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="96" t="str">
+      <c r="I17" s="95" t="str">
         <f>REST!K17</f>
         <v>ProjectDTO</v>
       </c>
-      <c r="J17" s="139" t="s">
-        <v>239</v>
+      <c r="J17" s="138" t="s">
+        <v>238</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4766,24 +4802,24 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="174"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="171"/>
+      <c r="E18" s="168"/>
       <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="102" t="s">
         <v>115</v>
       </c>
       <c r="H18" s="55" t="s">
@@ -4794,7 +4830,7 @@
         <v>ProjectDTO</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4802,27 +4838,27 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="174"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="172"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="104" t="s">
+      <c r="G19" s="103" t="s">
         <v>115</v>
       </c>
       <c r="H19" s="59" t="s">
@@ -4833,10 +4869,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="8"/>
@@ -4844,32 +4880,32 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="2:20" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="174"/>
+      <c r="B20" s="171"/>
       <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="123" t="s">
+      <c r="E20" s="122" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="124" t="s">
+      <c r="F20" s="123" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="111" t="s">
+      <c r="G20" s="110" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="98">
+      <c r="I20" s="97">
         <f>REST!K20</f>
         <v>0</v>
       </c>
@@ -4882,23 +4918,23 @@
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
-      <c r="S20" s="135"/>
+      <c r="S20" s="134"/>
     </row>
     <row r="21" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="175"/>
+      <c r="B21" s="172"/>
       <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="176" t="s">
+      <c r="E21" s="173" t="s">
         <v>170</v>
       </c>
       <c r="F21" s="73" t="s">
         <v>181</v>
       </c>
-      <c r="G21" s="125" t="s">
+      <c r="G21" s="124" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -4906,29 +4942,29 @@
       </c>
       <c r="I21" s="73" t="str">
         <f>REST!K21</f>
-        <v>int</v>
-      </c>
-      <c r="J21" s="136" t="s">
-        <v>218</v>
+        <v>void</v>
+      </c>
+      <c r="J21" s="135" t="s">
+        <v>217</v>
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="136"/>
+      <c r="M21" s="135"/>
       <c r="N21" s="35" t="s">
-        <v>217</v>
-      </c>
-      <c r="O21" s="136"/>
-      <c r="P21" s="136" t="s">
-        <v>259</v>
+        <v>216</v>
+      </c>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135" t="s">
+        <v>258</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="11"/>
     </row>
     <row r="22" spans="2:20" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="143" t="s">
+      <c r="B22" s="141" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -4937,60 +4973,60 @@
       <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="159"/>
+      <c r="E22" s="156"/>
       <c r="F22" s="72" t="s">
         <v>174</v>
       </c>
-      <c r="G22" s="109" t="s">
+      <c r="G22" s="108" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="72" t="str">
+      <c r="I22" s="72">
         <f>REST!K22</f>
-        <v>List&lt;FundingDTO&gt;</v>
+        <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="137" t="s">
-        <v>217</v>
+      <c r="N22" s="136" t="s">
+        <v>216</v>
       </c>
       <c r="O22" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P22" s="68"/>
       <c r="Q22" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="143"/>
+      <c r="B23" s="141"/>
       <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E23" s="184" t="s">
+      <c r="E23" s="181" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="G23" s="125" t="s">
+      <c r="G23" s="124" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="I23" s="96">
+      <c r="I23" s="95">
         <f>REST!K23</f>
         <v>0</v>
       </c>
@@ -4998,35 +5034,35 @@
         <v>83</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="7"/>
       <c r="T23" s="45"/>
     </row>
     <row r="24" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="143"/>
+      <c r="B24" s="141"/>
       <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="118" t="s">
+      <c r="D24" s="117" t="s">
         <v>179</v>
       </c>
-      <c r="E24" s="153"/>
+      <c r="E24" s="150"/>
       <c r="F24" s="71" t="s">
         <v>175</v>
       </c>
-      <c r="G24" s="110" t="s">
+      <c r="G24" s="109" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -5037,38 +5073,38 @@
         <v>int</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="2"/>
       <c r="N24" s="55" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="3"/>
       <c r="T24" s="45"/>
     </row>
     <row r="25" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="143"/>
+      <c r="B25" s="141"/>
       <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="185"/>
+      <c r="E25" s="182"/>
       <c r="F25" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="104" t="s">
+      <c r="G25" s="103" t="s">
         <v>115</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -5079,25 +5115,25 @@
         <v>0</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="L25" s="140" t="s">
-        <v>236</v>
+      <c r="L25" s="139" t="s">
+        <v>235</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="55" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="120"/>
+      <c r="T25" s="119"/>
     </row>
     <row r="26" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="143" t="s">
+      <c r="B26" s="141" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -5106,7 +5142,7 @@
       <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="153" t="s">
+      <c r="E26" s="150" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="70" t="s">
@@ -5116,9 +5152,9 @@
       <c r="H26" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="70">
+      <c r="I26" s="70" t="str">
         <f>REST!K26</f>
-        <v>0</v>
+        <v>void</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="6"/>
@@ -5132,14 +5168,14 @@
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="144"/>
+      <c r="B27" s="142"/>
       <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="119" t="s">
+      <c r="D27" s="118" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="152"/>
+      <c r="E27" s="149"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -5147,9 +5183,9 @@
       <c r="H27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="56" t="str">
         <f>REST!K27</f>
-        <v>0</v>
+        <v>void</v>
       </c>
       <c r="J27" s="4"/>
       <c r="K27" s="4"/>
@@ -5163,13 +5199,13 @@
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K28" s="138" t="s">
-        <v>230</v>
-      </c>
-      <c r="L28" s="138"/>
+      <c r="K28" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="L28" s="137"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C29" s="100"/>
+      <c r="C29" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -5211,7 +5247,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22:F23"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5251,62 +5287,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="192" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="147" t="s">
+      <c r="D2" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="197" t="s">
+      <c r="E2" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="147" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="197" t="s">
+      <c r="H2" s="194" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="197" t="s">
+      <c r="I2" s="194" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="167" t="s">
+      <c r="J2" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="169"/>
-      <c r="L2" s="167" t="s">
+      <c r="K2" s="166"/>
+      <c r="L2" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="169"/>
-      <c r="N2" s="162" t="s">
+      <c r="M2" s="166"/>
+      <c r="N2" s="159" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="147" t="s">
+      <c r="P2" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="201" t="s">
+      <c r="Q2" s="145"/>
+      <c r="R2" s="145"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="199"/>
+      <c r="U2" s="196"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="196"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="148"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
+      <c r="B3" s="193"/>
+      <c r="C3" s="146"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -5315,7 +5351,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="163"/>
+      <c r="N3" s="160"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -5329,8 +5365,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="202"/>
-      <c r="U3" s="200"/>
+      <c r="T3" s="199"/>
+      <c r="U3" s="197"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -5371,7 +5407,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="189" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5383,7 +5419,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="193" t="s">
+      <c r="F5" s="190" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5413,7 +5449,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="174"/>
+      <c r="B6" s="171"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5423,7 +5459,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="194"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5449,7 +5485,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="174"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5459,7 +5495,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="194"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5491,7 +5527,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="174"/>
+      <c r="B8" s="171"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5501,7 +5537,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="194"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5527,7 +5563,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="174"/>
+      <c r="B9" s="171"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5537,7 +5573,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="194"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5563,7 +5599,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="174"/>
+      <c r="B10" s="171"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5573,7 +5609,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="194"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5602,7 +5638,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="174"/>
+      <c r="B11" s="171"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5612,7 +5648,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="194"/>
+      <c r="F11" s="191"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5644,7 +5680,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="189" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5656,7 +5692,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="208" t="s">
+      <c r="F12" s="205" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5686,7 +5722,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="203"/>
+      <c r="B13" s="200"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5696,7 +5732,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="210"/>
+      <c r="F13" s="207"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5724,7 +5760,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="189" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5736,7 +5772,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="208" t="s">
+      <c r="F14" s="205" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5772,7 +5808,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="174"/>
+      <c r="B15" s="171"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5782,7 +5818,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="209"/>
+      <c r="F15" s="206"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5810,7 +5846,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="174"/>
+      <c r="B16" s="171"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -5820,7 +5856,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="209"/>
+      <c r="F16" s="206"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5848,7 +5884,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="174"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -5858,7 +5894,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="209"/>
+      <c r="F17" s="206"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5886,7 +5922,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="174"/>
+      <c r="B18" s="171"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -5896,7 +5932,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="210"/>
+      <c r="F18" s="207"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -5924,7 +5960,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="174"/>
+      <c r="B19" s="171"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -5934,7 +5970,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="209" t="s">
+      <c r="F19" s="206" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -5964,7 +6000,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="174"/>
+      <c r="B20" s="171"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -5974,7 +6010,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="209"/>
+      <c r="F20" s="206"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -6002,7 +6038,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="203"/>
+      <c r="B21" s="200"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6012,7 +6048,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="210"/>
+      <c r="F21" s="207"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -6040,7 +6076,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="192" t="s">
+      <c r="B22" s="189" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -6052,7 +6088,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="193" t="s">
+      <c r="F22" s="190" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -6082,7 +6118,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="203"/>
+      <c r="B23" s="200"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -6092,7 +6128,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="205"/>
+      <c r="F23" s="202"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -6120,7 +6156,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="192" t="s">
+      <c r="B24" s="189" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -6130,7 +6166,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="206" t="s">
+      <c r="F24" s="203" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -6156,7 +6192,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="204"/>
+      <c r="B25" s="201"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -6164,7 +6200,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="207"/>
+      <c r="F25" s="204"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C995DB-BA6D-49AA-8ACD-B8D6BA14625A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8780EF-40B3-4957-A6E8-9E826893F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="응답" sheetId="5" r:id="rId2"/>
     <sheet name="초안" sheetId="1" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REST!$A$1:$R$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="282">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -672,9 +675,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ProjectDTO</t>
-  </si>
-  <si>
     <t>/creator/project/{pageNo}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1017,10 +1017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로시저+트리거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login(String id, String pwd)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1086,11 +1082,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BookMarkService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BookMarkDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findById(String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modify(MemberDTO m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/project/{no}/bookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findMyBookmark(String id, int page)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectDTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>myBookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자정의함수+트리거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addBookmark(int projNo, String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeBookmark(int projNo, String id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteBookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertBookmark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findFunsById(String loginId, int term, int state, int page)
+countMyFunList(String loginId, int term, int state)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;FundingDTO&gt;
+int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selectFunsById
+countMyFunList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmypage.html
+regist.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addProj(CreatorDTO creator)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertCr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insertProj</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMainController</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProjectMainService</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindMainProjs(String id),FindMainProjs(),</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1200,7 +1284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,6 +1357,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEFFE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="43">
     <border>
@@ -1851,7 +1941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2128,15 +2218,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2146,9 +2227,6 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -2275,19 +2353,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,15 +2461,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2318,99 +2480,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2419,12 +2497,75 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2434,71 +2575,29 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2507,6 +2606,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFEFFE1"/>
+      <color rgb="FFE2FCA2"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2866,25 +2971,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.875" customWidth="1"/>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
     <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
-    <col min="7" max="7" width="11.375" customWidth="1"/>
-    <col min="8" max="8" width="24.125" customWidth="1"/>
-    <col min="9" max="9" width="14.375" customWidth="1"/>
-    <col min="10" max="10" width="35.75" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
+    <col min="6" max="6" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.375" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="49.375" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5" style="90" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="90" customWidth="1"/>
     <col min="13" max="13" width="16.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
@@ -2894,57 +2999,57 @@
   <sheetData>
     <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="147" t="s">
+      <c r="E2" s="150" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="171" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="147" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="145" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="145" t="s">
+      <c r="G2" s="171" t="s">
+        <v>201</v>
+      </c>
+      <c r="H2" s="150" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="164" t="s">
+      <c r="I2" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="165"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="158" t="s">
+      <c r="J2" s="157"/>
+      <c r="K2" s="158"/>
+      <c r="L2" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="158"/>
-      <c r="N2" s="159" t="s">
+      <c r="M2" s="147"/>
+      <c r="N2" s="148" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="143" t="s">
+      <c r="O2" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="145" t="s">
+      <c r="P2" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="145"/>
+      <c r="Q2" s="150"/>
     </row>
     <row r="3" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="144"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="157"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="146"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="180"/>
+      <c r="H3" s="170"/>
       <c r="I3" s="67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J3" s="43" t="s">
         <v>103</v>
@@ -2953,13 +3058,13 @@
         <v>157</v>
       </c>
       <c r="L3" s="91" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="160"/>
-      <c r="O3" s="144"/>
+      <c r="N3" s="149"/>
+      <c r="O3" s="152"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -2977,24 +3082,32 @@
       <c r="D4" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="100"/>
-      <c r="F4" s="10" t="s">
+      <c r="E4" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="96" t="s">
+        <v>279</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="G4" s="100" t="s">
-        <v>115</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="I4" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="L4" s="73" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>107</v>
@@ -3008,44 +3121,44 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="141"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="161" t="s">
+      <c r="E5" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="153" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="G5" s="71" t="s">
         <v>143</v>
-      </c>
-      <c r="G5" s="104" t="s">
-        <v>116</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O5" s="141"/>
+        <v>249</v>
+      </c>
+      <c r="O5" s="167"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
@@ -3054,42 +3167,42 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="71" t="s">
+      <c r="E6" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" s="154"/>
+      <c r="G6" s="71" t="s">
         <v>144</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O6" s="141"/>
+        <v>249</v>
+      </c>
+      <c r="O6" s="167"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3098,7 +3211,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -3107,24 +3220,24 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="71" t="s">
+      <c r="E7" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" s="154"/>
+      <c r="G7" s="71" t="s">
         <v>148</v>
-      </c>
-      <c r="G7" s="104" t="s">
-        <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>89</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>245</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>154</v>
@@ -3135,7 +3248,7 @@
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="141" t="s">
+      <c r="O7" s="167" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3146,31 +3259,31 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="70" t="s">
+      <c r="E8" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" s="154"/>
+      <c r="G8" s="70" t="s">
         <v>145</v>
-      </c>
-      <c r="G8" s="105" t="s">
-        <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L8" s="70" t="s">
         <v>154</v>
@@ -3181,7 +3294,7 @@
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="141"/>
+      <c r="O8" s="167"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
@@ -3190,31 +3303,31 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="141"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="163"/>
-      <c r="F9" s="65" t="s">
+      <c r="E9" s="102" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="155"/>
+      <c r="G9" s="65" t="s">
         <v>133</v>
-      </c>
-      <c r="G9" s="106" t="s">
-        <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>88</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="L9" s="72" t="s">
         <v>154</v>
@@ -3225,7 +3338,7 @@
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="141"/>
+      <c r="O9" s="167"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
@@ -3234,78 +3347,86 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="141"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="173" t="s">
-        <v>183</v>
-      </c>
-      <c r="F10" s="70" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="165" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="107" t="s">
-        <v>114</v>
-      </c>
       <c r="H10" s="64" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="213" t="s">
-        <v>246</v>
-      </c>
-      <c r="J10" s="213"/>
-      <c r="K10" s="213" t="s">
-        <v>247</v>
-      </c>
-      <c r="L10" s="214" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="140" t="s">
+        <v>244</v>
+      </c>
+      <c r="J10" s="140" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="140" t="s">
+        <v>245</v>
+      </c>
+      <c r="L10" s="141" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="213"/>
-      <c r="N10" s="213" t="s">
+      <c r="M10" s="140" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="141"/>
+      <c r="O10" s="167"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="141"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="156"/>
-      <c r="F11" s="72" t="s">
+      <c r="E11" s="104" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="166"/>
+      <c r="G11" s="72" t="s">
         <v>128</v>
-      </c>
-      <c r="G11" s="108" t="s">
-        <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="J11" s="47"/>
+        <v>244</v>
+      </c>
+      <c r="J11" s="47" t="s">
+        <v>261</v>
+      </c>
       <c r="K11" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="L11" s="215" t="s">
+        <v>247</v>
+      </c>
+      <c r="L11" s="142" t="s">
         <v>154</v>
       </c>
-      <c r="M11" s="47"/>
+      <c r="M11" s="47" t="s">
+        <v>42</v>
+      </c>
       <c r="N11" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="174"/>
+      <c r="O11" s="168"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
@@ -3314,145 +3435,145 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="167" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="152" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="176" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="G12" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="107" t="s">
-        <v>114</v>
-      </c>
       <c r="H12" s="34" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L12" s="70" t="s">
         <v>151</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>193</v>
+        <v>276</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="172" t="s">
+      <c r="O12" s="164" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>41</v>
       </c>
       <c r="Q12" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
+        <v>185</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="176"/>
+      <c r="G13" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>274</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="152"/>
-      <c r="F13" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" s="107" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>188</v>
       </c>
       <c r="L13" s="70" t="s">
         <v>151</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="141"/>
+      <c r="O13" s="167"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="153"/>
-      <c r="F14" s="54" t="s">
+      <c r="E14" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="177"/>
+      <c r="G14" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="109" t="s">
-        <v>114</v>
-      </c>
       <c r="H14" s="55" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L14" s="71" t="s">
         <v>151</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="141"/>
+      <c r="O14" s="167"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="50.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="170" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="162" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3461,12 +3582,12 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="154"/>
-      <c r="F15" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="108" t="s">
+      <c r="E15" s="104" t="s">
         <v>114</v>
+      </c>
+      <c r="F15" s="178"/>
+      <c r="G15" s="58" t="s">
+        <v>158</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>127</v>
@@ -3475,46 +3596,46 @@
         <v>156</v>
       </c>
       <c r="J15" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K15" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="L15" s="72" t="s">
         <v>153</v>
       </c>
       <c r="M15" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="170" t="s">
+      <c r="O15" s="162" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q15" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="171"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="E16" s="167" t="s">
+        <v>250</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="F16" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="100" t="s">
-        <v>115</v>
+      <c r="G16" s="85" t="s">
+        <v>175</v>
       </c>
       <c r="H16" s="26" t="s">
         <v>91</v>
@@ -3523,122 +3644,126 @@
         <v>156</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L16" s="73" t="s">
         <v>153</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="171"/>
+      <c r="O16" s="163"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="168"/>
-      <c r="F17" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="101" t="s">
+      <c r="E17" s="97" t="s">
         <v>115</v>
+      </c>
+      <c r="F17" s="160"/>
+      <c r="G17" s="84" t="s">
+        <v>179</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" s="95" t="s">
-        <v>195</v>
-      </c>
-      <c r="M17" s="93"/>
-      <c r="N17" s="93" t="s">
+      <c r="I17" s="140" t="s">
+        <v>177</v>
+      </c>
+      <c r="J17" s="140" t="s">
+        <v>263</v>
+      </c>
+      <c r="K17" s="140" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="141" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="140" t="s">
+        <v>265</v>
+      </c>
+      <c r="N17" s="140" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="171"/>
+      <c r="O17" s="163"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="160"/>
+      <c r="G18" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="102" t="s">
-        <v>115</v>
-      </c>
       <c r="H18" s="55" t="s">
-        <v>150</v>
+        <v>98</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>156</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>158</v>
+        <v>264</v>
       </c>
       <c r="L18" s="71" t="s">
         <v>153</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="171"/>
+      <c r="O18" s="163"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="171"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="169"/>
-      <c r="F19" s="58" t="s">
+      <c r="E19" s="99" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" s="161"/>
+      <c r="G19" s="58" t="s">
         <v>138</v>
-      </c>
-      <c r="G19" s="103" t="s">
-        <v>115</v>
       </c>
       <c r="H19" s="59" t="s">
         <v>140</v>
@@ -3647,108 +3772,116 @@
         <v>156</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L19" s="72" t="s">
         <v>153</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="171"/>
+      <c r="O19" s="163"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="171"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="114" t="s">
-        <v>254</v>
-      </c>
-      <c r="E20" s="89" t="s">
+      <c r="D20" s="110" t="s">
+        <v>252</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="89" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="86" t="s">
+      <c r="G20" s="86" t="s">
         <v>146</v>
-      </c>
-      <c r="G20" s="110" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="97" t="s">
+      <c r="I20" s="211" t="s">
+        <v>156</v>
+      </c>
+      <c r="J20" s="211" t="s">
+        <v>275</v>
+      </c>
+      <c r="K20" s="211" t="s">
+        <v>247</v>
+      </c>
+      <c r="L20" s="212" t="s">
         <v>153</v>
       </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92" t="s">
+      <c r="M20" s="211" t="s">
+        <v>277</v>
+      </c>
+      <c r="N20" s="211" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="171"/>
+      <c r="O20" s="163"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="172"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="E21" s="155" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" s="53" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" s="107" t="s">
+        <v>253</v>
+      </c>
+      <c r="E21" s="103" t="s">
         <v>114</v>
+      </c>
+      <c r="F21" s="179" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" s="53" t="s">
+        <v>180</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="L21" s="70" t="s">
+      <c r="J21" s="140" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="140" t="s">
+        <v>247</v>
+      </c>
+      <c r="L21" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="N21" s="6" t="s">
+      <c r="M21" s="140" t="s">
+        <v>203</v>
+      </c>
+      <c r="N21" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="172"/>
+      <c r="O21" s="164"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="140" t="s">
+      <c r="B22" s="136" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="40" t="s">
@@ -3757,33 +3890,33 @@
       <c r="D22" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="108" t="s">
+      <c r="E22" s="104" t="s">
         <v>114</v>
+      </c>
+      <c r="F22" s="166"/>
+      <c r="G22" s="58" t="s">
+        <v>173</v>
       </c>
       <c r="H22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="K22" s="8"/>
-      <c r="L22" s="72" t="s">
+      <c r="I22" s="47" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" s="142" t="s">
         <v>152</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="N22" s="8" t="s">
+      <c r="M22" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="141" t="s">
+      <c r="O22" s="167" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3791,108 +3924,114 @@
       </c>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="170" t="s">
+    <row r="23" spans="2:17" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="162" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="150" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="217" t="s">
         <v>126</v>
       </c>
-      <c r="F23" s="54" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="109" t="s">
-        <v>114</v>
+      <c r="G23" s="54" t="s">
+        <v>174</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="I23" s="94" t="s">
-        <v>168</v>
-      </c>
-      <c r="J23" s="94"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="98" t="s">
+        <v>183</v>
+      </c>
+      <c r="I23" s="213" t="s">
+        <v>167</v>
+      </c>
+      <c r="J23" s="216" t="s">
+        <v>271</v>
+      </c>
+      <c r="K23" s="216" t="s">
+        <v>272</v>
+      </c>
+      <c r="L23" s="214" t="s">
         <v>152</v>
       </c>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94" t="s">
+      <c r="M23" s="216" t="s">
+        <v>273</v>
+      </c>
+      <c r="N23" s="213" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="141"/>
+      <c r="O23" s="167"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="171"/>
+      <c r="B24" s="163"/>
       <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="150"/>
-      <c r="F24" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="109" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="105" t="s">
         <v>114</v>
+      </c>
+      <c r="F24" s="217"/>
+      <c r="G24" s="71" t="s">
+        <v>174</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>123</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="L24" s="71" t="s">
         <v>152</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="141"/>
+      <c r="O24" s="167"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="172"/>
+      <c r="B25" s="164"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D25" s="115" t="s">
+      <c r="D25" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="151"/>
-      <c r="F25" s="54" t="s">
+      <c r="E25" s="98" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="218"/>
+      <c r="G25" s="54" t="s">
         <v>147</v>
-      </c>
-      <c r="G25" s="102" t="s">
-        <v>115</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>96</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -3900,19 +4039,19 @@
         <v>152</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="141"/>
+      <c r="O25" s="167"/>
       <c r="P25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="167" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -3921,33 +4060,37 @@
       <c r="D26" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="211" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="G26" s="102" t="s">
+      <c r="E26" s="98" t="s">
         <v>115</v>
+      </c>
+      <c r="F26" s="173" t="s">
+        <v>120</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>262</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I26" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117" t="s">
-        <v>249</v>
-      </c>
-      <c r="L26" s="208" t="s">
-        <v>262</v>
-      </c>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117" t="s">
+      <c r="I26" s="113" t="s">
+        <v>156</v>
+      </c>
+      <c r="J26" s="113" t="s">
+        <v>267</v>
+      </c>
+      <c r="K26" s="113" t="s">
+        <v>247</v>
+      </c>
+      <c r="L26" s="137" t="s">
+        <v>259</v>
+      </c>
+      <c r="M26" s="113" t="s">
+        <v>270</v>
+      </c>
+      <c r="N26" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="141" t="s">
+      <c r="O26" s="167" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -3956,177 +4099,197 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="142"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="212"/>
-      <c r="F27" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="210" t="s">
+      <c r="E27" s="139" t="s">
         <v>115</v>
+      </c>
+      <c r="F27" s="174"/>
+      <c r="G27" s="56" t="s">
+        <v>262</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="I27" s="118" t="s">
-        <v>261</v>
-      </c>
-      <c r="J27" s="118"/>
-      <c r="K27" s="118" t="s">
-        <v>249</v>
-      </c>
-      <c r="L27" s="209" t="s">
-        <v>262</v>
-      </c>
-      <c r="M27" s="118"/>
-      <c r="N27" s="118" t="s">
+      <c r="I27" s="114" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="114" t="s">
+        <v>268</v>
+      </c>
+      <c r="K27" s="114" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="N27" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="142"/>
+      <c r="O27" s="169"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
       <c r="Q27" s="4"/>
     </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="C28" s="112"/>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G28" s="215"/>
+    </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C29" s="116"/>
+      <c r="C29" s="95"/>
       <c r="D29" t="s">
-        <v>244</v>
-      </c>
-      <c r="F29" s="175" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176"/>
-      <c r="K29" s="176"/>
-      <c r="L29" s="176"/>
-      <c r="M29" s="176"/>
-      <c r="N29" s="176"/>
-      <c r="O29" s="176"/>
-      <c r="P29" s="176"/>
-      <c r="Q29" s="176"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="144"/>
+      <c r="P29" s="144"/>
+      <c r="Q29" s="144"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="C30" s="99"/>
-      <c r="D30" t="s">
-        <v>228</v>
-      </c>
-      <c r="F30" s="175" t="s">
+      <c r="G30" s="143" t="s">
+        <v>225</v>
+      </c>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="144"/>
+      <c r="P30" s="144"/>
+      <c r="Q30" s="144"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G31" s="143" t="s">
+        <v>223</v>
+      </c>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="144"/>
+      <c r="P31" s="144"/>
+      <c r="Q31" s="144"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="G32" s="143" t="s">
+        <v>224</v>
+      </c>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="144"/>
+      <c r="P32" s="144"/>
+      <c r="Q32" s="144"/>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G33" s="143" t="s">
         <v>226</v>
       </c>
-      <c r="G30" s="176"/>
-      <c r="H30" s="176"/>
-      <c r="I30" s="176"/>
-      <c r="J30" s="176"/>
-      <c r="K30" s="176"/>
-      <c r="L30" s="176"/>
-      <c r="M30" s="176"/>
-      <c r="N30" s="176"/>
-      <c r="O30" s="176"/>
-      <c r="P30" s="176"/>
-      <c r="Q30" s="176"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F31" s="175" t="s">
-        <v>224</v>
-      </c>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
-      <c r="K31" s="176"/>
-      <c r="L31" s="176"/>
-      <c r="M31" s="176"/>
-      <c r="N31" s="176"/>
-      <c r="O31" s="176"/>
-      <c r="P31" s="176"/>
-      <c r="Q31" s="176"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="F32" s="175" t="s">
-        <v>225</v>
-      </c>
-      <c r="G32" s="176"/>
-      <c r="H32" s="176"/>
-      <c r="I32" s="176"/>
-      <c r="J32" s="176"/>
-      <c r="K32" s="176"/>
-      <c r="L32" s="176"/>
-      <c r="M32" s="176"/>
-      <c r="N32" s="176"/>
-      <c r="O32" s="176"/>
-      <c r="P32" s="176"/>
-      <c r="Q32" s="176"/>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.3">
-      <c r="F35" s="177"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="178"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="178"/>
-      <c r="O35" s="178"/>
-      <c r="P35" s="178"/>
-      <c r="Q35" s="178"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="144"/>
+      <c r="P33" s="144"/>
+      <c r="Q33" s="144"/>
+    </row>
+    <row r="35" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G35" s="145"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="146"/>
+      <c r="K35" s="146"/>
+      <c r="L35" s="146"/>
+      <c r="M35" s="146"/>
+      <c r="N35" s="146"/>
+      <c r="O35" s="146"/>
+      <c r="P35" s="146"/>
+      <c r="Q35" s="146"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="F29:Q29"/>
-    <mergeCell ref="F30:Q30"/>
-    <mergeCell ref="F35:Q35"/>
-    <mergeCell ref="F32:Q32"/>
-    <mergeCell ref="F31:Q31"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="E5:E9"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="E16:E19"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="O15:O21"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="O12:O14"/>
+  <mergeCells count="37">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="G33:Q33"/>
     <mergeCell ref="O22:O25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="O26:O27"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="E23:E25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F23:F25"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B7:B11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="F21:F22"/>
     <mergeCell ref="B26:B27"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="I2:K2"/>
     <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G29:Q29"/>
+    <mergeCell ref="G30:Q30"/>
+    <mergeCell ref="G35:Q35"/>
+    <mergeCell ref="G32:Q32"/>
+    <mergeCell ref="G31:Q31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F31" r:id="rId1" xr:uid="{7EE56107-B47B-49B8-BAB4-45FA86B80794}"/>
-    <hyperlink ref="F32" r:id="rId2" location="api-status-code" xr:uid="{0F6742C2-09B4-49E7-90C3-18B102648B26}"/>
-    <hyperlink ref="F30" r:id="rId3" xr:uid="{020D7EF4-39C3-489B-BCC3-E061ABDEB565}"/>
-    <hyperlink ref="F29" r:id="rId4" xr:uid="{FEC746DC-B529-4175-9B84-D873222092EC}"/>
+    <hyperlink ref="G31" r:id="rId1" xr:uid="{7EE56107-B47B-49B8-BAB4-45FA86B80794}"/>
+    <hyperlink ref="G32" r:id="rId2" location="api-status-code" xr:uid="{0F6742C2-09B4-49E7-90C3-18B102648B26}"/>
+    <hyperlink ref="G30" r:id="rId3" xr:uid="{020D7EF4-39C3-489B-BCC3-E061ABDEB565}"/>
+    <hyperlink ref="G33" r:id="rId4" xr:uid="{AD719B20-664A-418F-BAD7-5DDB55AC3D30}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup paperSize="9" scale="54" fitToWidth="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <colBreaks count="2" manualBreakCount="2">
+    <brk id="8" max="28" man="1"/>
+    <brk id="11" max="28" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>
 
@@ -4161,112 +4324,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="179" t="s">
+      <c r="J1" s="186" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="187"/>
+      <c r="L1" s="109"/>
+      <c r="M1" s="108" t="s">
         <v>209</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="112" t="s">
+      <c r="N1" s="108"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108" t="s">
         <v>210</v>
       </c>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112" t="s">
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+    </row>
+    <row r="2" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="190" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="181" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="181" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="183" t="s">
+        <v>201</v>
+      </c>
+      <c r="G2" s="181" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="122" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="129">
+        <v>200</v>
+      </c>
+      <c r="K2" s="129">
+        <v>204</v>
+      </c>
+      <c r="L2" s="129">
+        <v>300</v>
+      </c>
+      <c r="M2" s="129">
+        <v>400</v>
+      </c>
+      <c r="N2" s="129">
+        <v>401</v>
+      </c>
+      <c r="O2" s="129">
+        <v>403</v>
+      </c>
+      <c r="P2" s="129">
+        <v>404</v>
+      </c>
+      <c r="Q2" s="129">
+        <v>500</v>
+      </c>
+      <c r="R2" s="123"/>
+      <c r="S2" s="124"/>
+    </row>
+    <row r="3" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="191"/>
+      <c r="C3" s="182"/>
+      <c r="D3" s="182"/>
+      <c r="E3" s="182"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="182"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="125" t="s">
+        <v>157</v>
+      </c>
+      <c r="J3" s="127" t="s">
+        <v>206</v>
+      </c>
+      <c r="K3" s="127" t="s">
+        <v>207</v>
+      </c>
+      <c r="L3" s="127" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" s="127" t="s">
         <v>211</v>
       </c>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-    </row>
-    <row r="2" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="185" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="183" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="183" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="187" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="187" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="183" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="183" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="126" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="133">
-        <v>200</v>
-      </c>
-      <c r="K2" s="133">
-        <v>204</v>
-      </c>
-      <c r="L2" s="133">
-        <v>300</v>
-      </c>
-      <c r="M2" s="133">
-        <v>400</v>
-      </c>
-      <c r="N2" s="133">
-        <v>401</v>
-      </c>
-      <c r="O2" s="133">
-        <v>403</v>
-      </c>
-      <c r="P2" s="133">
-        <v>404</v>
-      </c>
-      <c r="Q2" s="133">
-        <v>500</v>
-      </c>
-      <c r="R2" s="127"/>
-      <c r="S2" s="128"/>
-    </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="186"/>
-      <c r="C3" s="184"/>
-      <c r="D3" s="184"/>
-      <c r="E3" s="184"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="184"/>
-      <c r="I3" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="J3" s="131" t="s">
-        <v>207</v>
-      </c>
-      <c r="K3" s="131" t="s">
-        <v>208</v>
-      </c>
-      <c r="L3" s="131" t="s">
-        <v>243</v>
-      </c>
-      <c r="M3" s="131" t="s">
+      <c r="N3" s="127" t="s">
+        <v>219</v>
+      </c>
+      <c r="O3" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="N3" s="131" t="s">
-        <v>220</v>
-      </c>
-      <c r="O3" s="131" t="s">
+      <c r="P3" s="127" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q3" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="P3" s="131" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q3" s="131" t="s">
-        <v>214</v>
-      </c>
-      <c r="R3" s="131"/>
-      <c r="S3" s="132"/>
+      <c r="R3" s="127"/>
+      <c r="S3" s="128"/>
     </row>
     <row r="4" spans="2:19" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="77" t="s">
@@ -4278,19 +4441,19 @@
       <c r="D4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="130"/>
+      <c r="E4" s="126"/>
       <c r="F4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="130" t="s">
+      <c r="G4" s="126" t="s">
         <v>115</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="120">
+      <c r="I4" s="116" t="str">
         <f>REST!K4</f>
-        <v>0</v>
+        <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J4" s="52"/>
       <c r="K4" s="52"/>
@@ -4301,23 +4464,23 @@
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
       <c r="R4" s="52"/>
-      <c r="S4" s="134"/>
+      <c r="S4" s="130"/>
     </row>
     <row r="5" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="141"/>
+      <c r="B5" s="167"/>
       <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="154" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="105" t="s">
+      <c r="G5" s="101" t="s">
         <v>116</v>
       </c>
       <c r="H5" s="6" t="s">
@@ -4339,18 +4502,18 @@
       <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="141"/>
+      <c r="B6" s="167"/>
       <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="162"/>
+      <c r="E6" s="154"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="100" t="s">
         <v>116</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -4372,7 +4535,7 @@
       <c r="S6" s="3"/>
     </row>
     <row r="7" spans="2:19" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="167" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -4381,11 +4544,11 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="162"/>
+      <c r="E7" s="154"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
-      <c r="G7" s="104" t="s">
+      <c r="G7" s="100" t="s">
         <v>116</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -4407,18 +4570,18 @@
       <c r="S7" s="3"/>
     </row>
     <row r="8" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="141"/>
+      <c r="B8" s="167"/>
       <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="162"/>
+      <c r="E8" s="154"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="105" t="s">
+      <c r="G8" s="101" t="s">
         <v>116</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -4440,18 +4603,18 @@
       <c r="S8" s="3"/>
     </row>
     <row r="9" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="141"/>
+      <c r="B9" s="167"/>
       <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="163"/>
+      <c r="E9" s="155"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="G9" s="106" t="s">
+      <c r="G9" s="102" t="s">
         <v>116</v>
       </c>
       <c r="H9" s="8" t="s">
@@ -4473,218 +4636,218 @@
       <c r="S9" s="9"/>
     </row>
     <row r="10" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="141"/>
+      <c r="B10" s="167"/>
       <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="155" t="s">
-        <v>183</v>
+      <c r="E10" s="179" t="s">
+        <v>182</v>
       </c>
       <c r="F10" s="70" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="103" t="s">
         <v>114</v>
       </c>
       <c r="H10" s="64" t="s">
         <v>149</v>
       </c>
-      <c r="I10" s="125" t="str">
+      <c r="I10" s="121" t="str">
         <f>REST!K10</f>
         <v>MemberDTO</v>
       </c>
-      <c r="J10" s="135" t="s">
-        <v>217</v>
+      <c r="J10" s="131" t="s">
+        <v>216</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="135"/>
+      <c r="M10" s="131"/>
       <c r="N10" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="135" t="s">
-        <v>257</v>
+      <c r="P10" s="131" t="s">
+        <v>255</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R10" s="10"/>
       <c r="S10" s="11"/>
     </row>
     <row r="11" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="141"/>
+      <c r="B11" s="167"/>
       <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="156"/>
+      <c r="E11" s="166"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
-      <c r="G11" s="108" t="s">
+      <c r="G11" s="104" t="s">
         <v>114</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="96" t="str">
+      <c r="I11" s="93" t="str">
         <f>REST!K11</f>
         <v>void</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="K11" s="136"/>
-      <c r="L11" s="136"/>
+        <v>217</v>
+      </c>
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
       <c r="M11" s="68"/>
-      <c r="N11" s="136" t="s">
-        <v>216</v>
+      <c r="N11" s="132" t="s">
+        <v>215</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="68" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R11" s="8"/>
       <c r="S11" s="9"/>
     </row>
     <row r="12" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="141" t="s">
+      <c r="B12" s="167" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>185</v>
-      </c>
-      <c r="E12" s="152" t="s">
+        <v>184</v>
+      </c>
+      <c r="E12" s="176" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="107" t="s">
+      <c r="G12" s="103" t="s">
         <v>114</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I12" s="73" t="str">
         <f>REST!K12</f>
         <v>void</v>
       </c>
-      <c r="J12" s="135" t="s">
-        <v>217</v>
+      <c r="J12" s="131" t="s">
+        <v>216</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="135"/>
+      <c r="M12" s="131"/>
       <c r="N12" s="35" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="135" t="s">
-        <v>258</v>
+      <c r="P12" s="131" t="s">
+        <v>256</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
     </row>
     <row r="13" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="141"/>
+      <c r="B13" s="167"/>
       <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>186</v>
-      </c>
-      <c r="E13" s="152"/>
+        <v>185</v>
+      </c>
+      <c r="E13" s="176"/>
       <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="107" t="s">
+      <c r="G13" s="103" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I13" s="70" t="str">
         <f>REST!K13</f>
         <v>CreatorDTO</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="3"/>
     </row>
     <row r="14" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="141"/>
+      <c r="B14" s="167"/>
       <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="153"/>
+      <c r="E14" s="177"/>
       <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
-      <c r="G14" s="109" t="s">
+      <c r="G14" s="105" t="s">
         <v>114</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I14" s="71" t="str">
         <f>REST!K14</f>
         <v>void</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="2"/>
       <c r="N14" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R14" s="1"/>
       <c r="S14" s="3"/>
     </row>
     <row r="15" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="170" t="s">
+      <c r="B15" s="162" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -4693,55 +4856,55 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="154"/>
+      <c r="E15" s="178"/>
       <c r="F15" s="72" t="s">
-        <v>159</v>
-      </c>
-      <c r="G15" s="108" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="104" t="s">
         <v>114</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="I15" s="111" t="str">
+      <c r="I15" s="107" t="str">
         <f>REST!K15</f>
         <v>List&lt;ProjectDTO&gt;
 int</v>
       </c>
-      <c r="J15" s="136" t="s">
+      <c r="J15" s="132" t="s">
         <v>35</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="136" t="s">
-        <v>216</v>
+      <c r="N15" s="132" t="s">
+        <v>215</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R15" s="8"/>
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="171"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="159" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
-        <v>176</v>
-      </c>
-      <c r="G16" s="100" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="96" t="s">
         <v>115</v>
       </c>
       <c r="H16" s="26" t="s">
@@ -4751,11 +4914,11 @@
         <f>REST!K16</f>
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
-      <c r="J16" s="135" t="s">
-        <v>237</v>
+      <c r="J16" s="131" t="s">
+        <v>236</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -4763,38 +4926,38 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R16" s="10"/>
       <c r="S16" s="11"/>
     </row>
     <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="168"/>
+      <c r="E17" s="160"/>
       <c r="F17" s="84" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="101" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="97" t="s">
         <v>115</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="95" t="str">
+      <c r="I17" s="92" t="str">
         <f>REST!K17</f>
-        <v>ProjectDTO</v>
-      </c>
-      <c r="J17" s="138" t="s">
-        <v>238</v>
+        <v>List&lt;ProjectDTO&gt;</v>
+      </c>
+      <c r="J17" s="134" t="s">
+        <v>237</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4802,24 +4965,24 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R17" s="1"/>
       <c r="S17" s="3"/>
     </row>
     <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="171"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="168"/>
+      <c r="E18" s="160"/>
       <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
-      <c r="G18" s="102" t="s">
+      <c r="G18" s="98" t="s">
         <v>115</v>
       </c>
       <c r="H18" s="55" t="s">
@@ -4830,7 +4993,7 @@
         <v>ProjectDTO</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4838,27 +5001,27 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="3"/>
     </row>
     <row r="19" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="171"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="169"/>
+      <c r="E19" s="161"/>
       <c r="F19" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="99" t="s">
         <v>115</v>
       </c>
       <c r="H19" s="59" t="s">
@@ -4869,10 +5032,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="8"/>
@@ -4880,34 +5043,34 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R19" s="8"/>
       <c r="S19" s="9"/>
     </row>
     <row r="20" spans="2:20" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="171"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="121" t="s">
+      <c r="D20" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="122" t="s">
+      <c r="E20" s="118" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="123" t="s">
+      <c r="F20" s="119" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="110" t="s">
+      <c r="G20" s="106" t="s">
         <v>116</v>
       </c>
       <c r="H20" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="97">
+      <c r="I20" s="94" t="str">
         <f>REST!K20</f>
-        <v>0</v>
+        <v>void</v>
       </c>
       <c r="J20" s="52"/>
       <c r="K20" s="52"/>
@@ -4918,23 +5081,23 @@
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
       <c r="R20" s="52"/>
-      <c r="S20" s="134"/>
+      <c r="S20" s="130"/>
     </row>
     <row r="21" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="172"/>
+      <c r="B21" s="164"/>
       <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="173" t="s">
-        <v>170</v>
+      <c r="E21" s="165" t="s">
+        <v>169</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>181</v>
-      </c>
-      <c r="G21" s="124" t="s">
+        <v>180</v>
+      </c>
+      <c r="G21" s="120" t="s">
         <v>114</v>
       </c>
       <c r="H21" s="10" t="s">
@@ -4944,27 +5107,27 @@
         <f>REST!K21</f>
         <v>void</v>
       </c>
-      <c r="J21" s="135" t="s">
-        <v>217</v>
+      <c r="J21" s="131" t="s">
+        <v>216</v>
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="135"/>
+      <c r="M21" s="131"/>
       <c r="N21" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135" t="s">
-        <v>258</v>
+        <v>215</v>
+      </c>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131" t="s">
+        <v>256</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R21" s="10"/>
       <c r="S21" s="11"/>
     </row>
     <row r="22" spans="2:20" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="141" t="s">
+      <c r="B22" s="167" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -4973,11 +5136,11 @@
       <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="156"/>
+      <c r="E22" s="166"/>
       <c r="F22" s="72" t="s">
-        <v>174</v>
-      </c>
-      <c r="G22" s="108" t="s">
+        <v>173</v>
+      </c>
+      <c r="G22" s="104" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="8" t="s">
@@ -4988,81 +5151,82 @@
         <v>0</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="136" t="s">
-        <v>216</v>
+      <c r="N22" s="132" t="s">
+        <v>215</v>
       </c>
       <c r="O22" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P22" s="68"/>
       <c r="Q22" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R22" s="8"/>
       <c r="S22" s="9"/>
     </row>
     <row r="23" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="141"/>
+      <c r="B23" s="167"/>
       <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="E23" s="181" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="188" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="73" t="s">
-        <v>175</v>
-      </c>
-      <c r="G23" s="124" t="s">
+        <v>174</v>
+      </c>
+      <c r="G23" s="120" t="s">
         <v>114</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="I23" s="95">
+        <v>183</v>
+      </c>
+      <c r="I23" s="92" t="str">
         <f>REST!K23</f>
-        <v>0</v>
+        <v>List&lt;FundingDTO&gt;
+int</v>
       </c>
       <c r="J23" s="6" t="s">
         <v>83</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="34" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R23" s="6"/>
       <c r="S23" s="7"/>
       <c r="T23" s="45"/>
     </row>
     <row r="24" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="141"/>
+      <c r="B24" s="167"/>
       <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D24" s="117" t="s">
-        <v>179</v>
-      </c>
-      <c r="E24" s="150"/>
+      <c r="D24" s="113" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="175"/>
       <c r="F24" s="71" t="s">
-        <v>175</v>
-      </c>
-      <c r="G24" s="109" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="105" t="s">
         <v>114</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -5073,38 +5237,38 @@
         <v>int</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="2"/>
       <c r="N24" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R24" s="1"/>
       <c r="S24" s="3"/>
       <c r="T24" s="45"/>
     </row>
     <row r="25" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="141"/>
+      <c r="B25" s="167"/>
       <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="182"/>
+      <c r="E25" s="189"/>
       <c r="F25" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="G25" s="103" t="s">
+      <c r="G25" s="99" t="s">
         <v>115</v>
       </c>
       <c r="H25" s="8" t="s">
@@ -5115,25 +5279,25 @@
         <v>0</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="L25" s="139" t="s">
-        <v>235</v>
+      <c r="L25" s="135" t="s">
+        <v>234</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="55" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="S25" s="9"/>
-      <c r="T25" s="119"/>
+      <c r="T25" s="115"/>
     </row>
     <row r="26" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="167" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -5142,7 +5306,7 @@
       <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="150" t="s">
+      <c r="E26" s="175" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="70" t="s">
@@ -5168,14 +5332,14 @@
       <c r="S26" s="7"/>
     </row>
     <row r="27" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="142"/>
+      <c r="B27" s="169"/>
       <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="118" t="s">
+      <c r="D27" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="149"/>
+      <c r="E27" s="185"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -5199,21 +5363,16 @@
       <c r="S27" s="5"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K28" s="137" t="s">
-        <v>229</v>
-      </c>
-      <c r="L28" s="137"/>
+      <c r="K28" s="133" t="s">
+        <v>228</v>
+      </c>
+      <c r="L28" s="133"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="C29" s="99"/>
+      <c r="C29" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="J1:K1"/>
@@ -5230,6 +5389,11 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5287,62 +5451,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="192" t="s">
+      <c r="B2" s="209" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="145" t="s">
+      <c r="C2" s="150" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="145" t="s">
+      <c r="D2" s="150" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="194" t="s">
+      <c r="E2" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="147" t="s">
+      <c r="F2" s="171" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="145" t="s">
+      <c r="G2" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="194" t="s">
+      <c r="H2" s="206" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="194" t="s">
+      <c r="I2" s="206" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="164" t="s">
+      <c r="J2" s="156" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="166"/>
-      <c r="L2" s="164" t="s">
+      <c r="K2" s="158"/>
+      <c r="L2" s="156" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="166"/>
-      <c r="N2" s="159" t="s">
+      <c r="M2" s="158"/>
+      <c r="N2" s="148" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="145" t="s">
+      <c r="P2" s="150" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="145"/>
-      <c r="R2" s="145"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="198" t="s">
+      <c r="Q2" s="150"/>
+      <c r="R2" s="150"/>
+      <c r="S2" s="150"/>
+      <c r="T2" s="204" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="196"/>
+      <c r="U2" s="202"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="193"/>
-      <c r="C3" s="146"/>
-      <c r="D3" s="146"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="148"/>
-      <c r="G3" s="146"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
+      <c r="B3" s="210"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="207"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="207"/>
+      <c r="I3" s="207"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -5351,7 +5515,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="160"/>
+      <c r="N3" s="149"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -5365,8 +5529,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="199"/>
-      <c r="U3" s="197"/>
+      <c r="T3" s="205"/>
+      <c r="U3" s="203"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -5407,7 +5571,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="189" t="s">
+      <c r="B5" s="192" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5419,7 +5583,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="190" t="s">
+      <c r="F5" s="195" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5449,7 +5613,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="171"/>
+      <c r="B6" s="163"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5459,7 +5623,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="191"/>
+      <c r="F6" s="208"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5485,7 +5649,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="171"/>
+      <c r="B7" s="163"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5495,7 +5659,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="191"/>
+      <c r="F7" s="208"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5527,7 +5691,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="171"/>
+      <c r="B8" s="163"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5537,7 +5701,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="191"/>
+      <c r="F8" s="208"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5563,7 +5727,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="171"/>
+      <c r="B9" s="163"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5573,7 +5737,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="191"/>
+      <c r="F9" s="208"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5599,7 +5763,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="171"/>
+      <c r="B10" s="163"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5609,7 +5773,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="191"/>
+      <c r="F10" s="208"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5638,7 +5802,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="171"/>
+      <c r="B11" s="163"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5648,7 +5812,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="191"/>
+      <c r="F11" s="208"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5680,7 +5844,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="189" t="s">
+      <c r="B12" s="192" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5692,7 +5856,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="205" t="s">
+      <c r="F12" s="199" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5722,7 +5886,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="200"/>
+      <c r="B13" s="193"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5732,7 +5896,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="207"/>
+      <c r="F13" s="201"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5760,7 +5924,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="189" t="s">
+      <c r="B14" s="192" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5772,7 +5936,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="205" t="s">
+      <c r="F14" s="199" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5808,7 +5972,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="171"/>
+      <c r="B15" s="163"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5818,7 +5982,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="206"/>
+      <c r="F15" s="200"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5846,7 +6010,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="171"/>
+      <c r="B16" s="163"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -5856,7 +6020,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="206"/>
+      <c r="F16" s="200"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5884,7 +6048,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="171"/>
+      <c r="B17" s="163"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -5894,7 +6058,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="206"/>
+      <c r="F17" s="200"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5922,7 +6086,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="171"/>
+      <c r="B18" s="163"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -5932,7 +6096,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="207"/>
+      <c r="F18" s="201"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -5960,7 +6124,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="171"/>
+      <c r="B19" s="163"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -5970,7 +6134,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="206" t="s">
+      <c r="F19" s="200" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -6000,7 +6164,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="171"/>
+      <c r="B20" s="163"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -6010,7 +6174,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="206"/>
+      <c r="F20" s="200"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -6038,7 +6202,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="200"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6048,7 +6212,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="207"/>
+      <c r="F21" s="201"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -6076,7 +6240,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="189" t="s">
+      <c r="B22" s="192" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -6088,7 +6252,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="190" t="s">
+      <c r="F22" s="195" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -6118,7 +6282,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="200"/>
+      <c r="B23" s="193"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -6128,7 +6292,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="202"/>
+      <c r="F23" s="196"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -6156,7 +6320,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="189" t="s">
+      <c r="B24" s="192" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -6166,7 +6330,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="203" t="s">
+      <c r="F24" s="197" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -6192,7 +6356,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="201"/>
+      <c r="B25" s="194"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -6200,7 +6364,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="204"/>
+      <c r="F25" s="198"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -6255,6 +6419,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B22:B23"/>
@@ -6264,22 +6444,6 @@
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8780EF-40B3-4957-A6E8-9E826893F1B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D7D263-9FD5-45EA-9FDC-C07419BB1D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="31845" yWindow="3360" windowWidth="21600" windowHeight="13620" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="284">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -836,9 +836,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>insert</t>
-  </si>
-  <si>
     <t>mainProjs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -912,11 +909,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>creaotr 테이블에 없을때
-(정보수정한적없거나 프로젝트등록한적없는경우)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UNAUTHORIZED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1175,6 +1167,26 @@
   </si>
   <si>
     <t>FindMainProjs(String id),FindMainProjs(),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addFunding(FundingDTO funding)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>creaotr 테이블에 없을때
+(정보수정한적없거나 
+프로젝트등록한적없는경우)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(함수 return)
+1:성공 -1:오류
+0:실패:재고부족</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map&lt;String,Object)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,7 +1376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="43">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -1917,21 +1929,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="double">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1941,7 +1938,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="219">
+  <cellXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2311,12 +2308,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2326,14 +2317,8 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2371,6 +2356,24 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2384,6 +2387,51 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2392,73 +2440,31 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2467,7 +2473,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2481,9 +2490,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2497,6 +2503,9 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2573,30 +2582,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2971,9 +2956,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
   <dimension ref="B1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2999,55 +2984,55 @@
   <sheetData>
     <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="150" t="s">
+      <c r="E2" s="149" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="168" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="171" t="s">
-        <v>201</v>
-      </c>
-      <c r="H2" s="150" t="s">
+      <c r="G2" s="168" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="149" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="156" t="s">
+      <c r="I2" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="157"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="147" t="s">
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="164" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148" t="s">
+      <c r="M2" s="164"/>
+      <c r="N2" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="151" t="s">
+      <c r="O2" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="150" t="s">
+      <c r="P2" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="150"/>
-    </row>
-    <row r="3" spans="2:17" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="152"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="170"/>
+      <c r="Q2" s="149"/>
+    </row>
+    <row r="3" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="151"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="158"/>
       <c r="I3" s="67" t="s">
         <v>171</v>
       </c>
@@ -3063,8 +3048,8 @@
       <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="149"/>
-      <c r="O3" s="152"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="151"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -3086,7 +3071,7 @@
         <v>115</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>80</v>
@@ -3095,10 +3080,10 @@
         <v>72</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>159</v>
@@ -3107,7 +3092,7 @@
         <v>172</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>107</v>
@@ -3121,7 +3106,7 @@
       <c r="Q4" s="10"/>
     </row>
     <row r="5" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="167"/>
+      <c r="B5" s="162"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
@@ -3131,7 +3116,7 @@
       <c r="E5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="153" t="s">
+      <c r="F5" s="152" t="s">
         <v>118</v>
       </c>
       <c r="G5" s="71" t="s">
@@ -3141,24 +3126,24 @@
         <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O5" s="167"/>
+        <v>247</v>
+      </c>
+      <c r="O5" s="162"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
@@ -3167,7 +3152,7 @@
       </c>
     </row>
     <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="167"/>
+      <c r="B6" s="162"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
@@ -3177,7 +3162,7 @@
       <c r="E6" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="154"/>
+      <c r="F6" s="153"/>
       <c r="G6" s="71" t="s">
         <v>144</v>
       </c>
@@ -3185,24 +3170,24 @@
         <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="O6" s="167"/>
+        <v>247</v>
+      </c>
+      <c r="O6" s="162"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
@@ -3211,7 +3196,7 @@
       </c>
     </row>
     <row r="7" spans="2:17" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="162" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -3223,7 +3208,7 @@
       <c r="E7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="154"/>
+      <c r="F7" s="153"/>
       <c r="G7" s="71" t="s">
         <v>148</v>
       </c>
@@ -3231,13 +3216,13 @@
         <v>89</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>154</v>
@@ -3248,7 +3233,7 @@
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="167" t="s">
+      <c r="O7" s="162" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3259,7 +3244,7 @@
       </c>
     </row>
     <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="167"/>
+      <c r="B8" s="162"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
@@ -3269,7 +3254,7 @@
       <c r="E8" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="154"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="70" t="s">
         <v>145</v>
       </c>
@@ -3277,13 +3262,13 @@
         <v>88</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>246</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L8" s="70" t="s">
         <v>154</v>
@@ -3294,7 +3279,7 @@
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="167"/>
+      <c r="O8" s="162"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
@@ -3303,7 +3288,7 @@
       </c>
     </row>
     <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="167"/>
+      <c r="B9" s="162"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
@@ -3313,7 +3298,7 @@
       <c r="E9" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="155"/>
+      <c r="F9" s="154"/>
       <c r="G9" s="65" t="s">
         <v>133</v>
       </c>
@@ -3321,13 +3306,13 @@
         <v>88</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L9" s="72" t="s">
         <v>154</v>
@@ -3338,7 +3323,7 @@
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="167"/>
+      <c r="O9" s="162"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
@@ -3347,17 +3332,17 @@
       </c>
     </row>
     <row r="10" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="167"/>
+      <c r="B10" s="162"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E10" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="165" t="s">
+      <c r="F10" s="173" t="s">
         <v>182</v>
       </c>
       <c r="G10" s="70" t="s">
@@ -3366,32 +3351,32 @@
       <c r="H10" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="I10" s="140" t="s">
-        <v>244</v>
-      </c>
-      <c r="J10" s="140" t="s">
-        <v>260</v>
-      </c>
-      <c r="K10" s="140" t="s">
-        <v>245</v>
-      </c>
-      <c r="L10" s="141" t="s">
+      <c r="I10" s="136" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="K10" s="136" t="s">
+        <v>243</v>
+      </c>
+      <c r="L10" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="M10" s="140" t="s">
+      <c r="M10" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="N10" s="140" t="s">
+      <c r="N10" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="167"/>
+      <c r="O10" s="162"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="167"/>
+      <c r="B11" s="162"/>
       <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
@@ -3401,7 +3386,7 @@
       <c r="E11" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="166"/>
+      <c r="F11" s="174"/>
       <c r="G11" s="72" t="s">
         <v>128</v>
       </c>
@@ -3409,15 +3394,15 @@
         <v>90</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>247</v>
-      </c>
-      <c r="L11" s="142" t="s">
+        <v>245</v>
+      </c>
+      <c r="L11" s="138" t="s">
         <v>154</v>
       </c>
       <c r="M11" s="47" t="s">
@@ -3426,7 +3411,7 @@
       <c r="N11" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="168"/>
+      <c r="O11" s="163"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
@@ -3435,7 +3420,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="167" t="s">
+      <c r="B12" s="162" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -3447,14 +3432,14 @@
       <c r="E12" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="176" t="s">
+      <c r="F12" s="180" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="53" t="s">
         <v>132</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>176</v>
@@ -3463,18 +3448,18 @@
         <v>188</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L12" s="70" t="s">
         <v>151</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="164" t="s">
+      <c r="O12" s="161" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
@@ -3485,7 +3470,7 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="167"/>
+      <c r="B13" s="162"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
@@ -3495,12 +3480,12 @@
       <c r="E13" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="176"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="61" t="s">
         <v>132</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>176</v>
@@ -3520,7 +3505,7 @@
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="167"/>
+      <c r="O13" s="162"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
@@ -3529,7 +3514,7 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="167"/>
+      <c r="B14" s="162"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
@@ -3539,12 +3524,12 @@
       <c r="E14" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="54" t="s">
         <v>132</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>176</v>
@@ -3553,7 +3538,7 @@
         <v>189</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="L14" s="71" t="s">
         <v>151</v>
@@ -3564,7 +3549,7 @@
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="167"/>
+      <c r="O14" s="162"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
@@ -3573,7 +3558,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="162" t="s">
+      <c r="B15" s="159" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3585,7 +3570,7 @@
       <c r="E15" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="178"/>
+      <c r="F15" s="182"/>
       <c r="G15" s="58" t="s">
         <v>158</v>
       </c>
@@ -3610,7 +3595,7 @@
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="162" t="s">
+      <c r="O15" s="159" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -3621,17 +3606,17 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E16" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="159" t="s">
+      <c r="F16" s="170" t="s">
         <v>120</v>
       </c>
       <c r="G16" s="85" t="s">
@@ -3658,14 +3643,14 @@
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="163"/>
+      <c r="O16" s="160"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="163"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
@@ -3675,49 +3660,49 @@
       <c r="E17" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="160"/>
+      <c r="F17" s="171"/>
       <c r="G17" s="84" t="s">
         <v>179</v>
       </c>
       <c r="H17" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="136" t="s">
         <v>177</v>
       </c>
-      <c r="J17" s="140" t="s">
+      <c r="J17" s="136" t="s">
+        <v>261</v>
+      </c>
+      <c r="K17" s="136" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="137" t="s">
+        <v>194</v>
+      </c>
+      <c r="M17" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="K17" s="140" t="s">
-        <v>159</v>
-      </c>
-      <c r="L17" s="141" t="s">
-        <v>194</v>
-      </c>
-      <c r="M17" s="140" t="s">
-        <v>265</v>
-      </c>
-      <c r="N17" s="140" t="s">
+      <c r="N17" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="163"/>
+      <c r="O17" s="160"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E18" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="160"/>
+      <c r="F18" s="171"/>
       <c r="G18" s="54" t="s">
         <v>129</v>
       </c>
@@ -3731,7 +3716,7 @@
         <v>165</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="L18" s="71" t="s">
         <v>153</v>
@@ -3742,7 +3727,7 @@
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="163"/>
+      <c r="O18" s="160"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
@@ -3751,7 +3736,7 @@
       </c>
     </row>
     <row r="19" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="163"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
@@ -3761,7 +3746,7 @@
       <c r="E19" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="161"/>
+      <c r="F19" s="172"/>
       <c r="G19" s="58" t="s">
         <v>138</v>
       </c>
@@ -3781,24 +3766,24 @@
         <v>153</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="163"/>
+      <c r="O19" s="160"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
       <c r="Q19" s="8"/>
     </row>
     <row r="20" spans="2:17" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="163"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E20" s="106" t="s">
         <v>116</v>
@@ -3812,42 +3797,42 @@
       <c r="H20" s="60" t="s">
         <v>155</v>
       </c>
-      <c r="I20" s="211" t="s">
+      <c r="I20" s="139" t="s">
         <v>156</v>
       </c>
-      <c r="J20" s="211" t="s">
+      <c r="J20" s="139" t="s">
+        <v>273</v>
+      </c>
+      <c r="K20" s="139" t="s">
+        <v>245</v>
+      </c>
+      <c r="L20" s="140" t="s">
+        <v>153</v>
+      </c>
+      <c r="M20" s="139" t="s">
         <v>275</v>
       </c>
-      <c r="K20" s="211" t="s">
-        <v>247</v>
-      </c>
-      <c r="L20" s="212" t="s">
-        <v>153</v>
-      </c>
-      <c r="M20" s="211" t="s">
-        <v>277</v>
-      </c>
-      <c r="N20" s="211" t="s">
+      <c r="N20" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="163"/>
+      <c r="O20" s="160"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="164"/>
+      <c r="B21" s="161"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="179" t="s">
+      <c r="F21" s="183" t="s">
         <v>169</v>
       </c>
       <c r="G21" s="53" t="s">
@@ -3856,32 +3841,32 @@
       <c r="H21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="I21" s="140" t="s">
+      <c r="I21" s="136" t="s">
         <v>156</v>
       </c>
-      <c r="J21" s="140" t="s">
+      <c r="J21" s="136" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="140" t="s">
-        <v>247</v>
-      </c>
-      <c r="L21" s="141" t="s">
+      <c r="K21" s="136" t="s">
+        <v>245</v>
+      </c>
+      <c r="L21" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="M21" s="140" t="s">
-        <v>203</v>
-      </c>
-      <c r="N21" s="140" t="s">
+      <c r="M21" s="136" t="s">
+        <v>202</v>
+      </c>
+      <c r="N21" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="164"/>
+      <c r="O21" s="161"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="2:17" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="136" t="s">
+      <c r="B22" s="132" t="s">
         <v>50</v>
       </c>
       <c r="C22" s="40" t="s">
@@ -3893,7 +3878,7 @@
       <c r="E22" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="166"/>
+      <c r="F22" s="174"/>
       <c r="G22" s="58" t="s">
         <v>173</v>
       </c>
@@ -3906,17 +3891,19 @@
       <c r="J22" s="47" t="s">
         <v>197</v>
       </c>
-      <c r="K22" s="47"/>
-      <c r="L22" s="142" t="s">
+      <c r="K22" s="47" t="s">
+        <v>283</v>
+      </c>
+      <c r="L22" s="138" t="s">
         <v>152</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="167" t="s">
+      <c r="O22" s="162" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3925,7 +3912,7 @@
       <c r="Q22" s="8"/>
     </row>
     <row r="23" spans="2:17" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="162" t="s">
+      <c r="B23" s="159" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -3937,7 +3924,7 @@
       <c r="E23" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="217" t="s">
+      <c r="F23" s="178" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="54" t="s">
@@ -3946,32 +3933,32 @@
       <c r="H23" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="I23" s="213" t="s">
+      <c r="I23" s="141" t="s">
         <v>167</v>
       </c>
-      <c r="J23" s="216" t="s">
+      <c r="J23" s="144" t="s">
+        <v>269</v>
+      </c>
+      <c r="K23" s="144" t="s">
+        <v>270</v>
+      </c>
+      <c r="L23" s="142" t="s">
+        <v>152</v>
+      </c>
+      <c r="M23" s="144" t="s">
         <v>271</v>
       </c>
-      <c r="K23" s="216" t="s">
-        <v>272</v>
-      </c>
-      <c r="L23" s="214" t="s">
-        <v>152</v>
-      </c>
-      <c r="M23" s="216" t="s">
-        <v>273</v>
-      </c>
-      <c r="N23" s="213" t="s">
+      <c r="N23" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="167"/>
+      <c r="O23" s="162"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="163"/>
+      <c r="B24" s="160"/>
       <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
@@ -3981,7 +3968,7 @@
       <c r="E24" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="217"/>
+      <c r="F24" s="178"/>
       <c r="G24" s="71" t="s">
         <v>174</v>
       </c>
@@ -4001,19 +3988,19 @@
         <v>152</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="167"/>
+      <c r="O24" s="162"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="164"/>
+    <row r="25" spans="2:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="161"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
@@ -4023,7 +4010,7 @@
       <c r="E25" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="218"/>
+      <c r="F25" s="179"/>
       <c r="G25" s="54" t="s">
         <v>147</v>
       </c>
@@ -4033,25 +4020,29 @@
       <c r="I25" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>282</v>
+      </c>
       <c r="L25" s="71" t="s">
         <v>152</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>199</v>
+        <v>41</v>
       </c>
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="167"/>
+      <c r="O25" s="162"/>
       <c r="P25" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="Q25" s="1"/>
     </row>
     <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="167" t="s">
+      <c r="B26" s="162" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -4063,11 +4054,11 @@
       <c r="E26" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="173" t="s">
+      <c r="F26" s="176" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>137</v>
@@ -4076,21 +4067,21 @@
         <v>156</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K26" s="113" t="s">
-        <v>247</v>
-      </c>
-      <c r="L26" s="137" t="s">
-        <v>259</v>
+        <v>245</v>
+      </c>
+      <c r="L26" s="133" t="s">
+        <v>257</v>
       </c>
       <c r="M26" s="113" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N26" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="167" t="s">
+      <c r="O26" s="162" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -4099,19 +4090,19 @@
       <c r="Q26" s="1"/>
     </row>
     <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="169"/>
+      <c r="B27" s="167"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="139" t="s">
+      <c r="E27" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="174"/>
+      <c r="F27" s="177"/>
       <c r="G27" s="56" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>136</v>
@@ -4120,21 +4111,21 @@
         <v>156</v>
       </c>
       <c r="J27" s="114" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K27" s="114" t="s">
-        <v>247</v>
-      </c>
-      <c r="L27" s="138" t="s">
-        <v>259</v>
+        <v>245</v>
+      </c>
+      <c r="L27" s="134" t="s">
+        <v>257</v>
       </c>
       <c r="M27" s="114" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N27" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="169"/>
+      <c r="O27" s="167"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
@@ -4143,104 +4134,102 @@
     <row r="28" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C28" s="112"/>
       <c r="D28" t="s">
-        <v>266</v>
-      </c>
-      <c r="G28" s="215"/>
+        <v>264</v>
+      </c>
+      <c r="G28" s="143"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.3">
       <c r="C29" s="95"/>
       <c r="D29" t="s">
-        <v>227</v>
-      </c>
-      <c r="G29" s="143"/>
-      <c r="H29" s="144"/>
-      <c r="I29" s="144"/>
-      <c r="J29" s="144"/>
-      <c r="K29" s="144"/>
-      <c r="L29" s="144"/>
-      <c r="M29" s="144"/>
-      <c r="N29" s="144"/>
-      <c r="O29" s="144"/>
-      <c r="P29" s="144"/>
-      <c r="Q29" s="144"/>
+        <v>225</v>
+      </c>
+      <c r="G29" s="145"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="146"/>
+      <c r="K29" s="146"/>
+      <c r="L29" s="146"/>
+      <c r="M29" s="146"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="146"/>
+      <c r="P29" s="146"/>
+      <c r="Q29" s="146"/>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G30" s="143" t="s">
-        <v>225</v>
-      </c>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="144"/>
-      <c r="K30" s="144"/>
-      <c r="L30" s="144"/>
-      <c r="M30" s="144"/>
-      <c r="N30" s="144"/>
-      <c r="O30" s="144"/>
-      <c r="P30" s="144"/>
-      <c r="Q30" s="144"/>
+      <c r="G30" s="145" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="146"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="146"/>
+      <c r="K30" s="146"/>
+      <c r="L30" s="146"/>
+      <c r="M30" s="146"/>
+      <c r="N30" s="146"/>
+      <c r="O30" s="146"/>
+      <c r="P30" s="146"/>
+      <c r="Q30" s="146"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G31" s="143" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="144"/>
-      <c r="K31" s="144"/>
-      <c r="L31" s="144"/>
-      <c r="M31" s="144"/>
-      <c r="N31" s="144"/>
-      <c r="O31" s="144"/>
-      <c r="P31" s="144"/>
-      <c r="Q31" s="144"/>
+      <c r="G31" s="145" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="146"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="146"/>
+      <c r="K31" s="146"/>
+      <c r="L31" s="146"/>
+      <c r="M31" s="146"/>
+      <c r="N31" s="146"/>
+      <c r="O31" s="146"/>
+      <c r="P31" s="146"/>
+      <c r="Q31" s="146"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G32" s="143" t="s">
+      <c r="G32" s="145" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="146"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="146"/>
+      <c r="K32" s="146"/>
+      <c r="L32" s="146"/>
+      <c r="M32" s="146"/>
+      <c r="N32" s="146"/>
+      <c r="O32" s="146"/>
+      <c r="P32" s="146"/>
+      <c r="Q32" s="146"/>
+    </row>
+    <row r="33" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G33" s="145" t="s">
         <v>224</v>
       </c>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="144"/>
-      <c r="K32" s="144"/>
-      <c r="L32" s="144"/>
-      <c r="M32" s="144"/>
-      <c r="N32" s="144"/>
-      <c r="O32" s="144"/>
-      <c r="P32" s="144"/>
-      <c r="Q32" s="144"/>
-    </row>
-    <row r="33" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G33" s="143" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="144"/>
-      <c r="P33" s="144"/>
-      <c r="Q33" s="144"/>
+      <c r="H33" s="146"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="146"/>
+      <c r="K33" s="146"/>
+      <c r="L33" s="146"/>
+      <c r="M33" s="146"/>
+      <c r="N33" s="146"/>
+      <c r="O33" s="146"/>
+      <c r="P33" s="146"/>
+      <c r="Q33" s="146"/>
     </row>
     <row r="35" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G35" s="145"/>
-      <c r="H35" s="146"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="146"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="146"/>
-      <c r="N35" s="146"/>
-      <c r="O35" s="146"/>
-      <c r="P35" s="146"/>
-      <c r="Q35" s="146"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
+      <c r="N35" s="148"/>
+      <c r="O35" s="148"/>
+      <c r="P35" s="148"/>
+      <c r="Q35" s="148"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="G33:Q33"/>
     <mergeCell ref="O22:O25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="O26:O27"/>
@@ -4260,6 +4249,7 @@
     <mergeCell ref="F16:F19"/>
     <mergeCell ref="B15:B21"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="O15:O21"/>
     <mergeCell ref="O5:O6"/>
     <mergeCell ref="O7:O11"/>
@@ -4276,6 +4266,7 @@
     <mergeCell ref="G35:Q35"/>
     <mergeCell ref="G32:Q32"/>
     <mergeCell ref="G31:Q31"/>
+    <mergeCell ref="G33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4295,11 +4286,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C4E0677-B131-47E3-B38A-B65DD9F3F371}">
-  <dimension ref="B1:T29"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K23" sqref="K23"/>
+    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4315,123 +4306,117 @@
     <col min="9" max="9" width="17.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.25" customWidth="1"/>
     <col min="11" max="11" width="40.25" customWidth="1"/>
-    <col min="12" max="12" width="31.25" customWidth="1"/>
-    <col min="13" max="13" width="27.125" customWidth="1"/>
-    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="12" max="12" width="34.875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="33.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.75" customWidth="1"/>
     <col min="15" max="15" width="25.875" customWidth="1"/>
     <col min="16" max="16" width="23.5" customWidth="1"/>
-    <col min="17" max="17" width="41" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="186" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="187"/>
+    <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="190" t="s">
+        <v>207</v>
+      </c>
+      <c r="K1" s="191"/>
       <c r="L1" s="109"/>
       <c r="M1" s="108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="N1" s="108"/>
       <c r="O1" s="108"/>
       <c r="P1" s="108"/>
       <c r="Q1" s="108" t="s">
-        <v>210</v>
-      </c>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-    </row>
-    <row r="2" spans="2:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="190" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="194" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="181" t="s">
+      <c r="C2" s="184" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="183" t="s">
+      <c r="E2" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="183" t="s">
-        <v>201</v>
-      </c>
-      <c r="G2" s="181" t="s">
+      <c r="F2" s="186" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="184" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="181" t="s">
+      <c r="H2" s="184" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="122" t="s">
         <v>106</v>
       </c>
-      <c r="J2" s="129">
+      <c r="J2" s="126">
         <v>200</v>
       </c>
-      <c r="K2" s="129">
+      <c r="K2" s="126">
         <v>204</v>
       </c>
-      <c r="L2" s="129">
+      <c r="L2" s="126">
         <v>300</v>
       </c>
-      <c r="M2" s="129">
+      <c r="M2" s="126">
         <v>400</v>
       </c>
-      <c r="N2" s="129">
+      <c r="N2" s="126">
         <v>401</v>
       </c>
-      <c r="O2" s="129">
+      <c r="O2" s="126">
         <v>403</v>
       </c>
-      <c r="P2" s="129">
+      <c r="P2" s="126">
         <v>404</v>
       </c>
-      <c r="Q2" s="129">
+      <c r="Q2" s="126">
         <v>500</v>
       </c>
-      <c r="R2" s="123"/>
-      <c r="S2" s="124"/>
-    </row>
-    <row r="3" spans="2:19" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="191"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="184"/>
-      <c r="G3" s="182"/>
-      <c r="H3" s="182"/>
-      <c r="I3" s="125" t="s">
+    </row>
+    <row r="3" spans="2:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="195"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="185"/>
+      <c r="F3" s="187"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="123" t="s">
         <v>157</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="125" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="125" t="s">
         <v>206</v>
       </c>
-      <c r="K3" s="127" t="s">
-        <v>207</v>
-      </c>
-      <c r="L3" s="127" t="s">
-        <v>242</v>
-      </c>
-      <c r="M3" s="127" t="s">
+      <c r="L3" s="125" t="s">
+        <v>240</v>
+      </c>
+      <c r="M3" s="125" t="s">
+        <v>210</v>
+      </c>
+      <c r="N3" s="125" t="s">
+        <v>217</v>
+      </c>
+      <c r="O3" s="125" t="s">
         <v>211</v>
       </c>
-      <c r="N3" s="127" t="s">
-        <v>219</v>
-      </c>
-      <c r="O3" s="127" t="s">
+      <c r="P3" s="125" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q3" s="125" t="s">
         <v>212</v>
       </c>
-      <c r="P3" s="127" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q3" s="127" t="s">
-        <v>213</v>
-      </c>
-      <c r="R3" s="127"/>
-      <c r="S3" s="128"/>
-    </row>
-    <row r="4" spans="2:19" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="2:17" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="77" t="s">
         <v>117</v>
       </c>
@@ -4441,11 +4426,11 @@
       <c r="D4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="126"/>
+      <c r="E4" s="124"/>
       <c r="F4" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="G4" s="126" t="s">
+      <c r="G4" s="124" t="s">
         <v>115</v>
       </c>
       <c r="H4" s="21" t="s">
@@ -4463,18 +4448,16 @@
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
-      <c r="R4" s="52"/>
-      <c r="S4" s="130"/>
-    </row>
-    <row r="5" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="167"/>
+    </row>
+    <row r="5" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="162"/>
       <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="154" t="s">
+      <c r="E5" s="153" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="70" t="s">
@@ -4498,18 +4481,16 @@
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="167"/>
+    </row>
+    <row r="6" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="162"/>
       <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="154"/>
+      <c r="E6" s="153"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
@@ -4531,11 +4512,9 @@
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="2:19" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="167" t="s">
+    </row>
+    <row r="7" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="162" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -4544,7 +4523,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="154"/>
+      <c r="E7" s="153"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
@@ -4566,18 +4545,16 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="3"/>
-    </row>
-    <row r="8" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="167"/>
+    </row>
+    <row r="8" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="162"/>
       <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="154"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
@@ -4599,18 +4576,16 @@
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="167"/>
+    </row>
+    <row r="9" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="162"/>
       <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="155"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
@@ -4632,18 +4607,16 @@
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
       <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="9"/>
-    </row>
-    <row r="10" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="167"/>
+    </row>
+    <row r="10" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="162"/>
       <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="179" t="s">
+      <c r="E10" s="183" t="s">
         <v>182</v>
       </c>
       <c r="F10" s="70" t="s">
@@ -4659,34 +4632,32 @@
         <f>REST!K10</f>
         <v>MemberDTO</v>
       </c>
-      <c r="J10" s="131" t="s">
-        <v>216</v>
+      <c r="J10" s="127" t="s">
+        <v>215</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="131"/>
+      <c r="M10" s="127"/>
       <c r="N10" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O10" s="10"/>
-      <c r="P10" s="131" t="s">
-        <v>255</v>
+      <c r="P10" s="127" t="s">
+        <v>253</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="R10" s="10"/>
-      <c r="S10" s="11"/>
-    </row>
-    <row r="11" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="167"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="162"/>
       <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="166"/>
+      <c r="E11" s="174"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
@@ -4701,26 +4672,24 @@
         <v>void</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
+        <v>216</v>
+      </c>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
       <c r="M11" s="68"/>
-      <c r="N11" s="132" t="s">
-        <v>215</v>
+      <c r="N11" s="128" t="s">
+        <v>214</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="68" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="R11" s="8"/>
-      <c r="S11" s="9"/>
-    </row>
-    <row r="12" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="162" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -4729,7 +4698,7 @@
       <c r="D12" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="176" t="s">
+      <c r="E12" s="180" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="70" t="s">
@@ -4745,34 +4714,32 @@
         <f>REST!K12</f>
         <v>void</v>
       </c>
-      <c r="J12" s="131" t="s">
-        <v>216</v>
+      <c r="J12" s="127" t="s">
+        <v>215</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="131"/>
+      <c r="M12" s="127"/>
       <c r="N12" s="35" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O12" s="10"/>
-      <c r="P12" s="131" t="s">
-        <v>256</v>
+      <c r="P12" s="127" t="s">
+        <v>254</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="11"/>
-    </row>
-    <row r="13" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="167"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="162"/>
       <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="176"/>
+      <c r="E13" s="180"/>
       <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
@@ -4787,33 +4754,31 @@
         <v>CreatorDTO</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>218</v>
+        <v>281</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R13" s="1"/>
-      <c r="S13" s="3"/>
-    </row>
-    <row r="14" spans="2:19" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="167"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="162"/>
       <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="177"/>
+      <c r="E14" s="181"/>
       <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
@@ -4828,26 +4793,24 @@
         <v>void</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="2"/>
       <c r="N14" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R14" s="1"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="2:19" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="162" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="159" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -4856,7 +4819,7 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="178"/>
+      <c r="E15" s="182"/>
       <c r="F15" s="72" t="s">
         <v>158</v>
       </c>
@@ -4871,34 +4834,32 @@
         <v>List&lt;ProjectDTO&gt;
 int</v>
       </c>
-      <c r="J15" s="132" t="s">
+      <c r="J15" s="128" t="s">
         <v>35</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
-      <c r="N15" s="132" t="s">
-        <v>215</v>
+      <c r="N15" s="128" t="s">
+        <v>214</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="R15" s="8"/>
-      <c r="S15" s="9"/>
-    </row>
-    <row r="16" spans="2:19" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="160"/>
       <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="170" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
@@ -4914,11 +4875,11 @@
         <f>REST!K16</f>
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
-      <c r="J16" s="131" t="s">
-        <v>236</v>
+      <c r="J16" s="127" t="s">
+        <v>234</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -4926,20 +4887,18 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R16" s="10"/>
-      <c r="S16" s="11"/>
-    </row>
-    <row r="17" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="163"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="160"/>
       <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="160"/>
+      <c r="E17" s="171"/>
       <c r="F17" s="84" t="s">
         <v>179</v>
       </c>
@@ -4953,11 +4912,11 @@
         <f>REST!K17</f>
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
-      <c r="J17" s="134" t="s">
-        <v>237</v>
+      <c r="J17" s="130" t="s">
+        <v>235</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4965,20 +4924,18 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R17" s="1"/>
-      <c r="S17" s="3"/>
-    </row>
-    <row r="18" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="163"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="160"/>
       <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="160"/>
+      <c r="E18" s="171"/>
       <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
@@ -4993,7 +4950,7 @@
         <v>ProjectDTO</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -5001,23 +4958,21 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="3"/>
-    </row>
-    <row r="19" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="163"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="160"/>
       <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="161"/>
+      <c r="E19" s="172"/>
       <c r="F19" s="72" t="s">
         <v>138</v>
       </c>
@@ -5032,10 +4987,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="8"/>
@@ -5043,13 +4998,11 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R19" s="8"/>
-      <c r="S19" s="9"/>
-    </row>
-    <row r="20" spans="2:20" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="163"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="160"/>
       <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
@@ -5080,18 +5033,16 @@
       <c r="O20" s="52"/>
       <c r="P20" s="52"/>
       <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
-      <c r="S20" s="130"/>
-    </row>
-    <row r="21" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="164"/>
+    </row>
+    <row r="21" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="161"/>
       <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="165" t="s">
+      <c r="E21" s="173" t="s">
         <v>169</v>
       </c>
       <c r="F21" s="73" t="s">
@@ -5107,27 +5058,25 @@
         <f>REST!K21</f>
         <v>void</v>
       </c>
-      <c r="J21" s="131" t="s">
-        <v>216</v>
+      <c r="J21" s="127" t="s">
+        <v>215</v>
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
-      <c r="M21" s="131"/>
+      <c r="M21" s="127"/>
       <c r="N21" s="35" t="s">
-        <v>215</v>
-      </c>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131" t="s">
-        <v>256</v>
+        <v>214</v>
+      </c>
+      <c r="O21" s="127"/>
+      <c r="P21" s="127" t="s">
+        <v>254</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="R21" s="10"/>
-      <c r="S21" s="11"/>
-    </row>
-    <row r="22" spans="2:20" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="162" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -5136,7 +5085,7 @@
       <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="166"/>
+      <c r="E22" s="174"/>
       <c r="F22" s="72" t="s">
         <v>173</v>
       </c>
@@ -5146,38 +5095,36 @@
       <c r="H22" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I22" s="72">
+      <c r="I22" s="72" t="str">
         <f>REST!K22</f>
-        <v>0</v>
+        <v>Map&lt;String,Object)</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
-      <c r="N22" s="132" t="s">
-        <v>215</v>
+      <c r="N22" s="128" t="s">
+        <v>214</v>
       </c>
       <c r="O22" s="68" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P22" s="68"/>
       <c r="Q22" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="R22" s="8"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="167"/>
+        <v>252</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="162"/>
       <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="188" t="s">
+      <c r="E23" s="192" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="73" t="s">
@@ -5198,31 +5145,29 @@
         <v>83</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="45"/>
-    </row>
-    <row r="24" spans="2:20" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="167"/>
+        <v>252</v>
+      </c>
+      <c r="R23" s="45"/>
+    </row>
+    <row r="24" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="162"/>
       <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="175"/>
+      <c r="E24" s="188"/>
       <c r="F24" s="71" t="s">
         <v>174</v>
       </c>
@@ -5237,34 +5182,32 @@
         <v>int</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="2"/>
       <c r="N24" s="55" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="45"/>
-    </row>
-    <row r="25" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="167"/>
+        <v>252</v>
+      </c>
+      <c r="R24" s="45"/>
+    </row>
+    <row r="25" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="162"/>
       <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="189"/>
+      <c r="E25" s="193"/>
       <c r="F25" s="72" t="s">
         <v>147</v>
       </c>
@@ -5274,30 +5217,30 @@
       <c r="H25" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I25" s="72">
+      <c r="I25" s="72" t="str">
         <f>REST!K25</f>
-        <v>0</v>
+        <v>int(함수 return)
+1:성공 -1:오류
+0:실패:재고부족</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K25" s="8"/>
-      <c r="L25" s="135" t="s">
-        <v>234</v>
+      <c r="L25" s="131" t="s">
+        <v>232</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="115"/>
-    </row>
-    <row r="26" spans="2:20" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="167" t="s">
+      <c r="R25" s="115"/>
+    </row>
+    <row r="26" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="162" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -5306,7 +5249,7 @@
       <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="175" t="s">
+      <c r="E26" s="188" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="70" t="s">
@@ -5328,18 +5271,16 @@
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
       <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="2:20" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="169"/>
+    </row>
+    <row r="27" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="167"/>
       <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="185"/>
+      <c r="E27" s="189"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -5359,16 +5300,14 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="5"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K28" s="133" t="s">
-        <v>228</v>
-      </c>
-      <c r="L28" s="133"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="K28" s="129" t="s">
+        <v>226</v>
+      </c>
+      <c r="L28" s="129"/>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="C29" s="95"/>
     </row>
   </sheetData>
@@ -5451,62 +5390,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="209" t="s">
+      <c r="B2" s="213" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="150" t="s">
+      <c r="C2" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="150" t="s">
+      <c r="D2" s="149" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="206" t="s">
+      <c r="E2" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="168" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="150" t="s">
+      <c r="G2" s="149" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="206" t="s">
+      <c r="H2" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="206" t="s">
+      <c r="I2" s="210" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="156" t="s">
+      <c r="J2" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="158"/>
-      <c r="L2" s="156" t="s">
+      <c r="K2" s="157"/>
+      <c r="L2" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="158"/>
-      <c r="N2" s="148" t="s">
+      <c r="M2" s="157"/>
+      <c r="N2" s="165" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="150" t="s">
+      <c r="P2" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="150"/>
-      <c r="R2" s="150"/>
-      <c r="S2" s="150"/>
-      <c r="T2" s="204" t="s">
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="202"/>
+      <c r="U2" s="206"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="210"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="172"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
+      <c r="B3" s="214"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="211"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="158"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -5515,7 +5454,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="149"/>
+      <c r="N3" s="166"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -5529,8 +5468,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="205"/>
-      <c r="U3" s="203"/>
+      <c r="T3" s="209"/>
+      <c r="U3" s="207"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -5571,7 +5510,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="192" t="s">
+      <c r="B5" s="196" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5583,7 +5522,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="195" t="s">
+      <c r="F5" s="199" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5613,7 +5552,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="163"/>
+      <c r="B6" s="160"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5623,7 +5562,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="208"/>
+      <c r="F6" s="212"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5649,7 +5588,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="163"/>
+      <c r="B7" s="160"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5659,7 +5598,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="208"/>
+      <c r="F7" s="212"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5691,7 +5630,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="163"/>
+      <c r="B8" s="160"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5701,7 +5640,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="208"/>
+      <c r="F8" s="212"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5727,7 +5666,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="163"/>
+      <c r="B9" s="160"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5737,7 +5676,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="208"/>
+      <c r="F9" s="212"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5763,7 +5702,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="163"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5773,7 +5712,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="208"/>
+      <c r="F10" s="212"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5802,7 +5741,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="163"/>
+      <c r="B11" s="160"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5812,7 +5751,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="208"/>
+      <c r="F11" s="212"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5844,7 +5783,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="192" t="s">
+      <c r="B12" s="196" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5856,7 +5795,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="199" t="s">
+      <c r="F12" s="203" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5886,7 +5825,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="193"/>
+      <c r="B13" s="197"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5896,7 +5835,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="201"/>
+      <c r="F13" s="205"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5924,7 +5863,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="196" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5936,7 +5875,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="199" t="s">
+      <c r="F14" s="203" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5972,7 +5911,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="163"/>
+      <c r="B15" s="160"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5982,7 +5921,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="200"/>
+      <c r="F15" s="204"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -6010,7 +5949,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="163"/>
+      <c r="B16" s="160"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -6020,7 +5959,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="200"/>
+      <c r="F16" s="204"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -6048,7 +5987,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="163"/>
+      <c r="B17" s="160"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -6058,7 +5997,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="200"/>
+      <c r="F17" s="204"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -6086,7 +6025,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="163"/>
+      <c r="B18" s="160"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -6096,7 +6035,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="201"/>
+      <c r="F18" s="205"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -6124,7 +6063,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="163"/>
+      <c r="B19" s="160"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6134,7 +6073,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="200" t="s">
+      <c r="F19" s="204" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -6164,7 +6103,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="163"/>
+      <c r="B20" s="160"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -6174,7 +6113,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="200"/>
+      <c r="F20" s="204"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -6202,7 +6141,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="193"/>
+      <c r="B21" s="197"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6212,7 +6151,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="201"/>
+      <c r="F21" s="205"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -6240,7 +6179,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="192" t="s">
+      <c r="B22" s="196" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -6252,7 +6191,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="195" t="s">
+      <c r="F22" s="199" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -6282,7 +6221,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="193"/>
+      <c r="B23" s="197"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -6292,7 +6231,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="196"/>
+      <c r="F23" s="200"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -6320,7 +6259,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="192" t="s">
+      <c r="B24" s="196" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -6330,7 +6269,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="197" t="s">
+      <c r="F24" s="201" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -6356,7 +6295,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="194"/>
+      <c r="B25" s="198"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -6364,7 +6303,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="198"/>
+      <c r="F25" s="202"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D7D263-9FD5-45EA-9FDC-C07419BB1D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89B7DD-CCBF-420A-9362-C3B30E44BC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31845" yWindow="3360" windowWidth="21600" windowHeight="13620" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="초안" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">REST!$A$1:$R$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">REST!$A$1:$Q$29</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="286">
   <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -812,9 +812,6 @@
     <t>updateCr</t>
   </si>
   <si>
-    <t>insertCr</t>
-  </si>
-  <si>
     <t>selectCrById</t>
   </si>
   <si>
@@ -1163,10 +1160,6 @@
   </si>
   <si>
     <t>ProjectMainService</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FindMainProjs(String id),FindMainProjs(),</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1187,6 +1180,22 @@
   </si>
   <si>
     <t>Map&lt;String,Object)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀딩 신청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>북마크 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FindMainProjs(String id),FindMainProjs()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1938,7 +1947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2374,6 +2383,114 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2386,115 +2503,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,42 +2539,45 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2555,33 +2594,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2954,11 +2966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
-  <dimension ref="B1:Q35"/>
+  <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2979,60 +2991,58 @@
     <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.25" customWidth="1"/>
     <col min="16" max="16" width="10.375" customWidth="1"/>
-    <col min="17" max="17" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+    <row r="1" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="168" t="s">
+      <c r="F2" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="168" t="s">
-        <v>200</v>
-      </c>
-      <c r="H2" s="149" t="s">
+      <c r="G2" s="155" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="I2" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="156"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="164" t="s">
+      <c r="J2" s="179"/>
+      <c r="K2" s="180"/>
+      <c r="L2" s="172" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="164"/>
-      <c r="N2" s="165" t="s">
+      <c r="M2" s="172"/>
+      <c r="N2" s="173" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="150" t="s">
+      <c r="O2" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="P2" s="149" t="s">
+      <c r="P2" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="149"/>
-    </row>
-    <row r="3" spans="2:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="151"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="158"/>
+    </row>
+    <row r="3" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="154"/>
       <c r="I3" s="67" t="s">
         <v>171</v>
       </c>
@@ -3048,16 +3058,13 @@
       <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="166"/>
-      <c r="O3" s="151"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="152"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="Q3" s="24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:16" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
         <v>117</v>
       </c>
@@ -3071,7 +3078,7 @@
         <v>115</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>80</v>
@@ -3080,10 +3087,10 @@
         <v>72</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>159</v>
@@ -3092,7 +3099,7 @@
         <v>172</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>107</v>
@@ -3103,10 +3110,9 @@
       <c r="P4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="162"/>
+    </row>
+    <row r="5" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="146"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
@@ -3116,7 +3122,7 @@
       <c r="E5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="F5" s="175" t="s">
         <v>118</v>
       </c>
       <c r="G5" s="71" t="s">
@@ -3126,33 +3132,30 @@
         <v>72</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L5" s="71" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O5" s="162"/>
+        <v>246</v>
+      </c>
+      <c r="O5" s="146"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="162"/>
+    </row>
+    <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="146"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
@@ -3162,7 +3165,7 @@
       <c r="E6" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="153"/>
+      <c r="F6" s="176"/>
       <c r="G6" s="71" t="s">
         <v>144</v>
       </c>
@@ -3170,33 +3173,30 @@
         <v>72</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L6" s="70" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="O6" s="162"/>
+        <v>246</v>
+      </c>
+      <c r="O6" s="146"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="Q6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="2:17" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="162" t="s">
+    </row>
+    <row r="7" spans="2:16" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -3208,7 +3208,7 @@
       <c r="E7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="153"/>
+      <c r="F7" s="176"/>
       <c r="G7" s="71" t="s">
         <v>148</v>
       </c>
@@ -3216,13 +3216,13 @@
         <v>89</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>154</v>
@@ -3233,18 +3233,15 @@
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="162" t="s">
+      <c r="O7" s="146" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
+    </row>
+    <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="146"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
@@ -3254,7 +3251,7 @@
       <c r="E8" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="176"/>
       <c r="G8" s="70" t="s">
         <v>145</v>
       </c>
@@ -3262,13 +3259,13 @@
         <v>88</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J8" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>245</v>
       </c>
       <c r="L8" s="70" t="s">
         <v>154</v>
@@ -3279,16 +3276,13 @@
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="162"/>
+      <c r="O8" s="146"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="162"/>
+    </row>
+    <row r="9" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="146"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
@@ -3298,7 +3292,7 @@
       <c r="E9" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="154"/>
+      <c r="F9" s="177"/>
       <c r="G9" s="65" t="s">
         <v>133</v>
       </c>
@@ -3306,13 +3300,13 @@
         <v>88</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="L9" s="72" t="s">
         <v>154</v>
@@ -3323,26 +3317,23 @@
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="162"/>
+      <c r="O9" s="146"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q9" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="162"/>
+    </row>
+    <row r="10" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="146"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E10" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="173" t="s">
+      <c r="F10" s="170" t="s">
         <v>182</v>
       </c>
       <c r="G10" s="70" t="s">
@@ -3352,13 +3343,13 @@
         <v>99</v>
       </c>
       <c r="I10" s="136" t="s">
+        <v>241</v>
+      </c>
+      <c r="J10" s="136" t="s">
+        <v>257</v>
+      </c>
+      <c r="K10" s="136" t="s">
         <v>242</v>
-      </c>
-      <c r="J10" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="K10" s="136" t="s">
-        <v>243</v>
       </c>
       <c r="L10" s="137" t="s">
         <v>154</v>
@@ -3369,14 +3360,13 @@
       <c r="N10" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="162"/>
+      <c r="O10" s="146"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q10" s="6"/>
-    </row>
-    <row r="11" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="162"/>
+    </row>
+    <row r="11" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="146"/>
       <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
@@ -3386,7 +3376,7 @@
       <c r="E11" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="174"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="72" t="s">
         <v>128</v>
       </c>
@@ -3394,13 +3384,13 @@
         <v>90</v>
       </c>
       <c r="I11" s="47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J11" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K11" s="47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L11" s="138" t="s">
         <v>154</v>
@@ -3411,16 +3401,13 @@
       <c r="N11" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="163"/>
+      <c r="O11" s="171"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="Q11" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="162" t="s">
+    </row>
+    <row r="12" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="146" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -3432,14 +3419,14 @@
       <c r="E12" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="180" t="s">
+      <c r="F12" s="161" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="53" t="s">
         <v>132</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>176</v>
@@ -3448,29 +3435,26 @@
         <v>188</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L12" s="70" t="s">
         <v>151</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="161" t="s">
+      <c r="O12" s="149" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="Q12" s="6" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="162"/>
+    </row>
+    <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="146"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
@@ -3480,12 +3464,12 @@
       <c r="E13" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="180"/>
+      <c r="F13" s="161"/>
       <c r="G13" s="61" t="s">
         <v>132</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>176</v>
@@ -3500,21 +3484,18 @@
         <v>151</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="162"/>
+      <c r="O13" s="146"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q13" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="162"/>
+    </row>
+    <row r="14" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="146"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
@@ -3524,12 +3505,12 @@
       <c r="E14" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="181"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="54" t="s">
         <v>132</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>176</v>
@@ -3538,7 +3519,7 @@
         <v>189</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L14" s="71" t="s">
         <v>151</v>
@@ -3549,16 +3530,13 @@
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="162"/>
+      <c r="O14" s="146"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q14" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="159" t="s">
+    </row>
+    <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="147" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3570,7 +3548,7 @@
       <c r="E15" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="58" t="s">
         <v>158</v>
       </c>
@@ -3595,28 +3573,25 @@
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="159" t="s">
+      <c r="O15" s="147" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q15" s="68" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
+    </row>
+    <row r="16" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="148"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="170" t="s">
+      <c r="F16" s="167" t="s">
         <v>120</v>
       </c>
       <c r="G16" s="85" t="s">
@@ -3643,14 +3618,13 @@
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="160"/>
+      <c r="O16" s="148"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="160"/>
+    </row>
+    <row r="17" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="148"/>
       <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
@@ -3660,7 +3634,7 @@
       <c r="E17" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="171"/>
+      <c r="F17" s="168"/>
       <c r="G17" s="84" t="s">
         <v>179</v>
       </c>
@@ -3671,38 +3645,37 @@
         <v>177</v>
       </c>
       <c r="J17" s="136" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K17" s="136" t="s">
         <v>159</v>
       </c>
       <c r="L17" s="137" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M17" s="136" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="N17" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="160"/>
+      <c r="O17" s="148"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="Q17" s="6"/>
-    </row>
-    <row r="18" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="160"/>
+    </row>
+    <row r="18" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="148"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E18" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="171"/>
+      <c r="F18" s="168"/>
       <c r="G18" s="54" t="s">
         <v>129</v>
       </c>
@@ -3716,7 +3689,7 @@
         <v>165</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L18" s="71" t="s">
         <v>153</v>
@@ -3727,16 +3700,13 @@
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="160"/>
+      <c r="O18" s="148"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q18" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="160"/>
+    </row>
+    <row r="19" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="148"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
@@ -3746,7 +3716,7 @@
       <c r="E19" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="172"/>
+      <c r="F19" s="169"/>
       <c r="G19" s="58" t="s">
         <v>138</v>
       </c>
@@ -3757,7 +3727,7 @@
         <v>156</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K19" s="8" t="s">
         <v>159</v>
@@ -3766,24 +3736,23 @@
         <v>153</v>
       </c>
       <c r="M19" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="160"/>
+      <c r="O19" s="148"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="8"/>
-    </row>
-    <row r="20" spans="2:17" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="160"/>
+    </row>
+    <row r="20" spans="2:16" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="148"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
       <c r="D20" s="110" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E20" s="106" t="s">
         <v>116</v>
@@ -3801,38 +3770,37 @@
         <v>156</v>
       </c>
       <c r="J20" s="139" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K20" s="139" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L20" s="140" t="s">
         <v>153</v>
       </c>
       <c r="M20" s="139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N20" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="160"/>
+      <c r="O20" s="148"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="Q20" s="52"/>
-    </row>
-    <row r="21" spans="2:17" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="161"/>
+    </row>
+    <row r="21" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="149"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="183" t="s">
+      <c r="F21" s="164" t="s">
         <v>169</v>
       </c>
       <c r="G21" s="53" t="s">
@@ -3845,27 +3813,26 @@
         <v>156</v>
       </c>
       <c r="J21" s="136" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K21" s="136" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L21" s="137" t="s">
         <v>153</v>
       </c>
       <c r="M21" s="136" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="N21" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="161"/>
+      <c r="O21" s="149"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Q21" s="6"/>
-    </row>
-    <row r="22" spans="2:17" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:16" s="45" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="132" t="s">
         <v>50</v>
       </c>
@@ -3878,7 +3845,7 @@
       <c r="E22" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="174"/>
+      <c r="F22" s="165"/>
       <c r="G22" s="58" t="s">
         <v>173</v>
       </c>
@@ -3889,30 +3856,29 @@
         <v>167</v>
       </c>
       <c r="J22" s="47" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K22" s="47" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="L22" s="138" t="s">
         <v>152</v>
       </c>
       <c r="M22" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="N22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="162" t="s">
+      <c r="O22" s="146" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" spans="2:17" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="159" t="s">
+    </row>
+    <row r="23" spans="2:16" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="147" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -3924,7 +3890,7 @@
       <c r="E23" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="178" t="s">
+      <c r="F23" s="159" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="54" t="s">
@@ -3937,28 +3903,27 @@
         <v>167</v>
       </c>
       <c r="J23" s="144" t="s">
+        <v>268</v>
+      </c>
+      <c r="K23" s="144" t="s">
         <v>269</v>
-      </c>
-      <c r="K23" s="144" t="s">
-        <v>270</v>
       </c>
       <c r="L23" s="142" t="s">
         <v>152</v>
       </c>
       <c r="M23" s="144" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N23" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="162"/>
+      <c r="O23" s="146"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q23" s="1"/>
-    </row>
-    <row r="24" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="160"/>
+    </row>
+    <row r="24" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="148"/>
       <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
@@ -3968,7 +3933,7 @@
       <c r="E24" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="178"/>
+      <c r="F24" s="159"/>
       <c r="G24" s="71" t="s">
         <v>174</v>
       </c>
@@ -3979,7 +3944,7 @@
         <v>167</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>190</v>
@@ -3988,29 +3953,28 @@
         <v>152</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="162"/>
+      <c r="O24" s="146"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q24" s="1"/>
-    </row>
-    <row r="25" spans="2:17" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="161"/>
+    </row>
+    <row r="25" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="149"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="111" t="s">
-        <v>141</v>
+        <v>282</v>
       </c>
       <c r="E25" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="179"/>
+      <c r="F25" s="160"/>
       <c r="G25" s="54" t="s">
         <v>147</v>
       </c>
@@ -4021,10 +3985,10 @@
         <v>167</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="L25" s="71" t="s">
         <v>152</v>
@@ -4035,30 +3999,29 @@
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="162"/>
+      <c r="O25" s="146"/>
       <c r="P25" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="1"/>
-    </row>
-    <row r="26" spans="2:17" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="162" t="s">
+    </row>
+    <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="146" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="87" t="s">
-        <v>13</v>
+        <v>283</v>
       </c>
       <c r="E26" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="176" t="s">
+      <c r="F26" s="157" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>137</v>
@@ -4067,42 +4030,41 @@
         <v>156</v>
       </c>
       <c r="J26" s="113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K26" s="113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L26" s="133" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M26" s="113" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N26" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="162" t="s">
+      <c r="O26" s="146" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q26" s="1"/>
-    </row>
-    <row r="27" spans="2:17" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="167"/>
+    </row>
+    <row r="27" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="150"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="88" t="s">
-        <v>14</v>
+        <v>284</v>
       </c>
       <c r="E27" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="177"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="56" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>136</v>
@@ -4111,125 +4073,138 @@
         <v>156</v>
       </c>
       <c r="J27" s="114" t="s">
+        <v>265</v>
+      </c>
+      <c r="K27" s="114" t="s">
+        <v>244</v>
+      </c>
+      <c r="L27" s="134" t="s">
+        <v>256</v>
+      </c>
+      <c r="M27" s="114" t="s">
         <v>266</v>
-      </c>
-      <c r="K27" s="114" t="s">
-        <v>245</v>
-      </c>
-      <c r="L27" s="134" t="s">
-        <v>257</v>
-      </c>
-      <c r="M27" s="114" t="s">
-        <v>267</v>
       </c>
       <c r="N27" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="167"/>
+      <c r="O27" s="150"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q27" s="4"/>
-    </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C28" s="112"/>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G28" s="143"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" s="95"/>
       <c r="D29" t="s">
-        <v>225</v>
-      </c>
-      <c r="G29" s="145"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="146"/>
-      <c r="Q29" s="146"/>
-    </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G30" s="145" t="s">
+        <v>224</v>
+      </c>
+      <c r="G29" s="181"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G30" s="181" t="s">
+        <v>222</v>
+      </c>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G31" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="G32" s="181" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
+    </row>
+    <row r="33" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G33" s="181" t="s">
         <v>223</v>
       </c>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="146"/>
-      <c r="Q30" s="146"/>
-    </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G31" s="145" t="s">
-        <v>221</v>
-      </c>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="146"/>
-      <c r="Q31" s="146"/>
-    </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="G32" s="145" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="146"/>
-      <c r="Q32" s="146"/>
-    </row>
-    <row r="33" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G33" s="145" t="s">
-        <v>224</v>
-      </c>
-      <c r="H33" s="146"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="146"/>
-      <c r="N33" s="146"/>
-      <c r="O33" s="146"/>
-      <c r="P33" s="146"/>
-      <c r="Q33" s="146"/>
-    </row>
-    <row r="35" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G35" s="147"/>
-      <c r="H35" s="148"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="148"/>
-      <c r="K35" s="148"/>
-      <c r="L35" s="148"/>
-      <c r="M35" s="148"/>
-      <c r="N35" s="148"/>
-      <c r="O35" s="148"/>
-      <c r="P35" s="148"/>
-      <c r="Q35" s="148"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
+    </row>
+    <row r="35" spans="7:16" x14ac:dyDescent="0.3">
+      <c r="G35" s="183"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="184"/>
+      <c r="L35" s="184"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="184"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
+    <mergeCell ref="G29:P29"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="G32:P32"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="G33:P33"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="O22:O25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="O26:O27"/>
@@ -4246,27 +4221,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O15:O21"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="G29:Q29"/>
-    <mergeCell ref="G30:Q30"/>
-    <mergeCell ref="G35:Q35"/>
-    <mergeCell ref="G32:Q32"/>
-    <mergeCell ref="G31:Q31"/>
-    <mergeCell ref="G33:Q33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4289,7 +4243,7 @@
   <dimension ref="B1:R29"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
@@ -4315,41 +4269,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="190" t="s">
-        <v>207</v>
-      </c>
-      <c r="K1" s="191"/>
+      <c r="J1" s="187" t="s">
+        <v>206</v>
+      </c>
+      <c r="K1" s="188"/>
       <c r="L1" s="109"/>
       <c r="M1" s="108" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="N1" s="108"/>
       <c r="O1" s="108"/>
       <c r="P1" s="108"/>
       <c r="Q1" s="108" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="194" t="s">
+      <c r="B2" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="184" t="s">
+      <c r="C2" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="184" t="s">
+      <c r="D2" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="186" t="s">
+      <c r="E2" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="186" t="s">
-        <v>200</v>
-      </c>
-      <c r="G2" s="184" t="s">
+      <c r="F2" s="195" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="184" t="s">
+      <c r="H2" s="191" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="122" t="s">
@@ -4381,39 +4335,39 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="195"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="187"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
       <c r="I3" s="123" t="s">
         <v>157</v>
       </c>
       <c r="J3" s="125" t="s">
+        <v>204</v>
+      </c>
+      <c r="K3" s="125" t="s">
         <v>205</v>
       </c>
-      <c r="K3" s="125" t="s">
-        <v>206</v>
-      </c>
       <c r="L3" s="125" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M3" s="125" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="125" t="s">
+        <v>216</v>
+      </c>
+      <c r="O3" s="125" t="s">
         <v>210</v>
       </c>
-      <c r="N3" s="125" t="s">
-        <v>217</v>
-      </c>
-      <c r="O3" s="125" t="s">
+      <c r="P3" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q3" s="125" t="s">
         <v>211</v>
-      </c>
-      <c r="P3" s="125" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q3" s="125" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4450,14 +4404,14 @@
       <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="162"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="176" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="70" t="s">
@@ -4483,14 +4437,14 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="162"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="153"/>
+      <c r="E6" s="176"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
@@ -4514,7 +4468,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -4523,7 +4477,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="153"/>
+      <c r="E7" s="176"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
@@ -4547,14 +4501,14 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="162"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="153"/>
+      <c r="E8" s="176"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
@@ -4578,14 +4532,14 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="162"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="154"/>
+      <c r="E9" s="177"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
@@ -4609,14 +4563,14 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="162"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="183" t="s">
+      <c r="E10" s="164" t="s">
         <v>182</v>
       </c>
       <c r="F10" s="70" t="s">
@@ -4633,31 +4587,31 @@
         <v>MemberDTO</v>
       </c>
       <c r="J10" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
       <c r="M10" s="127"/>
       <c r="N10" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O10" s="10"/>
       <c r="P10" s="127" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="162"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="174"/>
+      <c r="E11" s="165"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
@@ -4672,24 +4626,24 @@
         <v>void</v>
       </c>
       <c r="J11" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K11" s="128"/>
       <c r="L11" s="128"/>
       <c r="M11" s="68"/>
       <c r="N11" s="128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O11" s="8"/>
       <c r="P11" s="68" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="162" t="s">
+      <c r="B12" s="146" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -4698,7 +4652,7 @@
       <c r="D12" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="180" t="s">
+      <c r="E12" s="161" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="70" t="s">
@@ -4715,31 +4669,31 @@
         <v>void</v>
       </c>
       <c r="J12" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
       <c r="M12" s="127"/>
       <c r="N12" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O12" s="10"/>
       <c r="P12" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="162"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="180"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
@@ -4754,31 +4708,31 @@
         <v>CreatorDTO</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1"/>
       <c r="N13" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="162"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="181"/>
+      <c r="E14" s="162"/>
       <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
@@ -4793,24 +4747,24 @@
         <v>void</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="2"/>
       <c r="N14" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="159" t="s">
+      <c r="B15" s="147" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -4819,7 +4773,7 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="182"/>
+      <c r="E15" s="163"/>
       <c r="F15" s="72" t="s">
         <v>158</v>
       </c>
@@ -4838,28 +4792,28 @@
         <v>35</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
       <c r="Q15" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="170" t="s">
+      <c r="E16" s="167" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
@@ -4876,10 +4830,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J16" s="127" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -4887,18 +4841,18 @@
       <c r="O16" s="10"/>
       <c r="P16" s="10"/>
       <c r="Q16" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="160"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="171"/>
+      <c r="E17" s="168"/>
       <c r="F17" s="84" t="s">
         <v>179</v>
       </c>
@@ -4913,10 +4867,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J17" s="130" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4924,18 +4878,18 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="160"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="171"/>
+      <c r="E18" s="168"/>
       <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
@@ -4950,7 +4904,7 @@
         <v>ProjectDTO</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -4958,21 +4912,21 @@
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="160"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="172"/>
+      <c r="E19" s="169"/>
       <c r="F19" s="72" t="s">
         <v>138</v>
       </c>
@@ -4987,10 +4941,10 @@
         <v>List&lt;ProjectDTO&gt;</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K19" s="68" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L19" s="68"/>
       <c r="M19" s="8"/>
@@ -4998,11 +4952,11 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
       <c r="Q19" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="160"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
@@ -5035,14 +4989,14 @@
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="161"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="173" t="s">
+      <c r="E21" s="170" t="s">
         <v>169</v>
       </c>
       <c r="F21" s="73" t="s">
@@ -5059,24 +5013,24 @@
         <v>void</v>
       </c>
       <c r="J21" s="127" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
       <c r="M21" s="127"/>
       <c r="N21" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O21" s="127"/>
       <c r="P21" s="127" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22" spans="2:18" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="162" t="s">
+      <c r="B22" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -5085,7 +5039,7 @@
       <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="174"/>
+      <c r="E22" s="165"/>
       <c r="F22" s="72" t="s">
         <v>173</v>
       </c>
@@ -5100,31 +5054,31 @@
         <v>Map&lt;String,Object)</v>
       </c>
       <c r="J22" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="K22" s="8"/>
       <c r="L22" s="8"/>
       <c r="M22" s="8"/>
       <c r="N22" s="128" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O22" s="68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P22" s="68"/>
       <c r="Q22" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="23" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="162"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="192" t="s">
+      <c r="E23" s="189" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="73" t="s">
@@ -5145,29 +5099,29 @@
         <v>83</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="34" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
       <c r="Q23" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R23" s="45"/>
     </row>
     <row r="24" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="162"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="188"/>
+      <c r="E24" s="185"/>
       <c r="F24" s="71" t="s">
         <v>174</v>
       </c>
@@ -5182,32 +5136,32 @@
         <v>int</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K24" s="55"/>
       <c r="L24" s="55"/>
       <c r="M24" s="2"/>
       <c r="N24" s="55" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="R24" s="45"/>
     </row>
     <row r="25" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="162"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="193"/>
+      <c r="E25" s="190"/>
       <c r="F25" s="72" t="s">
         <v>147</v>
       </c>
@@ -5224,15 +5178,15 @@
 0:실패:재고부족</v>
       </c>
       <c r="J25" s="68" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K25" s="8"/>
       <c r="L25" s="131" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M25" s="8"/>
       <c r="N25" s="55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
@@ -5240,7 +5194,7 @@
       <c r="R25" s="115"/>
     </row>
     <row r="26" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="162" t="s">
+      <c r="B26" s="146" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -5249,7 +5203,7 @@
       <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="188" t="s">
+      <c r="E26" s="185" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="70" t="s">
@@ -5273,14 +5227,14 @@
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="167"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="189"/>
+      <c r="E27" s="186"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -5303,7 +5257,7 @@
     </row>
     <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="K28" s="129" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L28" s="129"/>
     </row>
@@ -5312,6 +5266,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="J1:K1"/>
@@ -5328,11 +5287,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5390,62 +5344,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="213" t="s">
+      <c r="B2" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="210" t="s">
+      <c r="E2" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="168" t="s">
+      <c r="F2" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="210" t="s">
+      <c r="H2" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="210" t="s">
+      <c r="I2" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="178" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="157"/>
-      <c r="L2" s="155" t="s">
+      <c r="K2" s="180"/>
+      <c r="L2" s="178" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="157"/>
-      <c r="N2" s="165" t="s">
+      <c r="M2" s="180"/>
+      <c r="N2" s="173" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="149" t="s">
+      <c r="P2" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="208" t="s">
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="206"/>
+      <c r="U2" s="204"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="214"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="211"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -5454,7 +5408,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="166"/>
+      <c r="N3" s="174"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -5468,8 +5422,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="209"/>
-      <c r="U3" s="207"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="205"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -5510,7 +5464,7 @@
       <c r="U4" s="23"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="196" t="s">
+      <c r="B5" s="197" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="10" t="s">
@@ -5522,7 +5476,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="199" t="s">
+      <c r="F5" s="198" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5552,7 +5506,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="160"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5562,7 +5516,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="212"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5588,7 +5542,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="160"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5598,7 +5552,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="212"/>
+      <c r="F7" s="199"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5630,7 +5584,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="160"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5640,7 +5594,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="212"/>
+      <c r="F8" s="199"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5666,7 +5620,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="160"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5676,7 +5630,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="212"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5702,7 +5656,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="160"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5712,7 +5666,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="212"/>
+      <c r="F10" s="199"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5741,7 +5695,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="160"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5751,7 +5705,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="212"/>
+      <c r="F11" s="199"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5783,7 +5737,7 @@
       <c r="U11" s="3"/>
     </row>
     <row r="12" spans="2:28" ht="33.75" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="196" t="s">
+      <c r="B12" s="197" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="10" t="s">
@@ -5795,7 +5749,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="203" t="s">
+      <c r="F12" s="213" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5825,7 +5779,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="197"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5835,7 +5789,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="205"/>
+      <c r="F13" s="215"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5863,7 +5817,7 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="196" t="s">
+      <c r="B14" s="197" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -5875,7 +5829,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="203" t="s">
+      <c r="F14" s="213" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5911,7 +5865,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="160"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5921,7 +5875,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="204"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5949,7 +5903,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="160"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -5959,7 +5913,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="204"/>
+      <c r="F16" s="214"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5987,7 +5941,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="160"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -5997,7 +5951,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="204"/>
+      <c r="F17" s="214"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -6025,7 +5979,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="160"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -6035,7 +5989,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="205"/>
+      <c r="F18" s="215"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -6063,7 +6017,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="160"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6073,7 +6027,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="204" t="s">
+      <c r="F19" s="214" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -6103,7 +6057,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="160"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -6113,7 +6067,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="204"/>
+      <c r="F20" s="214"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -6141,7 +6095,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="197"/>
+      <c r="B21" s="208"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6151,7 +6105,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="205"/>
+      <c r="F21" s="215"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -6179,7 +6133,7 @@
       <c r="U21" s="9"/>
     </row>
     <row r="22" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="196" t="s">
+      <c r="B22" s="197" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -6191,7 +6145,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="199" t="s">
+      <c r="F22" s="198" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -6221,7 +6175,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="197"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -6231,7 +6185,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="200"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -6259,7 +6213,7 @@
       <c r="U23" s="9"/>
     </row>
     <row r="24" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="196" t="s">
+      <c r="B24" s="197" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -6269,7 +6223,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="201" t="s">
+      <c r="F24" s="211" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -6295,7 +6249,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="198"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -6303,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="202"/>
+      <c r="F25" s="212"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -6358,13 +6312,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="P2:S2"/>
@@ -6374,15 +6330,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E89B7DD-CCBF-420A-9362-C3B30E44BC85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19976E-2CB7-49C1-96CB-7ACB8C879B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="36195" yWindow="9885" windowWidth="21600" windowHeight="13620" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="4" r:id="rId1"/>
@@ -2386,31 +2386,88 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,94 +2500,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2539,12 +2515,78 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2552,48 +2594,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2968,9 +2968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2995,40 +2995,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="150" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="153" t="s">
+      <c r="E2" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="174" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="155" t="s">
+      <c r="G2" s="174" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="153" t="s">
+      <c r="H2" s="158" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="178" t="s">
+      <c r="I2" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="179"/>
-      <c r="K2" s="180"/>
-      <c r="L2" s="172" t="s">
+      <c r="J2" s="156"/>
+      <c r="K2" s="157"/>
+      <c r="L2" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="172"/>
-      <c r="N2" s="173" t="s">
+      <c r="M2" s="170"/>
+      <c r="N2" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="151" t="s">
+      <c r="O2" s="150" t="s">
         <v>134</v>
       </c>
       <c r="P2" s="145" t="s">
@@ -3036,13 +3036,13 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="152"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="154"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="154"/>
+      <c r="B3" s="151"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="159"/>
       <c r="I3" s="67" t="s">
         <v>171</v>
       </c>
@@ -3058,8 +3058,8 @@
       <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="174"/>
-      <c r="O3" s="152"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="151"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="146"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="E5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="175" t="s">
+      <c r="F5" s="152" t="s">
         <v>118</v>
       </c>
       <c r="G5" s="71" t="s">
@@ -3149,13 +3149,13 @@
       <c r="N5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="146"/>
+      <c r="O5" s="168"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="146"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="E6" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="176"/>
+      <c r="F6" s="153"/>
       <c r="G6" s="71" t="s">
         <v>144</v>
       </c>
@@ -3190,13 +3190,13 @@
       <c r="N6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O6" s="146"/>
+      <c r="O6" s="168"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:16" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="168" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -3208,7 +3208,7 @@
       <c r="E7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="176"/>
+      <c r="F7" s="153"/>
       <c r="G7" s="71" t="s">
         <v>148</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="146" t="s">
+      <c r="O7" s="168" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="146"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="E8" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="176"/>
+      <c r="F8" s="153"/>
       <c r="G8" s="70" t="s">
         <v>145</v>
       </c>
@@ -3276,13 +3276,13 @@
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="146"/>
+      <c r="O8" s="168"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="146"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="E9" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="177"/>
+      <c r="F9" s="154"/>
       <c r="G9" s="65" t="s">
         <v>133</v>
       </c>
@@ -3317,13 +3317,13 @@
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="146"/>
+      <c r="O9" s="168"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="146"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="E10" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="170" t="s">
+      <c r="F10" s="166" t="s">
         <v>182</v>
       </c>
       <c r="G10" s="70" t="s">
@@ -3360,13 +3360,13 @@
       <c r="N10" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="146"/>
+      <c r="O10" s="168"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="146"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="E11" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="165"/>
+      <c r="F11" s="167"/>
       <c r="G11" s="72" t="s">
         <v>128</v>
       </c>
@@ -3401,13 +3401,13 @@
       <c r="N11" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="171"/>
+      <c r="O11" s="169"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="168" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -3419,7 +3419,7 @@
       <c r="E12" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="161" t="s">
+      <c r="F12" s="180" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="53" t="s">
@@ -3446,7 +3446,7 @@
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="149" t="s">
+      <c r="O12" s="165" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
@@ -3454,7 +3454,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="146"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="E13" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="161"/>
+      <c r="F13" s="180"/>
       <c r="G13" s="61" t="s">
         <v>132</v>
       </c>
@@ -3489,13 +3489,13 @@
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="146"/>
+      <c r="O13" s="168"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="146"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="E14" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="162"/>
+      <c r="F14" s="181"/>
       <c r="G14" s="54" t="s">
         <v>132</v>
       </c>
@@ -3530,13 +3530,13 @@
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="146"/>
+      <c r="O14" s="168"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="163" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3548,7 +3548,7 @@
       <c r="E15" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="163"/>
+      <c r="F15" s="182"/>
       <c r="G15" s="58" t="s">
         <v>158</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="147" t="s">
+      <c r="O15" s="163" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -3581,7 +3581,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="148"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="E16" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="167" t="s">
+      <c r="F16" s="160" t="s">
         <v>120</v>
       </c>
       <c r="G16" s="85" t="s">
@@ -3618,13 +3618,13 @@
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="148"/>
+      <c r="O16" s="164"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="148"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="E17" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="168"/>
+      <c r="F17" s="161"/>
       <c r="G17" s="84" t="s">
         <v>179</v>
       </c>
@@ -3659,13 +3659,13 @@
       <c r="N17" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="148"/>
+      <c r="O17" s="164"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="148"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="E18" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="168"/>
+      <c r="F18" s="161"/>
       <c r="G18" s="54" t="s">
         <v>129</v>
       </c>
@@ -3700,13 +3700,13 @@
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="148"/>
+      <c r="O18" s="164"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="148"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="E19" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="169"/>
+      <c r="F19" s="162"/>
       <c r="G19" s="58" t="s">
         <v>138</v>
       </c>
@@ -3741,13 +3741,13 @@
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="148"/>
+      <c r="O19" s="164"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="148"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
@@ -3784,13 +3784,13 @@
       <c r="N20" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="148"/>
+      <c r="O20" s="164"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="149"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="164" t="s">
+      <c r="F21" s="183" t="s">
         <v>169</v>
       </c>
       <c r="G21" s="53" t="s">
@@ -3827,7 +3827,7 @@
       <c r="N21" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="149"/>
+      <c r="O21" s="165"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="E22" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="165"/>
+      <c r="F22" s="167"/>
       <c r="G22" s="58" t="s">
         <v>173</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="N22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="146" t="s">
+      <c r="O22" s="168" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3878,7 +3878,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="147" t="s">
+      <c r="B23" s="163" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -3890,7 +3890,7 @@
       <c r="E23" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="159" t="s">
+      <c r="F23" s="178" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="54" t="s">
@@ -3917,13 +3917,13 @@
       <c r="N23" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="146"/>
+      <c r="O23" s="168"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="148"/>
+      <c r="B24" s="164"/>
       <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="E24" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="159"/>
+      <c r="F24" s="178"/>
       <c r="G24" s="71" t="s">
         <v>174</v>
       </c>
@@ -3958,13 +3958,13 @@
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="146"/>
+      <c r="O24" s="168"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="149"/>
+      <c r="B25" s="165"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="E25" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="160"/>
+      <c r="F25" s="179"/>
       <c r="G25" s="54" t="s">
         <v>147</v>
       </c>
@@ -3999,13 +3999,13 @@
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="146"/>
+      <c r="O25" s="168"/>
       <c r="P25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="168" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -4017,7 +4017,7 @@
       <c r="E26" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="157" t="s">
+      <c r="F26" s="176" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="54" t="s">
@@ -4044,7 +4044,7 @@
       <c r="N26" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="146" t="s">
+      <c r="O26" s="168" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -4052,7 +4052,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="150"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="E27" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="158"/>
+      <c r="F27" s="177"/>
       <c r="G27" s="56" t="s">
         <v>259</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="N27" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="150"/>
+      <c r="O27" s="173"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
@@ -4104,107 +4104,87 @@
       <c r="D29" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="181"/>
-      <c r="H29" s="182"/>
-      <c r="I29" s="182"/>
-      <c r="J29" s="182"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
-      <c r="M29" s="182"/>
-      <c r="N29" s="182"/>
-      <c r="O29" s="182"/>
-      <c r="P29" s="182"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="147"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G30" s="181" t="s">
+      <c r="G30" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="182"/>
-      <c r="I30" s="182"/>
-      <c r="J30" s="182"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
-      <c r="M30" s="182"/>
-      <c r="N30" s="182"/>
-      <c r="O30" s="182"/>
-      <c r="P30" s="182"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="147"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G31" s="181" t="s">
+      <c r="G31" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="182"/>
-      <c r="I31" s="182"/>
-      <c r="J31" s="182"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
-      <c r="M31" s="182"/>
-      <c r="N31" s="182"/>
-      <c r="O31" s="182"/>
-      <c r="P31" s="182"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="147"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G32" s="181" t="s">
+      <c r="G32" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="H32" s="182"/>
-      <c r="I32" s="182"/>
-      <c r="J32" s="182"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="182"/>
-      <c r="M32" s="182"/>
-      <c r="N32" s="182"/>
-      <c r="O32" s="182"/>
-      <c r="P32" s="182"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="147"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G33" s="181" t="s">
+      <c r="G33" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="182"/>
-      <c r="I33" s="182"/>
-      <c r="J33" s="182"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
-      <c r="M33" s="182"/>
-      <c r="N33" s="182"/>
-      <c r="O33" s="182"/>
-      <c r="P33" s="182"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="147"/>
+      <c r="P33" s="147"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G35" s="183"/>
-      <c r="H35" s="184"/>
-      <c r="I35" s="184"/>
-      <c r="J35" s="184"/>
-      <c r="K35" s="184"/>
-      <c r="L35" s="184"/>
-      <c r="M35" s="184"/>
-      <c r="N35" s="184"/>
-      <c r="O35" s="184"/>
-      <c r="P35" s="184"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
+      <c r="N35" s="149"/>
+      <c r="O35" s="149"/>
+      <c r="P35" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="G29:P29"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="G32:P32"/>
-    <mergeCell ref="G31:P31"/>
-    <mergeCell ref="G33:P33"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O15:O21"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="O22:O25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="O26:O27"/>
@@ -4221,6 +4201,26 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="G29:P29"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="G32:P32"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="G33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4269,10 +4269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="187" t="s">
+      <c r="J1" s="191" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="188"/>
+      <c r="K1" s="192"/>
       <c r="L1" s="109"/>
       <c r="M1" s="108" t="s">
         <v>207</v>
@@ -4285,25 +4285,25 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="193" t="s">
+      <c r="B2" s="195" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="191" t="s">
+      <c r="C2" s="185" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="191" t="s">
+      <c r="D2" s="185" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="195" t="s">
+      <c r="E2" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="195" t="s">
+      <c r="F2" s="187" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="191" t="s">
+      <c r="G2" s="185" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="191" t="s">
+      <c r="H2" s="185" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="122" t="s">
@@ -4335,13 +4335,13 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="194"/>
-      <c r="C3" s="192"/>
-      <c r="D3" s="192"/>
-      <c r="E3" s="192"/>
-      <c r="F3" s="196"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="188"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
       <c r="I3" s="123" t="s">
         <v>157</v>
       </c>
@@ -4404,14 +4404,14 @@
       <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="146"/>
+      <c r="B5" s="168"/>
       <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="176" t="s">
+      <c r="E5" s="153" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="70" t="s">
@@ -4437,14 +4437,14 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="146"/>
+      <c r="B6" s="168"/>
       <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="176"/>
+      <c r="E6" s="153"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="146" t="s">
+      <c r="B7" s="168" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -4477,7 +4477,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="176"/>
+      <c r="E7" s="153"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
@@ -4501,14 +4501,14 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="146"/>
+      <c r="B8" s="168"/>
       <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="176"/>
+      <c r="E8" s="153"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
@@ -4532,14 +4532,14 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="146"/>
+      <c r="B9" s="168"/>
       <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="177"/>
+      <c r="E9" s="154"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
@@ -4563,14 +4563,14 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="146"/>
+      <c r="B10" s="168"/>
       <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="164" t="s">
+      <c r="E10" s="183" t="s">
         <v>182</v>
       </c>
       <c r="F10" s="70" t="s">
@@ -4604,14 +4604,14 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="146"/>
+      <c r="B11" s="168"/>
       <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="165"/>
+      <c r="E11" s="167"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
@@ -4643,7 +4643,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="146" t="s">
+      <c r="B12" s="168" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -4652,7 +4652,7 @@
       <c r="D12" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="161" t="s">
+      <c r="E12" s="180" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="70" t="s">
@@ -4686,14 +4686,14 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="146"/>
+      <c r="B13" s="168"/>
       <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="161"/>
+      <c r="E13" s="180"/>
       <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
@@ -4725,14 +4725,14 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="146"/>
+      <c r="B14" s="168"/>
       <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="162"/>
+      <c r="E14" s="181"/>
       <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
@@ -4764,7 +4764,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="147" t="s">
+      <c r="B15" s="163" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -4773,7 +4773,7 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="163"/>
+      <c r="E15" s="182"/>
       <c r="F15" s="72" t="s">
         <v>158</v>
       </c>
@@ -4806,14 +4806,14 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="148"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="167" t="s">
+      <c r="E16" s="160" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
@@ -4845,14 +4845,14 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="148"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="168"/>
+      <c r="E17" s="161"/>
       <c r="F17" s="84" t="s">
         <v>179</v>
       </c>
@@ -4882,14 +4882,14 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="148"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="168"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
@@ -4919,14 +4919,14 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="148"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="169"/>
+      <c r="E19" s="162"/>
       <c r="F19" s="72" t="s">
         <v>138</v>
       </c>
@@ -4956,7 +4956,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="148"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
@@ -4989,14 +4989,14 @@
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="149"/>
+      <c r="B21" s="165"/>
       <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="170" t="s">
+      <c r="E21" s="166" t="s">
         <v>169</v>
       </c>
       <c r="F21" s="73" t="s">
@@ -5030,7 +5030,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="146" t="s">
+      <c r="B22" s="168" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -5039,7 +5039,7 @@
       <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="165"/>
+      <c r="E22" s="167"/>
       <c r="F22" s="72" t="s">
         <v>173</v>
       </c>
@@ -5071,14 +5071,14 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="146"/>
+      <c r="B23" s="168"/>
       <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="189" t="s">
+      <c r="E23" s="193" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="73" t="s">
@@ -5114,14 +5114,14 @@
       <c r="R23" s="45"/>
     </row>
     <row r="24" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="146"/>
+      <c r="B24" s="168"/>
       <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="185"/>
+      <c r="E24" s="189"/>
       <c r="F24" s="71" t="s">
         <v>174</v>
       </c>
@@ -5154,14 +5154,14 @@
       <c r="R24" s="45"/>
     </row>
     <row r="25" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="146"/>
+      <c r="B25" s="168"/>
       <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="190"/>
+      <c r="E25" s="194"/>
       <c r="F25" s="72" t="s">
         <v>147</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="R25" s="115"/>
     </row>
     <row r="26" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="146" t="s">
+      <c r="B26" s="168" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -5203,7 +5203,7 @@
       <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="185" t="s">
+      <c r="E26" s="189" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="70" t="s">
@@ -5227,14 +5227,14 @@
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="150"/>
+      <c r="B27" s="173"/>
       <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="186"/>
+      <c r="E27" s="190"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -5266,11 +5266,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="J1:K1"/>
@@ -5287,6 +5282,11 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5344,62 +5344,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="200" t="s">
+      <c r="B2" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="153" t="s">
+      <c r="D2" s="158" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="202" t="s">
+      <c r="E2" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="155" t="s">
+      <c r="F2" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="153" t="s">
+      <c r="G2" s="158" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="202" t="s">
+      <c r="H2" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="202" t="s">
+      <c r="I2" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="178" t="s">
+      <c r="J2" s="155" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="180"/>
-      <c r="L2" s="178" t="s">
+      <c r="K2" s="157"/>
+      <c r="L2" s="155" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="180"/>
-      <c r="N2" s="173" t="s">
+      <c r="M2" s="157"/>
+      <c r="N2" s="171" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="153" t="s">
+      <c r="P2" s="158" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="206" t="s">
+      <c r="Q2" s="158"/>
+      <c r="R2" s="158"/>
+      <c r="S2" s="158"/>
+      <c r="T2" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="204"/>
+      <c r="U2" s="207"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="201"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="203"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="154"/>
-      <c r="H3" s="203"/>
-      <c r="I3" s="203"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="175"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -5408,7 +5408,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="174"/>
+      <c r="N3" s="172"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -5422,8 +5422,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="207"/>
-      <c r="U3" s="205"/>
+      <c r="T3" s="210"/>
+      <c r="U3" s="208"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -5476,7 +5476,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="198" t="s">
+      <c r="F5" s="200" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5506,7 +5506,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="148"/>
+      <c r="B6" s="164"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="199"/>
+      <c r="F6" s="213"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="148"/>
+      <c r="B7" s="164"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="199"/>
+      <c r="F7" s="213"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5584,7 +5584,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="148"/>
+      <c r="B8" s="164"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="199"/>
+      <c r="F8" s="213"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="148"/>
+      <c r="B9" s="164"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="199"/>
+      <c r="F9" s="213"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="148"/>
+      <c r="B10" s="164"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="199"/>
+      <c r="F10" s="213"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5695,7 +5695,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="148"/>
+      <c r="B11" s="164"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="199"/>
+      <c r="F11" s="213"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="213" t="s">
+      <c r="F12" s="204" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5779,7 +5779,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="208"/>
+      <c r="B13" s="198"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="215"/>
+      <c r="F13" s="206"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="213" t="s">
+      <c r="F14" s="204" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5865,7 +5865,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="148"/>
+      <c r="B15" s="164"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="214"/>
+      <c r="F15" s="205"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="148"/>
+      <c r="B16" s="164"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="214"/>
+      <c r="F16" s="205"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="148"/>
+      <c r="B17" s="164"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="214"/>
+      <c r="F17" s="205"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="148"/>
+      <c r="B18" s="164"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="215"/>
+      <c r="F18" s="206"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="148"/>
+      <c r="B19" s="164"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="214" t="s">
+      <c r="F19" s="205" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -6057,7 +6057,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="148"/>
+      <c r="B20" s="164"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="214"/>
+      <c r="F20" s="205"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="208"/>
+      <c r="B21" s="198"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="215"/>
+      <c r="F21" s="206"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="198" t="s">
+      <c r="F22" s="200" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -6175,7 +6175,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="208"/>
+      <c r="B23" s="198"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="210"/>
+      <c r="F23" s="201"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="211" t="s">
+      <c r="F24" s="202" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -6249,7 +6249,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="209"/>
+      <c r="B25" s="199"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="212"/>
+      <c r="F25" s="203"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -6312,6 +6312,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="B14:B21"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B22:B23"/>
@@ -6321,22 +6337,6 @@
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="F19:F21"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/공유폴더/REST설계.xlsx
+++ b/공유폴더/REST설계.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\219\myspringboot\kkfd\공유폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D19976E-2CB7-49C1-96CB-7ACB8C879B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9379C942-EFF8-49BE-819F-0D8561C69623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36195" yWindow="9885" windowWidth="21600" windowHeight="13620" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
+    <workbookView xWindow="28680" yWindow="1635" windowWidth="29040" windowHeight="15840" xr2:uid="{77874C4B-F0CC-4F91-8639-CFD8FFB6BE57}"/>
   </bookViews>
   <sheets>
     <sheet name="REST" sheetId="4" r:id="rId1"/>
@@ -2386,6 +2386,111 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2398,115 +2503,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2515,42 +2539,45 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2567,33 +2594,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2968,9 +2968,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00F0F0C-FD1C-44BC-9758-3D9C8AFBD163}">
   <dimension ref="B1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2995,40 +2995,40 @@
   <sheetData>
     <row r="1" spans="2:16" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:16" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="151" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="158" t="s">
+      <c r="E2" s="153" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="155" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="174" t="s">
+      <c r="G2" s="155" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="158" t="s">
+      <c r="H2" s="153" t="s">
         <v>73</v>
       </c>
-      <c r="I2" s="155" t="s">
+      <c r="I2" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="J2" s="156"/>
-      <c r="K2" s="157"/>
-      <c r="L2" s="170" t="s">
+      <c r="J2" s="176"/>
+      <c r="K2" s="177"/>
+      <c r="L2" s="169" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="170"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="169"/>
+      <c r="N2" s="170" t="s">
         <v>74</v>
       </c>
-      <c r="O2" s="150" t="s">
+      <c r="O2" s="151" t="s">
         <v>134</v>
       </c>
       <c r="P2" s="145" t="s">
@@ -3036,13 +3036,13 @@
       </c>
     </row>
     <row r="3" spans="2:16" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="151"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="184"/>
-      <c r="H3" s="159"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="154"/>
       <c r="I3" s="67" t="s">
         <v>171</v>
       </c>
@@ -3058,8 +3058,8 @@
       <c r="M3" s="69" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="172"/>
-      <c r="O3" s="151"/>
+      <c r="N3" s="171"/>
+      <c r="O3" s="152"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
       </c>
@@ -3112,7 +3112,7 @@
       </c>
     </row>
     <row r="5" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="168"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="74" t="s">
         <v>53</v>
       </c>
@@ -3122,7 +3122,7 @@
       <c r="E5" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="152" t="s">
+      <c r="F5" s="172" t="s">
         <v>118</v>
       </c>
       <c r="G5" s="71" t="s">
@@ -3149,13 +3149,13 @@
       <c r="N5" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O5" s="168"/>
+      <c r="O5" s="146"/>
       <c r="P5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="2:16" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="168"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="74" t="s">
         <v>53</v>
       </c>
@@ -3165,7 +3165,7 @@
       <c r="E6" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F6" s="153"/>
+      <c r="F6" s="173"/>
       <c r="G6" s="71" t="s">
         <v>144</v>
       </c>
@@ -3190,13 +3190,13 @@
       <c r="N6" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="O6" s="168"/>
+      <c r="O6" s="146"/>
       <c r="P6" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:16" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="74" t="s">
@@ -3208,7 +3208,7 @@
       <c r="E7" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="F7" s="153"/>
+      <c r="F7" s="173"/>
       <c r="G7" s="71" t="s">
         <v>148</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="N7" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O7" s="168" t="s">
+      <c r="O7" s="146" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="1" t="s">
@@ -3241,7 +3241,7 @@
       </c>
     </row>
     <row r="8" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="168"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="76" t="s">
         <v>54</v>
       </c>
@@ -3251,7 +3251,7 @@
       <c r="E8" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="F8" s="153"/>
+      <c r="F8" s="173"/>
       <c r="G8" s="70" t="s">
         <v>145</v>
       </c>
@@ -3276,13 +3276,13 @@
       <c r="N8" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="168"/>
+      <c r="O8" s="146"/>
       <c r="P8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="168"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="75" t="s">
         <v>53</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="E9" s="102" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="154"/>
+      <c r="F9" s="174"/>
       <c r="G9" s="65" t="s">
         <v>133</v>
       </c>
@@ -3317,13 +3317,13 @@
       <c r="N9" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O9" s="168"/>
+      <c r="O9" s="146"/>
       <c r="P9" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="168"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="76" t="s">
         <v>53</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="E10" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="166" t="s">
+      <c r="F10" s="167" t="s">
         <v>182</v>
       </c>
       <c r="G10" s="70" t="s">
@@ -3360,13 +3360,13 @@
       <c r="N10" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="O10" s="168"/>
+      <c r="O10" s="146"/>
       <c r="P10" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="168"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="75" t="s">
         <v>55</v>
       </c>
@@ -3376,7 +3376,7 @@
       <c r="E11" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="167"/>
+      <c r="F11" s="165"/>
       <c r="G11" s="72" t="s">
         <v>128</v>
       </c>
@@ -3401,13 +3401,13 @@
       <c r="N11" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="O11" s="169"/>
+      <c r="O11" s="168"/>
       <c r="P11" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="146" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="39" t="s">
@@ -3419,7 +3419,7 @@
       <c r="E12" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F12" s="180" t="s">
+      <c r="F12" s="161" t="s">
         <v>119</v>
       </c>
       <c r="G12" s="53" t="s">
@@ -3446,7 +3446,7 @@
       <c r="N12" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="O12" s="165" t="s">
+      <c r="O12" s="149" t="s">
         <v>135</v>
       </c>
       <c r="P12" s="6" t="s">
@@ -3454,7 +3454,7 @@
       </c>
     </row>
     <row r="13" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="168"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="62" t="s">
         <v>53</v>
       </c>
@@ -3464,7 +3464,7 @@
       <c r="E13" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="180"/>
+      <c r="F13" s="161"/>
       <c r="G13" s="61" t="s">
         <v>132</v>
       </c>
@@ -3489,13 +3489,13 @@
       <c r="N13" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="O13" s="168"/>
+      <c r="O13" s="146"/>
       <c r="P13" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="14" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="168"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="42" t="s">
         <v>55</v>
       </c>
@@ -3505,7 +3505,7 @@
       <c r="E14" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="181"/>
+      <c r="F14" s="162"/>
       <c r="G14" s="54" t="s">
         <v>132</v>
       </c>
@@ -3530,13 +3530,13 @@
       <c r="N14" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O14" s="168"/>
+      <c r="O14" s="146"/>
       <c r="P14" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:16" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="147" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -3548,7 +3548,7 @@
       <c r="E15" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="163"/>
       <c r="G15" s="58" t="s">
         <v>158</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="N15" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O15" s="163" t="s">
+      <c r="O15" s="147" t="s">
         <v>4</v>
       </c>
       <c r="P15" s="8" t="s">
@@ -3581,7 +3581,7 @@
       </c>
     </row>
     <row r="16" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="38" t="s">
         <v>53</v>
       </c>
@@ -3591,7 +3591,7 @@
       <c r="E16" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="F16" s="160" t="s">
+      <c r="F16" s="178" t="s">
         <v>120</v>
       </c>
       <c r="G16" s="85" t="s">
@@ -3618,13 +3618,13 @@
       <c r="N16" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="O16" s="164"/>
+      <c r="O16" s="148"/>
       <c r="P16" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="76" t="s">
         <v>53</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="E17" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="F17" s="161"/>
+      <c r="F17" s="179"/>
       <c r="G17" s="84" t="s">
         <v>179</v>
       </c>
@@ -3659,13 +3659,13 @@
       <c r="N17" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="O17" s="164"/>
+      <c r="O17" s="148"/>
       <c r="P17" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="42" t="s">
         <v>53</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="E18" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F18" s="161"/>
+      <c r="F18" s="179"/>
       <c r="G18" s="54" t="s">
         <v>129</v>
       </c>
@@ -3700,13 +3700,13 @@
       <c r="N18" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="O18" s="164"/>
+      <c r="O18" s="148"/>
       <c r="P18" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="164"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
@@ -3716,7 +3716,7 @@
       <c r="E19" s="99" t="s">
         <v>115</v>
       </c>
-      <c r="F19" s="162"/>
+      <c r="F19" s="180"/>
       <c r="G19" s="58" t="s">
         <v>138</v>
       </c>
@@ -3741,13 +3741,13 @@
       <c r="N19" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="O19" s="164"/>
+      <c r="O19" s="148"/>
       <c r="P19" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="2:16" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="164"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="51" t="s">
         <v>54</v>
       </c>
@@ -3784,13 +3784,13 @@
       <c r="N20" s="139" t="s">
         <v>108</v>
       </c>
-      <c r="O20" s="164"/>
+      <c r="O20" s="148"/>
       <c r="P20" s="52" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="21" spans="2:16" ht="30" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="165"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="39" t="s">
         <v>55</v>
       </c>
@@ -3800,7 +3800,7 @@
       <c r="E21" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="F21" s="183" t="s">
+      <c r="F21" s="164" t="s">
         <v>169</v>
       </c>
       <c r="G21" s="53" t="s">
@@ -3827,7 +3827,7 @@
       <c r="N21" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="165"/>
+      <c r="O21" s="149"/>
       <c r="P21" s="6" t="s">
         <v>42</v>
       </c>
@@ -3845,7 +3845,7 @@
       <c r="E22" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="F22" s="167"/>
+      <c r="F22" s="165"/>
       <c r="G22" s="58" t="s">
         <v>173</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>123</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="J22" s="47" t="s">
         <v>196</v>
@@ -3862,7 +3862,7 @@
         <v>281</v>
       </c>
       <c r="L22" s="138" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="47" t="s">
         <v>202</v>
@@ -3870,7 +3870,7 @@
       <c r="N22" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="O22" s="168" t="s">
+      <c r="O22" s="146" t="s">
         <v>7</v>
       </c>
       <c r="P22" s="8" t="s">
@@ -3878,7 +3878,7 @@
       </c>
     </row>
     <row r="23" spans="2:16" ht="39" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="147" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="42" t="s">
@@ -3890,7 +3890,7 @@
       <c r="E23" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="178" t="s">
+      <c r="F23" s="159" t="s">
         <v>126</v>
       </c>
       <c r="G23" s="54" t="s">
@@ -3917,13 +3917,13 @@
       <c r="N23" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="O23" s="168"/>
+      <c r="O23" s="146"/>
       <c r="P23" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="164"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="74" t="s">
         <v>55</v>
       </c>
@@ -3933,7 +3933,7 @@
       <c r="E24" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="F24" s="178"/>
+      <c r="F24" s="159"/>
       <c r="G24" s="71" t="s">
         <v>174</v>
       </c>
@@ -3958,13 +3958,13 @@
       <c r="N24" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="O24" s="168"/>
+      <c r="O24" s="146"/>
       <c r="P24" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="165"/>
+      <c r="B25" s="149"/>
       <c r="C25" s="42" t="s">
         <v>54</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="E25" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F25" s="179"/>
+      <c r="F25" s="160"/>
       <c r="G25" s="54" t="s">
         <v>147</v>
       </c>
@@ -3999,13 +3999,13 @@
       <c r="N25" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="O25" s="168"/>
+      <c r="O25" s="146"/>
       <c r="P25" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="26" spans="2:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="146" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="42" t="s">
@@ -4017,7 +4017,7 @@
       <c r="E26" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F26" s="176" t="s">
+      <c r="F26" s="157" t="s">
         <v>120</v>
       </c>
       <c r="G26" s="54" t="s">
@@ -4044,7 +4044,7 @@
       <c r="N26" s="113" t="s">
         <v>108</v>
       </c>
-      <c r="O26" s="168" t="s">
+      <c r="O26" s="146" t="s">
         <v>62</v>
       </c>
       <c r="P26" s="1" t="s">
@@ -4052,7 +4052,7 @@
       </c>
     </row>
     <row r="27" spans="2:16" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="173"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="41" t="s">
         <v>56</v>
       </c>
@@ -4062,7 +4062,7 @@
       <c r="E27" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="F27" s="177"/>
+      <c r="F27" s="158"/>
       <c r="G27" s="56" t="s">
         <v>259</v>
       </c>
@@ -4087,7 +4087,7 @@
       <c r="N27" s="114" t="s">
         <v>110</v>
       </c>
-      <c r="O27" s="173"/>
+      <c r="O27" s="150"/>
       <c r="P27" s="4" t="s">
         <v>84</v>
       </c>
@@ -4104,87 +4104,107 @@
       <c r="D29" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="146"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="147"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="147"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
-      <c r="O29" s="147"/>
-      <c r="P29" s="147"/>
+      <c r="G29" s="181"/>
+      <c r="H29" s="182"/>
+      <c r="I29" s="182"/>
+      <c r="J29" s="182"/>
+      <c r="K29" s="182"/>
+      <c r="L29" s="182"/>
+      <c r="M29" s="182"/>
+      <c r="N29" s="182"/>
+      <c r="O29" s="182"/>
+      <c r="P29" s="182"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G30" s="146" t="s">
+      <c r="G30" s="181" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="147"/>
-      <c r="I30" s="147"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="147"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
-      <c r="O30" s="147"/>
-      <c r="P30" s="147"/>
+      <c r="H30" s="182"/>
+      <c r="I30" s="182"/>
+      <c r="J30" s="182"/>
+      <c r="K30" s="182"/>
+      <c r="L30" s="182"/>
+      <c r="M30" s="182"/>
+      <c r="N30" s="182"/>
+      <c r="O30" s="182"/>
+      <c r="P30" s="182"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G31" s="146" t="s">
+      <c r="G31" s="181" t="s">
         <v>220</v>
       </c>
-      <c r="H31" s="147"/>
-      <c r="I31" s="147"/>
-      <c r="J31" s="147"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="147"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
-      <c r="O31" s="147"/>
-      <c r="P31" s="147"/>
+      <c r="H31" s="182"/>
+      <c r="I31" s="182"/>
+      <c r="J31" s="182"/>
+      <c r="K31" s="182"/>
+      <c r="L31" s="182"/>
+      <c r="M31" s="182"/>
+      <c r="N31" s="182"/>
+      <c r="O31" s="182"/>
+      <c r="P31" s="182"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="G32" s="146" t="s">
+      <c r="G32" s="181" t="s">
         <v>221</v>
       </c>
-      <c r="H32" s="147"/>
-      <c r="I32" s="147"/>
-      <c r="J32" s="147"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="147"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
-      <c r="O32" s="147"/>
-      <c r="P32" s="147"/>
+      <c r="H32" s="182"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="182"/>
+      <c r="L32" s="182"/>
+      <c r="M32" s="182"/>
+      <c r="N32" s="182"/>
+      <c r="O32" s="182"/>
+      <c r="P32" s="182"/>
     </row>
     <row r="33" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G33" s="146" t="s">
+      <c r="G33" s="181" t="s">
         <v>223</v>
       </c>
-      <c r="H33" s="147"/>
-      <c r="I33" s="147"/>
-      <c r="J33" s="147"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="147"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
-      <c r="O33" s="147"/>
-      <c r="P33" s="147"/>
+      <c r="H33" s="182"/>
+      <c r="I33" s="182"/>
+      <c r="J33" s="182"/>
+      <c r="K33" s="182"/>
+      <c r="L33" s="182"/>
+      <c r="M33" s="182"/>
+      <c r="N33" s="182"/>
+      <c r="O33" s="182"/>
+      <c r="P33" s="182"/>
     </row>
     <row r="35" spans="7:16" x14ac:dyDescent="0.3">
-      <c r="G35" s="148"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
-      <c r="N35" s="149"/>
-      <c r="O35" s="149"/>
-      <c r="P35" s="149"/>
+      <c r="G35" s="183"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="184"/>
+      <c r="J35" s="184"/>
+      <c r="K35" s="184"/>
+      <c r="L35" s="184"/>
+      <c r="M35" s="184"/>
+      <c r="N35" s="184"/>
+      <c r="O35" s="184"/>
+      <c r="P35" s="184"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="G29:P29"/>
+    <mergeCell ref="G30:P30"/>
+    <mergeCell ref="G35:P35"/>
+    <mergeCell ref="G32:P32"/>
+    <mergeCell ref="G31:P31"/>
+    <mergeCell ref="G33:P33"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="O5:O6"/>
+    <mergeCell ref="O7:O11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="F5:F9"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="F16:F19"/>
     <mergeCell ref="O22:O25"/>
     <mergeCell ref="B23:B25"/>
     <mergeCell ref="O26:O27"/>
@@ -4201,26 +4221,6 @@
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B15:B21"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="O15:O21"/>
-    <mergeCell ref="O5:O6"/>
-    <mergeCell ref="O7:O11"/>
-    <mergeCell ref="O12:O14"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="F5:F9"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="F16:F19"/>
-    <mergeCell ref="G29:P29"/>
-    <mergeCell ref="G30:P30"/>
-    <mergeCell ref="G35:P35"/>
-    <mergeCell ref="G32:P32"/>
-    <mergeCell ref="G31:P31"/>
-    <mergeCell ref="G33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -4269,10 +4269,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J1" s="191" t="s">
+      <c r="J1" s="187" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="192"/>
+      <c r="K1" s="188"/>
       <c r="L1" s="109"/>
       <c r="M1" s="108" t="s">
         <v>207</v>
@@ -4285,25 +4285,25 @@
       </c>
     </row>
     <row r="2" spans="2:17" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="195" t="s">
+      <c r="B2" s="193" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="185" t="s">
+      <c r="C2" s="191" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="185" t="s">
+      <c r="D2" s="191" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="195" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="187" t="s">
+      <c r="F2" s="195" t="s">
         <v>199</v>
       </c>
-      <c r="G2" s="185" t="s">
+      <c r="G2" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="H2" s="185" t="s">
+      <c r="H2" s="191" t="s">
         <v>73</v>
       </c>
       <c r="I2" s="122" t="s">
@@ -4335,13 +4335,13 @@
       </c>
     </row>
     <row r="3" spans="2:17" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="196"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="186"/>
-      <c r="F3" s="188"/>
-      <c r="G3" s="186"/>
-      <c r="H3" s="186"/>
+      <c r="B3" s="194"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
       <c r="I3" s="123" t="s">
         <v>157</v>
       </c>
@@ -4404,14 +4404,14 @@
       <c r="Q4" s="52"/>
     </row>
     <row r="5" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="168"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="173" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="70" t="s">
@@ -4437,14 +4437,14 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="168"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="153"/>
+      <c r="E6" s="173"/>
       <c r="F6" s="71" t="s">
         <v>144</v>
       </c>
@@ -4468,7 +4468,7 @@
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="2:17" s="45" customFormat="1" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="146" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="83" t="s">
@@ -4477,7 +4477,7 @@
       <c r="D7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="153"/>
+      <c r="E7" s="173"/>
       <c r="F7" s="71" t="s">
         <v>148</v>
       </c>
@@ -4501,14 +4501,14 @@
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="168"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="81" t="s">
         <v>54</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="153"/>
+      <c r="E8" s="173"/>
       <c r="F8" s="70" t="s">
         <v>145</v>
       </c>
@@ -4532,14 +4532,14 @@
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="168"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="154"/>
+      <c r="E9" s="174"/>
       <c r="F9" s="65" t="s">
         <v>133</v>
       </c>
@@ -4563,14 +4563,14 @@
       <c r="Q9" s="8"/>
     </row>
     <row r="10" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="168"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="183" t="s">
+      <c r="E10" s="164" t="s">
         <v>182</v>
       </c>
       <c r="F10" s="70" t="s">
@@ -4604,14 +4604,14 @@
       </c>
     </row>
     <row r="11" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="168"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="80" t="s">
         <v>55</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="167"/>
+      <c r="E11" s="165"/>
       <c r="F11" s="72" t="s">
         <v>128</v>
       </c>
@@ -4643,7 +4643,7 @@
       </c>
     </row>
     <row r="12" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="168" t="s">
+      <c r="B12" s="146" t="s">
         <v>49</v>
       </c>
       <c r="C12" s="81" t="s">
@@ -4652,7 +4652,7 @@
       <c r="D12" s="30" t="s">
         <v>184</v>
       </c>
-      <c r="E12" s="180" t="s">
+      <c r="E12" s="161" t="s">
         <v>119</v>
       </c>
       <c r="F12" s="70" t="s">
@@ -4686,14 +4686,14 @@
       </c>
     </row>
     <row r="13" spans="2:17" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="168"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="E13" s="180"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="70" t="s">
         <v>132</v>
       </c>
@@ -4725,14 +4725,14 @@
       </c>
     </row>
     <row r="14" spans="2:17" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="168"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="181"/>
+      <c r="E14" s="162"/>
       <c r="F14" s="71" t="s">
         <v>132</v>
       </c>
@@ -4764,7 +4764,7 @@
       </c>
     </row>
     <row r="15" spans="2:17" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="163" t="s">
+      <c r="B15" s="147" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -4773,7 +4773,7 @@
       <c r="D15" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="182"/>
+      <c r="E15" s="163"/>
       <c r="F15" s="72" t="s">
         <v>158</v>
       </c>
@@ -4806,14 +4806,14 @@
       </c>
     </row>
     <row r="16" spans="2:17" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="160" t="s">
+      <c r="E16" s="178" t="s">
         <v>120</v>
       </c>
       <c r="F16" s="85" t="s">
@@ -4845,14 +4845,14 @@
       </c>
     </row>
     <row r="17" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="81" t="s">
         <v>53</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="E17" s="161"/>
+      <c r="E17" s="179"/>
       <c r="F17" s="84" t="s">
         <v>179</v>
       </c>
@@ -4882,14 +4882,14 @@
       </c>
     </row>
     <row r="18" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="164"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="83" t="s">
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="161"/>
+      <c r="E18" s="179"/>
       <c r="F18" s="71" t="s">
         <v>129</v>
       </c>
@@ -4919,14 +4919,14 @@
       </c>
     </row>
     <row r="19" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="164"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="80" t="s">
         <v>53</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="162"/>
+      <c r="E19" s="180"/>
       <c r="F19" s="72" t="s">
         <v>138</v>
       </c>
@@ -4956,7 +4956,7 @@
       </c>
     </row>
     <row r="20" spans="2:18" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="164"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="78" t="s">
         <v>54</v>
       </c>
@@ -4989,14 +4989,14 @@
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="165"/>
+      <c r="B21" s="149"/>
       <c r="C21" s="79" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="166" t="s">
+      <c r="E21" s="167" t="s">
         <v>169</v>
       </c>
       <c r="F21" s="73" t="s">
@@ -5030,7 +5030,7 @@
       </c>
     </row>
     <row r="22" spans="2:18" s="45" customFormat="1" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="168" t="s">
+      <c r="B22" s="146" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="80" t="s">
@@ -5039,7 +5039,7 @@
       <c r="D22" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="167"/>
+      <c r="E22" s="165"/>
       <c r="F22" s="72" t="s">
         <v>173</v>
       </c>
@@ -5071,14 +5071,14 @@
       </c>
     </row>
     <row r="23" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="168"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="79" t="s">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
         <v>181</v>
       </c>
-      <c r="E23" s="193" t="s">
+      <c r="E23" s="189" t="s">
         <v>126</v>
       </c>
       <c r="F23" s="73" t="s">
@@ -5114,14 +5114,14 @@
       <c r="R23" s="45"/>
     </row>
     <row r="24" spans="2:18" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="168"/>
+      <c r="B24" s="146"/>
       <c r="C24" s="83" t="s">
         <v>55</v>
       </c>
       <c r="D24" s="113" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="189"/>
+      <c r="E24" s="185"/>
       <c r="F24" s="71" t="s">
         <v>174</v>
       </c>
@@ -5154,14 +5154,14 @@
       <c r="R24" s="45"/>
     </row>
     <row r="25" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="168"/>
+      <c r="B25" s="146"/>
       <c r="C25" s="80" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="59" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="194"/>
+      <c r="E25" s="190"/>
       <c r="F25" s="72" t="s">
         <v>147</v>
       </c>
@@ -5194,7 +5194,7 @@
       <c r="R25" s="115"/>
     </row>
     <row r="26" spans="2:18" ht="35.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="168" t="s">
+      <c r="B26" s="146" t="s">
         <v>62</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -5203,7 +5203,7 @@
       <c r="D26" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="189" t="s">
+      <c r="E26" s="185" t="s">
         <v>121</v>
       </c>
       <c r="F26" s="70" t="s">
@@ -5227,14 +5227,14 @@
       <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:18" ht="35.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="173"/>
+      <c r="B27" s="150"/>
       <c r="C27" s="82" t="s">
         <v>56</v>
       </c>
       <c r="D27" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="190"/>
+      <c r="E27" s="186"/>
       <c r="F27" s="56" t="s">
         <v>130</v>
       </c>
@@ -5266,6 +5266,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
     <mergeCell ref="B26:B27"/>
     <mergeCell ref="E26:E27"/>
     <mergeCell ref="J1:K1"/>
@@ -5282,11 +5287,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -5344,62 +5344,62 @@
       </c>
     </row>
     <row r="2" spans="2:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="214" t="s">
+      <c r="B2" s="200" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="158" t="s">
+      <c r="C2" s="153" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="158" t="s">
+      <c r="D2" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="211" t="s">
+      <c r="E2" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="174" t="s">
+      <c r="F2" s="155" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="G2" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="211" t="s">
+      <c r="H2" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="I2" s="211" t="s">
+      <c r="I2" s="202" t="s">
         <v>73</v>
       </c>
-      <c r="J2" s="155" t="s">
+      <c r="J2" s="175" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="157"/>
-      <c r="L2" s="155" t="s">
+      <c r="K2" s="177"/>
+      <c r="L2" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="M2" s="157"/>
-      <c r="N2" s="171" t="s">
+      <c r="M2" s="177"/>
+      <c r="N2" s="170" t="s">
         <v>74</v>
       </c>
       <c r="O2" s="27"/>
-      <c r="P2" s="158" t="s">
+      <c r="P2" s="153" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="158"/>
-      <c r="R2" s="158"/>
-      <c r="S2" s="158"/>
-      <c r="T2" s="209" t="s">
+      <c r="Q2" s="153"/>
+      <c r="R2" s="153"/>
+      <c r="S2" s="153"/>
+      <c r="T2" s="206" t="s">
         <v>77</v>
       </c>
-      <c r="U2" s="207"/>
+      <c r="U2" s="204"/>
     </row>
     <row r="3" spans="2:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="215"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="212"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="212"/>
-      <c r="I3" s="212"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="203"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="203"/>
+      <c r="I3" s="203"/>
       <c r="J3" s="44"/>
       <c r="K3" s="29" t="s">
         <v>103</v>
@@ -5408,7 +5408,7 @@
       <c r="M3" s="44" t="s">
         <v>105</v>
       </c>
-      <c r="N3" s="172"/>
+      <c r="N3" s="171"/>
       <c r="O3" s="28"/>
       <c r="P3" s="24" t="s">
         <v>65</v>
@@ -5422,8 +5422,8 @@
       <c r="S3" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="210"/>
-      <c r="U3" s="208"/>
+      <c r="T3" s="207"/>
+      <c r="U3" s="205"/>
     </row>
     <row r="4" spans="2:28" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="20" t="s">
@@ -5476,7 +5476,7 @@
       <c r="E5" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F5" s="200" t="s">
+      <c r="F5" s="198" t="s">
         <v>52</v>
       </c>
       <c r="G5" s="10" t="s">
@@ -5506,7 +5506,7 @@
       <c r="U5" s="11"/>
     </row>
     <row r="6" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B6" s="164"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="1" t="s">
         <v>54</v>
       </c>
@@ -5516,7 +5516,7 @@
       <c r="E6" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="213"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
@@ -5542,7 +5542,7 @@
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="164"/>
+      <c r="B7" s="148"/>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
@@ -5552,7 +5552,7 @@
       <c r="E7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F7" s="213"/>
+      <c r="F7" s="199"/>
       <c r="G7" s="1" t="s">
         <v>16</v>
       </c>
@@ -5584,7 +5584,7 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="164"/>
+      <c r="B8" s="148"/>
       <c r="C8" s="1" t="s">
         <v>53</v>
       </c>
@@ -5594,7 +5594,7 @@
       <c r="E8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="213"/>
+      <c r="F8" s="199"/>
       <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
@@ -5620,7 +5620,7 @@
       <c r="U8" s="3"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="164"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="1" t="s">
         <v>53</v>
       </c>
@@ -5630,7 +5630,7 @@
       <c r="E9" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F9" s="213"/>
+      <c r="F9" s="199"/>
       <c r="G9" s="1" t="s">
         <v>24</v>
       </c>
@@ -5656,7 +5656,7 @@
       <c r="U9" s="3"/>
     </row>
     <row r="10" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B10" s="164"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="1" t="s">
         <v>53</v>
       </c>
@@ -5666,7 +5666,7 @@
       <c r="E10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="213"/>
+      <c r="F10" s="199"/>
       <c r="G10" s="1" t="s">
         <v>33</v>
       </c>
@@ -5695,7 +5695,7 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="164"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
@@ -5705,7 +5705,7 @@
       <c r="E11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="213"/>
+      <c r="F11" s="199"/>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
@@ -5749,7 +5749,7 @@
       <c r="E12" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="F12" s="204" t="s">
+      <c r="F12" s="213" t="s">
         <v>79</v>
       </c>
       <c r="G12" s="10" t="s">
@@ -5779,7 +5779,7 @@
       <c r="U12" s="11"/>
     </row>
     <row r="13" spans="2:28" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="198"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="8" t="s">
         <v>55</v>
       </c>
@@ -5789,7 +5789,7 @@
       <c r="E13" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="206"/>
+      <c r="F13" s="215"/>
       <c r="G13" s="8" t="s">
         <v>81</v>
       </c>
@@ -5829,7 +5829,7 @@
       <c r="E14" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="F14" s="204" t="s">
+      <c r="F14" s="213" t="s">
         <v>57</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -5865,7 +5865,7 @@
       </c>
     </row>
     <row r="15" spans="2:28" ht="33" x14ac:dyDescent="0.3">
-      <c r="B15" s="164"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
@@ -5875,7 +5875,7 @@
       <c r="E15" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="205"/>
+      <c r="F15" s="214"/>
       <c r="G15" s="1" t="s">
         <v>27</v>
       </c>
@@ -5903,7 +5903,7 @@
       <c r="U15" s="7"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="164"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="1" t="s">
         <v>53</v>
       </c>
@@ -5913,7 +5913,7 @@
       <c r="E16" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="F16" s="205"/>
+      <c r="F16" s="214"/>
       <c r="G16" s="1" t="s">
         <v>28</v>
       </c>
@@ -5941,7 +5941,7 @@
       <c r="U16" s="7"/>
     </row>
     <row r="17" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="164"/>
+      <c r="B17" s="148"/>
       <c r="C17" s="1" t="s">
         <v>53</v>
       </c>
@@ -5951,7 +5951,7 @@
       <c r="E17" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="205"/>
+      <c r="F17" s="214"/>
       <c r="G17" s="1" t="s">
         <v>32</v>
       </c>
@@ -5979,7 +5979,7 @@
       <c r="U17" s="3"/>
     </row>
     <row r="18" spans="2:21" s="50" customFormat="1" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="164"/>
+      <c r="B18" s="148"/>
       <c r="C18" s="47" t="s">
         <v>53</v>
       </c>
@@ -5989,7 +5989,7 @@
       <c r="E18" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="206"/>
+      <c r="F18" s="215"/>
       <c r="G18" s="47" t="s">
         <v>37</v>
       </c>
@@ -6017,7 +6017,7 @@
       <c r="U18" s="49"/>
     </row>
     <row r="19" spans="2:21" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="164"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -6027,7 +6027,7 @@
       <c r="E19" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F19" s="205" t="s">
+      <c r="F19" s="214" t="s">
         <v>112</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -6057,7 +6057,7 @@
       <c r="U19" s="7"/>
     </row>
     <row r="20" spans="2:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="164"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="1" t="s">
         <v>53</v>
       </c>
@@ -6067,7 +6067,7 @@
       <c r="E20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="205"/>
+      <c r="F20" s="214"/>
       <c r="G20" s="1" t="s">
         <v>30</v>
       </c>
@@ -6095,7 +6095,7 @@
       <c r="U20" s="3"/>
     </row>
     <row r="21" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="198"/>
+      <c r="B21" s="208"/>
       <c r="C21" s="8" t="s">
         <v>55</v>
       </c>
@@ -6105,7 +6105,7 @@
       <c r="E21" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F21" s="206"/>
+      <c r="F21" s="215"/>
       <c r="G21" s="8" t="s">
         <v>27</v>
       </c>
@@ -6145,7 +6145,7 @@
       <c r="E22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="F22" s="200" t="s">
+      <c r="F22" s="198" t="s">
         <v>58</v>
       </c>
       <c r="G22" s="10" t="s">
@@ -6175,7 +6175,7 @@
       <c r="U22" s="11"/>
     </row>
     <row r="23" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="198"/>
+      <c r="B23" s="208"/>
       <c r="C23" s="8" t="s">
         <v>55</v>
       </c>
@@ -6185,7 +6185,7 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F23" s="201"/>
+      <c r="F23" s="210"/>
       <c r="G23" s="8" t="s">
         <v>36</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>13</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="202" t="s">
+      <c r="F24" s="211" t="s">
         <v>59</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -6249,7 +6249,7 @@
       <c r="U24" s="7"/>
     </row>
     <row r="25" spans="2:21" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="199"/>
+      <c r="B25" s="209"/>
       <c r="C25" s="4" t="s">
         <v>56</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="4"/>
-      <c r="F25" s="203"/>
+      <c r="F25" s="212"/>
       <c r="G25" s="4" t="s">
         <v>27</v>
       </c>
@@ -6312,13 +6312,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B5:B11"/>
-    <mergeCell ref="F5:F11"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="B14:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F12:F13"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="P2:S2"/>
@@ -6328,15 +6330,13 @@
     <mergeCell ref="L2:M2"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
-    <mergeCell ref="B14:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="F19:F21"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="B5:B11"/>
+    <mergeCell ref="F5:F11"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="E2:E3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
